--- a/Arkusze/Doktorat_obliczenia_EU-28_2007.xlsx
+++ b/Arkusze/Doktorat_obliczenia_EU-28_2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zemat\OneDrive\R_Map_Stats_GreenJobs\Arkusze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{896BCC7E-4B88-4BD6-9EEE-69DADFE452C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{E4D0D085-C3F5-4632-8B61-06713CDE0E8E}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{896BCC7E-4B88-4BD6-9EEE-69DADFE452C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{7FC16B24-7726-4C05-90EA-A68BEF072CAC}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="60" windowWidth="15195" windowHeight="9210" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17266,6 +17266,7 @@
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="11" width="9.140625" style="11"/>
+    <col min="17" max="17" width="40" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="12"/>
     <col min="20" max="21" width="9.140625" style="11"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -17586,15 +17587,15 @@
         <v>8634.6781258894953</v>
       </c>
       <c r="X3" s="9">
-        <f>1-(W3/$AD$4)</f>
+        <f t="shared" ref="X3:X30" si="1">1-(W3/$AD$4)</f>
         <v>0.34589823555157595</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y30" si="1">A3</f>
+        <f t="shared" ref="Y3:Y30" si="2">A3</f>
         <v>Austria</v>
       </c>
       <c r="Z3" s="10">
-        <f t="shared" ref="Z3:Z30" si="2">X3</f>
+        <f t="shared" ref="Z3:Z30" si="3">X3</f>
         <v>0.34589823555157595</v>
       </c>
       <c r="AA3" s="13">
@@ -17703,19 +17704,19 @@
         <v>76.7</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" ref="W4:W30" si="3">((B4-$B$31)^2+(C4-$C$31)^2+(D4-$D$31)^2+(E4-$E$31)^2+(F4-$F$31)^2+(G4-$G$31)^2+(H4-$H$31)^2+(I4-$I$31)^2+(J4-$J$31)^2+(K4-$K$31)^2+(L4-$L$31)^2+(M4-$M$31)^2+(N4-$N$31)^2+(O4-$O$31)^2+(P4-$P$31)^2+(Q4-$Q$31)^2+(R4-$R$31)^2+(S4-$S$31)^2+(T4-$T$31)^2+(U4-$U$31)^2+(V4-$V$31)^2)^(0.5)</f>
+        <f t="shared" ref="W4:W30" si="4">((B4-$B$31)^2+(C4-$C$31)^2+(D4-$D$31)^2+(E4-$E$31)^2+(F4-$F$31)^2+(G4-$G$31)^2+(H4-$H$31)^2+(I4-$I$31)^2+(J4-$J$31)^2+(K4-$K$31)^2+(L4-$L$31)^2+(M4-$M$31)^2+(N4-$N$31)^2+(O4-$O$31)^2+(P4-$P$31)^2+(Q4-$Q$31)^2+(R4-$R$31)^2+(S4-$S$31)^2+(T4-$T$31)^2+(U4-$U$31)^2+(V4-$V$31)^2)^(0.5)</f>
         <v>8926.1795768087031</v>
       </c>
       <c r="X4" s="9">
-        <f>1-(W4/$AD$4)</f>
+        <f t="shared" si="1"/>
         <v>0.32381616015679837</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Belgia</v>
       </c>
       <c r="Z4" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32381616015679837</v>
       </c>
       <c r="AA4" s="13">
@@ -17825,19 +17826,19 @@
         <v>33.18</v>
       </c>
       <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>10586.847407012154</v>
+      </c>
+      <c r="X5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.19801578380670548</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="2"/>
+        <v>Bułgaria</v>
+      </c>
+      <c r="Z5" s="10">
         <f t="shared" si="3"/>
-        <v>10586.847407012154</v>
-      </c>
-      <c r="X5" s="9">
-        <f>1-(W5/$AD$4)</f>
-        <v>0.19801578380670548</v>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" si="1"/>
-        <v>Bułgaria</v>
-      </c>
-      <c r="Z5" s="10">
-        <f t="shared" si="2"/>
         <v>0.19801578380670548</v>
       </c>
       <c r="AA5" s="13">
@@ -17944,19 +17945,19 @@
         <v>48.333333333333336</v>
       </c>
       <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>9625.0277696072153</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.27087639455968648</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="2"/>
+        <v>Chorwacja</v>
+      </c>
+      <c r="Z6" s="10">
         <f t="shared" si="3"/>
-        <v>9625.0277696072153</v>
-      </c>
-      <c r="X6" s="9">
-        <f>1-(W6/$AD$4)</f>
-        <v>0.27087639455968648</v>
-      </c>
-      <c r="Y6" t="str">
-        <f t="shared" si="1"/>
-        <v>Chorwacja</v>
-      </c>
-      <c r="Z6" s="10">
-        <f t="shared" si="2"/>
         <v>0.27087639455968648</v>
       </c>
       <c r="AA6" s="13">
@@ -18063,19 +18064,19 @@
         <v>144.90352633826882</v>
       </c>
       <c r="W7" s="9">
+        <f t="shared" si="4"/>
+        <v>8492.1449980843809</v>
+      </c>
+      <c r="X7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.35669553094932127</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="2"/>
+        <v>Cypr</v>
+      </c>
+      <c r="Z7" s="10">
         <f t="shared" si="3"/>
-        <v>8492.1449980843809</v>
-      </c>
-      <c r="X7" s="9">
-        <f>1-(W7/$AD$4)</f>
-        <v>0.35669553094932127</v>
-      </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="1"/>
-        <v>Cypr</v>
-      </c>
-      <c r="Z7" s="10">
-        <f t="shared" si="2"/>
         <v>0.35669553094932127</v>
       </c>
       <c r="AA7" s="13">
@@ -18182,19 +18183,19 @@
         <v>106.25</v>
       </c>
       <c r="W8" s="9">
+        <f t="shared" si="4"/>
+        <v>7562.7979571808883</v>
+      </c>
+      <c r="X8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42709624888891151</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="2"/>
+        <v>Czechy</v>
+      </c>
+      <c r="Z8" s="10">
         <f t="shared" si="3"/>
-        <v>7562.7979571808883</v>
-      </c>
-      <c r="X8" s="9">
-        <f>1-(W8/$AD$4)</f>
-        <v>0.42709624888891151</v>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="1"/>
-        <v>Czechy</v>
-      </c>
-      <c r="Z8" s="10">
-        <f t="shared" si="2"/>
         <v>0.42709624888891151</v>
       </c>
       <c r="AA8" s="13">
@@ -18301,19 +18302,19 @@
         <v>68.575000000000003</v>
       </c>
       <c r="W9" s="9">
+        <f t="shared" si="4"/>
+        <v>6710.3820660726115</v>
+      </c>
+      <c r="X9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.49166921041553036</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="2"/>
+        <v>Dania</v>
+      </c>
+      <c r="Z9" s="10">
         <f t="shared" si="3"/>
-        <v>6710.3820660726115</v>
-      </c>
-      <c r="X9" s="9">
-        <f>1-(W9/$AD$4)</f>
-        <v>0.49166921041553036</v>
-      </c>
-      <c r="Y9" t="str">
-        <f t="shared" si="1"/>
-        <v>Dania</v>
-      </c>
-      <c r="Z9" s="10">
-        <f t="shared" si="2"/>
         <v>0.49166921041553036</v>
       </c>
       <c r="AA9" s="13">
@@ -18420,19 +18421,19 @@
         <v>28.25</v>
       </c>
       <c r="W10" s="9">
+        <f t="shared" si="4"/>
+        <v>8620.333347376336</v>
+      </c>
+      <c r="X10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34698489388432219</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="2"/>
+        <v>Estonia</v>
+      </c>
+      <c r="Z10" s="10">
         <f t="shared" si="3"/>
-        <v>8620.333347376336</v>
-      </c>
-      <c r="X10" s="9">
-        <f>1-(W10/$AD$4)</f>
-        <v>0.34698489388432219</v>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="1"/>
-        <v>Estonia</v>
-      </c>
-      <c r="Z10" s="10">
-        <f t="shared" si="2"/>
         <v>0.34698489388432219</v>
       </c>
       <c r="AA10" s="13">
@@ -18539,19 +18540,19 @@
         <v>132.69999999999999</v>
       </c>
       <c r="W11" s="9">
+        <f t="shared" si="4"/>
+        <v>10471.467863390235</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20675611691050333</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="2"/>
+        <v>Finlandia</v>
+      </c>
+      <c r="Z11" s="10">
         <f t="shared" si="3"/>
-        <v>10471.467863390235</v>
-      </c>
-      <c r="X11" s="9">
-        <f>1-(W11/$AD$4)</f>
-        <v>0.20675611691050333</v>
-      </c>
-      <c r="Y11" t="str">
-        <f t="shared" si="1"/>
-        <v>Finlandia</v>
-      </c>
-      <c r="Z11" s="10">
-        <f t="shared" si="2"/>
         <v>0.20675611691050333</v>
       </c>
       <c r="AA11" s="13">
@@ -18658,19 +18659,19 @@
         <v>434.97499999999997</v>
       </c>
       <c r="W12" s="9">
+        <f t="shared" si="4"/>
+        <v>9389.2242445029369</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.28873919147986438</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="2"/>
+        <v>Francja</v>
+      </c>
+      <c r="Z12" s="10">
         <f t="shared" si="3"/>
-        <v>9389.2242445029369</v>
-      </c>
-      <c r="X12" s="9">
-        <f>1-(W12/$AD$4)</f>
-        <v>0.28873919147986438</v>
-      </c>
-      <c r="Y12" t="str">
-        <f t="shared" si="1"/>
-        <v>Francja</v>
-      </c>
-      <c r="Z12" s="10">
-        <f t="shared" si="2"/>
         <v>0.28873919147986438</v>
       </c>
       <c r="AA12" s="13">
@@ -18777,19 +18778,19 @@
         <v>145.53229055046864</v>
       </c>
       <c r="W13" s="9">
+        <f t="shared" si="4"/>
+        <v>7741.1450545365087</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.41358594203511101</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="2"/>
+        <v>Grecja</v>
+      </c>
+      <c r="Z13" s="10">
         <f t="shared" si="3"/>
-        <v>7741.1450545365087</v>
-      </c>
-      <c r="X13" s="9">
-        <f>1-(W13/$AD$4)</f>
-        <v>0.41358594203511101</v>
-      </c>
-      <c r="Y13" t="str">
-        <f t="shared" si="1"/>
-        <v>Grecja</v>
-      </c>
-      <c r="Z13" s="10">
-        <f t="shared" si="2"/>
         <v>0.41358594203511101</v>
       </c>
       <c r="AA13" s="13">
@@ -18896,19 +18897,19 @@
         <v>259.75</v>
       </c>
       <c r="W14" s="9">
+        <f t="shared" si="4"/>
+        <v>10790.801253349471</v>
+      </c>
+      <c r="X14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.18256569188546912</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="2"/>
+        <v>Hiszpania</v>
+      </c>
+      <c r="Z14" s="10">
         <f t="shared" si="3"/>
-        <v>10790.801253349471</v>
-      </c>
-      <c r="X14" s="9">
-        <f>1-(W14/$AD$4)</f>
-        <v>0.18256569188546912</v>
-      </c>
-      <c r="Y14" t="str">
-        <f t="shared" si="1"/>
-        <v>Hiszpania</v>
-      </c>
-      <c r="Z14" s="10">
-        <f t="shared" si="2"/>
         <v>0.18256569188546912</v>
       </c>
       <c r="AA14" s="13">
@@ -19015,19 +19016,19 @@
         <v>130.75</v>
       </c>
       <c r="W15" s="9">
+        <f t="shared" si="4"/>
+        <v>9424.3961343217561</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.28607481941479618</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="2"/>
+        <v>Holandia</v>
+      </c>
+      <c r="Z15" s="10">
         <f t="shared" si="3"/>
-        <v>9424.3961343217561</v>
-      </c>
-      <c r="X15" s="9">
-        <f>1-(W15/$AD$4)</f>
-        <v>0.28607481941479618</v>
-      </c>
-      <c r="Y15" t="str">
-        <f t="shared" si="1"/>
-        <v>Holandia</v>
-      </c>
-      <c r="Z15" s="10">
-        <f t="shared" si="2"/>
         <v>0.28607481941479618</v>
       </c>
       <c r="AA15" s="13">
@@ -19134,19 +19135,19 @@
         <v>21.266666666666666</v>
       </c>
       <c r="W16" s="9">
+        <f t="shared" si="4"/>
+        <v>10012.995492200147</v>
+      </c>
+      <c r="X16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.24148672094392198</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="2"/>
+        <v>Irlandia</v>
+      </c>
+      <c r="Z16" s="10">
         <f t="shared" si="3"/>
-        <v>10012.995492200147</v>
-      </c>
-      <c r="X16" s="9">
-        <f>1-(W16/$AD$4)</f>
-        <v>0.24148672094392198</v>
-      </c>
-      <c r="Y16" t="str">
-        <f t="shared" si="1"/>
-        <v>Irlandia</v>
-      </c>
-      <c r="Z16" s="10">
-        <f t="shared" si="2"/>
         <v>0.24148672094392198</v>
       </c>
       <c r="AA16" s="13">
@@ -19253,19 +19254,19 @@
         <v>36.933333333333337</v>
       </c>
       <c r="W17" s="9">
+        <f t="shared" si="4"/>
+        <v>10653.39871711112</v>
+      </c>
+      <c r="X17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.19297433017897059</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="2"/>
+        <v>Litwa</v>
+      </c>
+      <c r="Z17" s="10">
         <f t="shared" si="3"/>
-        <v>10653.39871711112</v>
-      </c>
-      <c r="X17" s="9">
-        <f>1-(W17/$AD$4)</f>
-        <v>0.19297433017897059</v>
-      </c>
-      <c r="Y17" t="str">
-        <f t="shared" si="1"/>
-        <v>Litwa</v>
-      </c>
-      <c r="Z17" s="10">
-        <f t="shared" si="2"/>
         <v>0.19297433017897059</v>
       </c>
       <c r="AA17" s="13">
@@ -19372,19 +19373,19 @@
         <v>9.64</v>
       </c>
       <c r="W18" s="9">
+        <f t="shared" si="4"/>
+        <v>10480.025657361763</v>
+      </c>
+      <c r="X18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20610783934242827</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="2"/>
+        <v>Luksemburg</v>
+      </c>
+      <c r="Z18" s="10">
         <f t="shared" si="3"/>
-        <v>10480.025657361763</v>
-      </c>
-      <c r="X18" s="9">
-        <f>1-(W18/$AD$4)</f>
-        <v>0.20610783934242827</v>
-      </c>
-      <c r="Y18" t="str">
-        <f t="shared" si="1"/>
-        <v>Luksemburg</v>
-      </c>
-      <c r="Z18" s="10">
-        <f t="shared" si="2"/>
         <v>0.20610783934242827</v>
       </c>
       <c r="AA18" s="13">
@@ -19491,19 +19492,19 @@
         <v>27.9</v>
       </c>
       <c r="W19" s="9">
+        <f t="shared" si="4"/>
+        <v>465.23439389380349</v>
+      </c>
+      <c r="X19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96475715324979971</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="2"/>
+        <v>Łotwa</v>
+      </c>
+      <c r="Z19" s="10">
         <f t="shared" si="3"/>
-        <v>465.23439389380349</v>
-      </c>
-      <c r="X19" s="9">
-        <f>1-(W19/$AD$4)</f>
-        <v>0.96475715324979971</v>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="1"/>
-        <v>Łotwa</v>
-      </c>
-      <c r="Z19" s="10">
-        <f t="shared" si="2"/>
         <v>0.96475715324979971</v>
       </c>
       <c r="AA19" s="13">
@@ -19610,19 +19611,19 @@
         <v>143.91419305977459</v>
       </c>
       <c r="W20" s="9">
+        <f t="shared" si="4"/>
+        <v>10344.837094789393</v>
+      </c>
+      <c r="X20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.21634876274717008</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="2"/>
+        <v>Malta</v>
+      </c>
+      <c r="Z20" s="10">
         <f t="shared" si="3"/>
-        <v>10344.837094789393</v>
-      </c>
-      <c r="X20" s="9">
-        <f>1-(W20/$AD$4)</f>
-        <v>0.21634876274717008</v>
-      </c>
-      <c r="Y20" t="str">
-        <f t="shared" si="1"/>
-        <v>Malta</v>
-      </c>
-      <c r="Z20" s="10">
-        <f t="shared" si="2"/>
         <v>0.21634876274717008</v>
       </c>
       <c r="AA20" s="13">
@@ -19729,19 +19730,19 @@
         <v>101.7</v>
       </c>
       <c r="W21" s="9">
+        <f t="shared" si="4"/>
+        <v>10547.995447456353</v>
+      </c>
+      <c r="X21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20095893176511426</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="2"/>
+        <v>Niemcy</v>
+      </c>
+      <c r="Z21" s="10">
         <f t="shared" si="3"/>
-        <v>10547.995447456353</v>
-      </c>
-      <c r="X21" s="9">
-        <f>1-(W21/$AD$4)</f>
-        <v>0.20095893176511426</v>
-      </c>
-      <c r="Y21" t="str">
-        <f t="shared" si="1"/>
-        <v>Niemcy</v>
-      </c>
-      <c r="Z21" s="10">
-        <f t="shared" si="2"/>
         <v>0.20095893176511426</v>
       </c>
       <c r="AA21" s="13">
@@ -19848,19 +19849,19 @@
         <v>329.4</v>
       </c>
       <c r="W22" s="9">
+        <f t="shared" si="4"/>
+        <v>6797.9507725878584</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.48503562840969394</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="2"/>
+        <v>Polska</v>
+      </c>
+      <c r="Z22" s="10">
         <f t="shared" si="3"/>
-        <v>6797.9507725878584</v>
-      </c>
-      <c r="X22" s="9">
-        <f>1-(W22/$AD$4)</f>
-        <v>0.48503562840969394</v>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="1"/>
-        <v>Polska</v>
-      </c>
-      <c r="Z22" s="10">
-        <f t="shared" si="2"/>
         <v>0.48503562840969394</v>
       </c>
       <c r="AA22" s="13">
@@ -19967,19 +19968,19 @@
         <v>95.699999999999989</v>
       </c>
       <c r="W23" s="9">
+        <f t="shared" si="4"/>
+        <v>6630.0619897127026</v>
+      </c>
+      <c r="X23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.49775368778708684</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="2"/>
+        <v>Portugalia</v>
+      </c>
+      <c r="Z23" s="10">
         <f t="shared" si="3"/>
-        <v>6630.0619897127026</v>
-      </c>
-      <c r="X23" s="9">
-        <f>1-(W23/$AD$4)</f>
-        <v>0.49775368778708684</v>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="1"/>
-        <v>Portugalia</v>
-      </c>
-      <c r="Z23" s="10">
-        <f t="shared" si="2"/>
         <v>0.49775368778708684</v>
       </c>
       <c r="AA23" s="13">
@@ -20086,19 +20087,19 @@
         <v>239.1</v>
       </c>
       <c r="W24" s="9">
+        <f t="shared" si="4"/>
+        <v>8087.2616146172577</v>
+      </c>
+      <c r="X24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.38736661464931865</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="2"/>
+        <v>Rumunia</v>
+      </c>
+      <c r="Z24" s="10">
         <f t="shared" si="3"/>
-        <v>8087.2616146172577</v>
-      </c>
-      <c r="X24" s="9">
-        <f>1-(W24/$AD$4)</f>
-        <v>0.38736661464931865</v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="1"/>
-        <v>Rumunia</v>
-      </c>
-      <c r="Z24" s="10">
-        <f t="shared" si="2"/>
         <v>0.38736661464931865</v>
       </c>
       <c r="AA24" s="13">
@@ -20205,19 +20206,19 @@
         <v>144.01113543840199</v>
       </c>
       <c r="W25" s="9">
+        <f t="shared" si="4"/>
+        <v>10372.9420719149</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.21421972969468628</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="2"/>
+        <v>Słowacja</v>
+      </c>
+      <c r="Z25" s="10">
         <f t="shared" si="3"/>
-        <v>10372.9420719149</v>
-      </c>
-      <c r="X25" s="9">
-        <f>1-(W25/$AD$4)</f>
-        <v>0.21421972969468628</v>
-      </c>
-      <c r="Y25" t="str">
-        <f t="shared" si="1"/>
-        <v>Słowacja</v>
-      </c>
-      <c r="Z25" s="10">
-        <f t="shared" si="2"/>
         <v>0.21421972969468628</v>
       </c>
       <c r="AA25" s="13">
@@ -20324,19 +20325,19 @@
         <v>23.599999999999998</v>
       </c>
       <c r="W26" s="9">
+        <f t="shared" si="4"/>
+        <v>10496.750592512426</v>
+      </c>
+      <c r="X26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20484087728167311</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="2"/>
+        <v>Słowenia</v>
+      </c>
+      <c r="Z26" s="10">
         <f t="shared" si="3"/>
-        <v>10496.750592512426</v>
-      </c>
-      <c r="X26" s="9">
-        <f>1-(W26/$AD$4)</f>
-        <v>0.20484087728167311</v>
-      </c>
-      <c r="Y26" t="str">
-        <f t="shared" si="1"/>
-        <v>Słowenia</v>
-      </c>
-      <c r="Z26" s="10">
-        <f t="shared" si="2"/>
         <v>0.20484087728167311</v>
       </c>
       <c r="AA26" s="13">
@@ -20443,19 +20444,19 @@
         <v>71.7</v>
       </c>
       <c r="W27" s="9">
+        <f t="shared" si="4"/>
+        <v>9300.1657653653801</v>
+      </c>
+      <c r="X27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29548562805730982</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="2"/>
+        <v>Szwecja</v>
+      </c>
+      <c r="Z27" s="10">
         <f t="shared" si="3"/>
-        <v>9300.1657653653801</v>
-      </c>
-      <c r="X27" s="9">
-        <f>1-(W27/$AD$4)</f>
-        <v>0.29548562805730982</v>
-      </c>
-      <c r="Y27" t="str">
-        <f t="shared" si="1"/>
-        <v>Szwecja</v>
-      </c>
-      <c r="Z27" s="10">
-        <f t="shared" si="2"/>
         <v>0.29548562805730982</v>
       </c>
       <c r="AA27" s="13">
@@ -20562,19 +20563,19 @@
         <v>144.12425003756678</v>
       </c>
       <c r="W28" s="9">
+        <f t="shared" si="4"/>
+        <v>10143.029155454027</v>
+      </c>
+      <c r="X28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.23163629602570379</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="2"/>
+        <v>Węgry</v>
+      </c>
+      <c r="Z28" s="10">
         <f t="shared" si="3"/>
-        <v>10143.029155454027</v>
-      </c>
-      <c r="X28" s="9">
-        <f>1-(W28/$AD$4)</f>
-        <v>0.23163629602570379</v>
-      </c>
-      <c r="Y28" t="str">
-        <f t="shared" si="1"/>
-        <v>Węgry</v>
-      </c>
-      <c r="Z28" s="10">
-        <f t="shared" si="2"/>
         <v>0.23163629602570379</v>
       </c>
       <c r="AA28" s="13">
@@ -20681,19 +20682,19 @@
         <v>325.20000000000005</v>
       </c>
       <c r="W29" s="9">
+        <f t="shared" si="4"/>
+        <v>4849.1800712441027</v>
+      </c>
+      <c r="X29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.63266062793716982</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="2"/>
+        <v>Wielka Brytania</v>
+      </c>
+      <c r="Z29" s="10">
         <f t="shared" si="3"/>
-        <v>4849.1800712441027</v>
-      </c>
-      <c r="X29" s="9">
-        <f>1-(W29/$AD$4)</f>
-        <v>0.63266062793716982</v>
-      </c>
-      <c r="Y29" t="str">
-        <f t="shared" si="1"/>
-        <v>Wielka Brytania</v>
-      </c>
-      <c r="Z29" s="10">
-        <f t="shared" si="2"/>
         <v>0.63266062793716982</v>
       </c>
       <c r="AA29" s="13">
@@ -20800,19 +20801,19 @@
         <v>144.2523062613476</v>
       </c>
       <c r="W30" s="9">
+        <f t="shared" si="4"/>
+        <v>8983.7754840000289</v>
+      </c>
+      <c r="X30" s="9">
+        <f t="shared" si="1"/>
+        <v>0.319453104120477</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="2"/>
+        <v>Włochy</v>
+      </c>
+      <c r="Z30" s="10">
         <f t="shared" si="3"/>
-        <v>8983.7754840000289</v>
-      </c>
-      <c r="X30" s="9">
-        <f>1-(W30/$AD$4)</f>
-        <v>0.319453104120477</v>
-      </c>
-      <c r="Y30" t="str">
-        <f t="shared" si="1"/>
-        <v>Włochy</v>
-      </c>
-      <c r="Z30" s="10">
-        <f t="shared" si="2"/>
         <v>0.319453104120477</v>
       </c>
       <c r="AA30" s="13">
@@ -20846,63 +20847,63 @@
         <v>1</v>
       </c>
       <c r="E31" s="17">
-        <f t="shared" ref="E31:K31" si="4">MIN(E3:E30)</f>
+        <f t="shared" ref="E31:K31" si="5">MIN(E3:E30)</f>
         <v>-24</v>
       </c>
       <c r="F31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.8571428571428577</v>
       </c>
       <c r="I31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
       <c r="K31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" ref="L31:S31" si="5">MAX(L3:L30)</f>
+        <f t="shared" ref="L31:S31" si="6">MAX(L3:L30)</f>
         <v>44.2</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>178.4</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10947</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.02</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.74</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.03</v>
       </c>
       <c r="S31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="T31" s="17">

--- a/Arkusze/Doktorat_obliczenia_EU-28_2007.xlsx
+++ b/Arkusze/Doktorat_obliczenia_EU-28_2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zemat\OneDrive\R_Map_Stats_GreenJobs\Arkusze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{896BCC7E-4B88-4BD6-9EEE-69DADFE452C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{7FC16B24-7726-4C05-90EA-A68BEF072CAC}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{896BCC7E-4B88-4BD6-9EEE-69DADFE452C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{63D9E601-3AD8-4FA0-8CDC-717E10613B5C}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="60" windowWidth="15195" windowHeight="9210" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,44 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Adam Sulich</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CBDF5983-35E0-4CF2-AE66-BA7371420890}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Adam Sulich:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-kolorem czerwonym oznaczono destymulanty</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="169">
   <si>
     <t>X1</t>
   </si>
@@ -574,6 +538,12 @@
   <si>
     <t>symbolh</t>
   </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>kraj</t>
+  </si>
 </sst>
 </file>
 
@@ -582,7 +552,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -604,21 +574,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial CE"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -701,9 +656,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -712,7 +667,7 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17251,14 +17206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17266,584 +17221,596 @@
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="13"/>
     <col min="4" max="11" width="9.140625" style="11"/>
-    <col min="17" max="17" width="40" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="12"/>
     <col min="20" max="21" width="9.140625" style="11"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
       <c r="B1" t="str">
-        <f>'dane po Vs'!B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C1" s="13" t="str">
-        <f>'dane po Vs'!C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D1" s="11" t="str">
-        <f>'dane po Vs'!D1</f>
-        <v>X6</v>
-      </c>
-      <c r="E1" s="11" t="str">
-        <f>'dane po Vs'!E1</f>
-        <v>X8</v>
-      </c>
-      <c r="F1" s="11" t="str">
-        <f>'dane po Vs'!F1</f>
-        <v>X10</v>
-      </c>
-      <c r="G1" s="11" t="str">
-        <f>'dane po Vs'!G1</f>
-        <v>X11</v>
-      </c>
-      <c r="H1" s="11" t="str">
-        <f>'dane po Vs'!H1</f>
-        <v>X12</v>
-      </c>
-      <c r="I1" s="11" t="str">
-        <f>'dane po Vs'!I1</f>
-        <v>X13</v>
-      </c>
-      <c r="J1" s="11" t="str">
-        <f>'dane po Vs'!J1</f>
-        <v>X14</v>
-      </c>
-      <c r="K1" s="11" t="str">
-        <f>'dane po Vs'!K1</f>
-        <v>X15</v>
-      </c>
-      <c r="L1" t="str">
-        <f>'dane po Vs'!L1</f>
-        <v>X16</v>
-      </c>
-      <c r="M1" t="str">
-        <f>'dane po Vs'!M1</f>
-        <v>X17</v>
-      </c>
-      <c r="N1" t="str">
-        <f>'dane po Vs'!N1</f>
-        <v>X18</v>
-      </c>
-      <c r="O1" t="str">
-        <f>'dane po Vs'!O1</f>
-        <v>X19</v>
-      </c>
-      <c r="P1" t="str">
-        <f>'dane po Vs'!P1</f>
-        <v>X20</v>
-      </c>
-      <c r="Q1" t="str">
-        <f>'dane po Vs'!Q1</f>
-        <v>X21</v>
-      </c>
-      <c r="R1" t="str">
-        <f>'dane po Vs'!R1</f>
-        <v>X23</v>
-      </c>
-      <c r="S1" s="12" t="str">
-        <f>'dane po Vs'!S1</f>
-        <v>X24</v>
-      </c>
-      <c r="T1" s="11" t="str">
-        <f>'dane po Vs'!T1</f>
-        <v>X25</v>
-      </c>
-      <c r="U1" s="11" t="str">
-        <f>'dane po Vs'!U1</f>
-        <v>X26</v>
-      </c>
-      <c r="V1" t="str">
-        <f>'dane po Vs'!V1</f>
-        <v>X27</v>
-      </c>
-      <c r="W1" t="s">
-        <v>165</v>
-      </c>
-      <c r="X1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B2" t="str">
         <f>'dane po Vs'!B2</f>
         <v>Chroniony obszar lądowy (% powierzchni państwa)</v>
       </c>
-      <c r="C2" s="13" t="str">
+      <c r="C1" s="13" t="str">
         <f>'dane po Vs'!C2</f>
         <v>Połowy w regionach rybackich (tys.ton)</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D1" s="11" t="str">
         <f>'dane po Vs'!D2</f>
         <v>Indeks wydajnosci zasobów (rok 2000=100)</v>
       </c>
-      <c r="E2" s="11" t="str">
+      <c r="E1" s="11" t="str">
         <f>'dane po Vs'!E2</f>
         <v>Zależność energetyczna (%)</v>
       </c>
-      <c r="F2" s="11" t="str">
+      <c r="F1" s="11" t="str">
         <f>'dane po Vs'!F2</f>
         <v>Emisja tlenków siarki (kg/osoba)</v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G1" s="11" t="str">
         <f>'dane po Vs'!G2</f>
         <v>Emisja cząstek stałych (kg/osoba)</v>
       </c>
-      <c r="H2" s="11" t="str">
+      <c r="H1" s="11" t="str">
         <f>'dane po Vs'!H2</f>
         <v>Zanieczyszczenie hałasem (% ludności)</v>
       </c>
-      <c r="I2" s="11" t="str">
+      <c r="I1" s="11" t="str">
         <f>'dane po Vs'!I2</f>
         <v>Konsumpcja surowców (ton/osoba)</v>
       </c>
-      <c r="J2" s="11" t="str">
+      <c r="J1" s="11" t="str">
         <f>'dane po Vs'!J2</f>
         <v>Zużycie nawozów (kg/ha)</v>
       </c>
-      <c r="K2" s="11" t="str">
+      <c r="K1" s="11" t="str">
         <f>'dane po Vs'!K2</f>
         <v>Odpady komunalne (kg/osoba)</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L1" t="str">
         <f>'dane po Vs'!L2</f>
         <v>Odnawialna energia elektryczna (%konsumpcji prądu)</v>
       </c>
-      <c r="M2" t="str">
+      <c r="M1" t="str">
         <f>'dane po Vs'!M2</f>
         <v>Krajowa konsumpcja biomasy (100 tys. ton ekwiwalentu oleju)</v>
       </c>
-      <c r="N2" t="str">
+      <c r="N1" t="str">
         <f>'dane po Vs'!N2</f>
         <v>Uprawy ekologiczne (% użytków rolnych)</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O1" t="str">
         <f>'dane po Vs'!O2</f>
         <v>Odzysk odpadów (kg/osoba)</v>
       </c>
-      <c r="P2" t="str">
+      <c r="P1" t="str">
         <f>'dane po Vs'!P2</f>
         <v>Wydatki na ochronę środoiwska (% PKB)</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="Q1" t="str">
         <f>'dane po Vs'!Q2</f>
         <v>Dochody z podatków środoiwskowych (% PKB)</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R1" t="str">
         <f>'dane po Vs'!R2</f>
         <v>Patenty związane z recyklingiem i surowcami wtórnymi  (liczba)</v>
       </c>
-      <c r="S2" s="12" t="str">
+      <c r="S1" s="12" t="str">
         <f>'dane po Vs'!S2</f>
         <v>Wydatki publiczne na badania i rozwój dotyczące środowiska (% PKB)</v>
       </c>
-      <c r="T2" s="11" t="str">
+      <c r="T1" s="11" t="str">
         <f>'dane po Vs'!T2</f>
         <v>Stopa bezrobocia ludzi młodych w wieku 15-24 lata, obliczona jako udział (%) w całkowitej populacji w tej samej grupie wiekowej</v>
       </c>
-      <c r="U2" s="11" t="str">
+      <c r="U1" s="11" t="str">
         <f>'dane po Vs'!U2</f>
         <v>Osoby zagrożone ubóstwem lub wykluczeniem społecznym</v>
       </c>
-      <c r="V2" t="str">
+      <c r="V1" t="str">
         <f>'dane po Vs'!V2</f>
         <v>Zatrudnienie w sektorze dóbr i usług środowiskowych (ekwiwalent pełnego czasu pracy ∙〖10〗^(-3); FTE)</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W1" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y1" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z1" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="13" t="str">
-        <f t="shared" ref="AA2:AA30" si="0">X2</f>
+      <c r="AA1" s="13" t="str">
+        <f t="shared" ref="AA1:AA29" si="0">X1</f>
         <v>zi</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>'dane po Vs'!A3</f>
+        <v>Austria</v>
+      </c>
+      <c r="B2">
+        <f>'dane po Vs'!B3</f>
+        <v>11</v>
+      </c>
+      <c r="C2" s="13">
+        <f>'dane po Vs'!C3</f>
+        <v>105.2</v>
+      </c>
+      <c r="D2" s="11">
+        <f>'dane po Vs'!D3</f>
+        <v>366</v>
+      </c>
+      <c r="E2" s="11">
+        <f>'dane po Vs'!E3</f>
+        <v>69</v>
+      </c>
+      <c r="F2" s="11">
+        <f>'dane po Vs'!F3</f>
+        <v>1.9</v>
+      </c>
+      <c r="G2" s="11">
+        <f>'dane po Vs'!G3</f>
+        <v>3.875</v>
+      </c>
+      <c r="H2" s="11">
+        <f>'dane po Vs'!H3</f>
+        <v>19.8</v>
+      </c>
+      <c r="I2" s="11">
+        <f>'dane po Vs'!I3</f>
+        <v>25</v>
+      </c>
+      <c r="J2" s="11">
+        <f>'dane po Vs'!J3</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="11">
+        <f>'dane po Vs'!K3</f>
+        <v>597</v>
+      </c>
+      <c r="L2">
+        <f>'dane po Vs'!L3</f>
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <f>'dane po Vs'!M3</f>
+        <v>15.1</v>
+      </c>
+      <c r="N2">
+        <f>'dane po Vs'!N3</f>
+        <v>17</v>
+      </c>
+      <c r="O2">
+        <f>'dane po Vs'!O3</f>
+        <v>2332</v>
+      </c>
+      <c r="P2">
+        <f>'dane po Vs'!P3</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q2">
+        <f>'dane po Vs'!Q3</f>
+        <v>2.37</v>
+      </c>
+      <c r="R2">
+        <f>'dane po Vs'!R3</f>
+        <v>7.07</v>
+      </c>
+      <c r="S2" s="12">
+        <f>'dane po Vs'!S3</f>
+        <v>0.13</v>
+      </c>
+      <c r="T2" s="11">
+        <f>'dane po Vs'!T3</f>
+        <v>9.4</v>
+      </c>
+      <c r="U2" s="11">
+        <f>'dane po Vs'!U3</f>
+        <v>16.7</v>
+      </c>
+      <c r="V2">
+        <f>'dane po Vs'!V3</f>
+        <v>166.80385803767996</v>
+      </c>
+      <c r="W2" s="9">
+        <f>((B2-$B$30)^2+(C2-$C$30)^2+(D2-$D$30)^2+(E2-$E$30)^2+(F2-$F$30)^2+(G2-$G$30)^2+(H2-$H$30)^2+(I2-$I$30)^2+(J2-$J$30)^2+(K2-$K$30)^2+(L2-$L$30)^2+(M2-$M$30)^2+(N2-$N$30)^2+(O2-$O$30)^2+(P2-$P$30)^2+(Q2-$Q$30)^2+(R2-$R$30)^2+(S2-$S$30)^2+(T2-$T$30)^2+(U2-$U$30)^2+(V2-$V$30)^2)^(0.5)</f>
+        <v>8634.6781258894953</v>
+      </c>
+      <c r="X2" s="9">
+        <f>1-(W2/$AD$3)</f>
+        <v>0.34589823555157595</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y29" si="1">A2</f>
+        <v>Austria</v>
+      </c>
+      <c r="Z2" s="10">
+        <f t="shared" ref="Z2:Z29" si="2">X2</f>
+        <v>0.34589823555157595</v>
+      </c>
+      <c r="AA2" s="13">
+        <f t="shared" si="0"/>
+        <v>0.34589823555157595</v>
+      </c>
+      <c r="AB2" s="10">
+        <f>AVERAGE(W2:W29)</f>
+        <v>8755.0367899412122</v>
+      </c>
+      <c r="AC2" s="10">
+        <f>STDEV(W2:W29)</f>
+        <v>2222.8904368040257</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>'dane po Vs'!A3</f>
-        <v>Austria</v>
+        <f>'dane po Vs'!A4</f>
+        <v>Belgia</v>
       </c>
       <c r="B3">
-        <f>'dane po Vs'!B3</f>
-        <v>11</v>
+        <f>'dane po Vs'!B4</f>
+        <v>10</v>
       </c>
       <c r="C3" s="13">
-        <f>'dane po Vs'!C3</f>
-        <v>105.2</v>
+        <f>'dane po Vs'!C4</f>
+        <v>98.9</v>
       </c>
       <c r="D3" s="11">
-        <f>'dane po Vs'!D3</f>
-        <v>366</v>
+        <f>'dane po Vs'!D4</f>
+        <v>231.76190476190476</v>
       </c>
       <c r="E3" s="11">
-        <f>'dane po Vs'!E3</f>
-        <v>69</v>
+        <f>'dane po Vs'!E4</f>
+        <v>76.900000000000006</v>
       </c>
       <c r="F3" s="11">
-        <f>'dane po Vs'!F3</f>
-        <v>1.9</v>
+        <f>'dane po Vs'!F4</f>
+        <v>11.6</v>
       </c>
       <c r="G3" s="11">
-        <f>'dane po Vs'!G3</f>
-        <v>3.875</v>
+        <f>'dane po Vs'!G4</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H3" s="11">
-        <f>'dane po Vs'!H3</f>
-        <v>19.8</v>
+        <f>'dane po Vs'!H4</f>
+        <v>22.9</v>
       </c>
       <c r="I3" s="11">
-        <f>'dane po Vs'!I3</f>
-        <v>25</v>
+        <f>'dane po Vs'!I4</f>
+        <v>16.899999999999999</v>
       </c>
       <c r="J3" s="11">
-        <f>'dane po Vs'!J3</f>
-        <v>3</v>
+        <f>'dane po Vs'!J4</f>
+        <v>9</v>
       </c>
       <c r="K3" s="11">
-        <f>'dane po Vs'!K3</f>
-        <v>597</v>
+        <f>'dane po Vs'!K4</f>
+        <v>493</v>
       </c>
       <c r="L3">
-        <f>'dane po Vs'!L3</f>
-        <v>27</v>
+        <f>'dane po Vs'!L4</f>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <f>'dane po Vs'!M3</f>
-        <v>15.1</v>
+        <f>'dane po Vs'!M4</f>
+        <v>6.8</v>
       </c>
       <c r="N3">
-        <f>'dane po Vs'!N3</f>
-        <v>17</v>
+        <f>'dane po Vs'!N4</f>
+        <v>2.4</v>
       </c>
       <c r="O3">
-        <f>'dane po Vs'!O3</f>
-        <v>2332</v>
+        <f>'dane po Vs'!O4</f>
+        <v>2036</v>
       </c>
       <c r="P3">
-        <f>'dane po Vs'!P3</f>
-        <v>0.3</v>
+        <f>'dane po Vs'!P4</f>
+        <v>0.37</v>
       </c>
       <c r="Q3">
-        <f>'dane po Vs'!Q3</f>
-        <v>2.37</v>
+        <f>'dane po Vs'!Q4</f>
+        <v>2.2200000000000002</v>
       </c>
       <c r="R3">
-        <f>'dane po Vs'!R3</f>
-        <v>7.07</v>
+        <f>'dane po Vs'!R4</f>
+        <v>4.22</v>
       </c>
       <c r="S3" s="12">
-        <f>'dane po Vs'!S3</f>
-        <v>0.13</v>
+        <f>'dane po Vs'!S4</f>
+        <v>0.15</v>
       </c>
       <c r="T3" s="11">
-        <f>'dane po Vs'!T3</f>
-        <v>9.4</v>
+        <f>'dane po Vs'!T4</f>
+        <v>18.8</v>
       </c>
       <c r="U3" s="11">
-        <f>'dane po Vs'!U3</f>
-        <v>16.7</v>
+        <f>'dane po Vs'!U4</f>
+        <v>21.6</v>
       </c>
       <c r="V3">
-        <f>'dane po Vs'!V3</f>
-        <v>166.80385803767996</v>
+        <f>'dane po Vs'!V4</f>
+        <v>76.7</v>
       </c>
       <c r="W3" s="9">
-        <f>((B3-$B$31)^2+(C3-$C$31)^2+(D3-$D$31)^2+(E3-$E$31)^2+(F3-$F$31)^2+(G3-$G$31)^2+(H3-$H$31)^2+(I3-$I$31)^2+(J3-$J$31)^2+(K3-$K$31)^2+(L3-$L$31)^2+(M3-$M$31)^2+(N3-$N$31)^2+(O3-$O$31)^2+(P3-$P$31)^2+(Q3-$Q$31)^2+(R3-$R$31)^2+(S3-$S$31)^2+(T3-$T$31)^2+(U3-$U$31)^2+(V3-$V$31)^2)^(0.5)</f>
-        <v>8634.6781258894953</v>
+        <f>((B3-$B$30)^2+(C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2+(H3-$H$30)^2+(I3-$I$30)^2+(J3-$J$30)^2+(K3-$K$30)^2+(L3-$L$30)^2+(M3-$M$30)^2+(N3-$N$30)^2+(O3-$O$30)^2+(P3-$P$30)^2+(Q3-$Q$30)^2+(R3-$R$30)^2+(S3-$S$30)^2+(T3-$T$30)^2+(U3-$U$30)^2+(V3-$V$30)^2)^(0.5)</f>
+        <v>8926.1795768087031</v>
       </c>
       <c r="X3" s="9">
-        <f t="shared" ref="X3:X30" si="1">1-(W3/$AD$4)</f>
-        <v>0.34589823555157595</v>
+        <f>1-(W3/$AD$3)</f>
+        <v>0.32381616015679837</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y30" si="2">A3</f>
-        <v>Austria</v>
+        <f t="shared" si="1"/>
+        <v>Belgia</v>
       </c>
       <c r="Z3" s="10">
-        <f t="shared" ref="Z3:Z30" si="3">X3</f>
-        <v>0.34589823555157595</v>
+        <f t="shared" si="2"/>
+        <v>0.32381616015679837</v>
       </c>
       <c r="AA3" s="13">
         <f t="shared" si="0"/>
-        <v>0.34589823555157595</v>
+        <v>0.32381616015679837</v>
       </c>
       <c r="AB3" s="10">
         <f>AVERAGE(Z3:Z30)</f>
-        <v>0.33678071971889711</v>
+        <v>0.33644303394731651</v>
       </c>
       <c r="AC3">
-        <f>STDEV(Z3:Z30)</f>
+        <f>STDEV(Z2:Z29)</f>
         <v>0.1683903598594487</v>
       </c>
-      <c r="AD3" t="s">
-        <v>165</v>
+      <c r="AD3" s="10">
+        <f>AB2+2*AC2</f>
+        <v>13200.817663549264</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>'dane po Vs'!A4</f>
-        <v>Belgia</v>
+        <f>'dane po Vs'!A5</f>
+        <v>Bułgaria</v>
       </c>
       <c r="B4">
-        <f>'dane po Vs'!B4</f>
-        <v>10</v>
+        <f>'dane po Vs'!B5</f>
+        <v>30</v>
       </c>
       <c r="C4" s="13">
-        <f>'dane po Vs'!C4</f>
-        <v>98.9</v>
+        <f>'dane po Vs'!C5</f>
+        <v>107.4</v>
       </c>
       <c r="D4" s="11">
-        <f>'dane po Vs'!D4</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D5</f>
+        <v>24</v>
       </c>
       <c r="E4" s="11">
-        <f>'dane po Vs'!E4</f>
-        <v>76.900000000000006</v>
+        <f>'dane po Vs'!E5</f>
+        <v>50.7</v>
       </c>
       <c r="F4" s="11">
-        <f>'dane po Vs'!F4</f>
-        <v>11.6</v>
+        <f>'dane po Vs'!F5</f>
+        <v>47.112499999999997</v>
       </c>
       <c r="G4" s="11">
-        <f>'dane po Vs'!G4</f>
-        <v>4.4000000000000004</v>
+        <f>'dane po Vs'!G5</f>
+        <v>6.9874999999999998</v>
       </c>
       <c r="H4" s="11">
-        <f>'dane po Vs'!H4</f>
-        <v>22.9</v>
+        <f>'dane po Vs'!H5</f>
+        <v>15.9</v>
       </c>
       <c r="I4" s="11">
-        <f>'dane po Vs'!I4</f>
-        <v>16.899999999999999</v>
+        <f>'dane po Vs'!I5</f>
+        <v>18.8</v>
       </c>
       <c r="J4" s="11">
-        <f>'dane po Vs'!J4</f>
-        <v>9</v>
+        <f>'dane po Vs'!J5</f>
+        <v>0</v>
       </c>
       <c r="K4" s="11">
-        <f>'dane po Vs'!K4</f>
-        <v>493</v>
+        <f>'dane po Vs'!K5</f>
+        <v>553</v>
       </c>
       <c r="L4">
-        <f>'dane po Vs'!L4</f>
-        <v>3.1</v>
+        <f>'dane po Vs'!L5</f>
+        <v>9.1999999999999993</v>
       </c>
       <c r="M4">
-        <f>'dane po Vs'!M4</f>
-        <v>6.8</v>
+        <f>'dane po Vs'!M5</f>
+        <v>21.3</v>
       </c>
       <c r="N4">
-        <f>'dane po Vs'!N4</f>
-        <v>2.4</v>
+        <f>'dane po Vs'!N5</f>
+        <v>0.3</v>
       </c>
       <c r="O4">
-        <f>'dane po Vs'!O4</f>
-        <v>2036</v>
+        <f>'dane po Vs'!O5</f>
+        <v>373</v>
       </c>
       <c r="P4">
-        <f>'dane po Vs'!P4</f>
-        <v>0.37</v>
+        <f>'dane po Vs'!P5</f>
+        <v>1.02</v>
       </c>
       <c r="Q4">
-        <f>'dane po Vs'!Q4</f>
-        <v>2.2200000000000002</v>
+        <f>'dane po Vs'!Q5</f>
+        <v>3.19</v>
       </c>
       <c r="R4">
-        <f>'dane po Vs'!R4</f>
-        <v>4.22</v>
+        <f>'dane po Vs'!R5</f>
+        <v>1</v>
       </c>
       <c r="S4" s="12">
-        <f>'dane po Vs'!S4</f>
-        <v>0.15</v>
+        <f>'dane po Vs'!S5</f>
+        <v>0.25</v>
       </c>
       <c r="T4" s="11">
-        <f>'dane po Vs'!T4</f>
-        <v>18.8</v>
+        <f>'dane po Vs'!T5</f>
+        <v>14.1</v>
       </c>
       <c r="U4" s="11">
-        <f>'dane po Vs'!U4</f>
-        <v>21.6</v>
+        <f>'dane po Vs'!U5</f>
+        <v>60.7</v>
       </c>
       <c r="V4">
-        <f>'dane po Vs'!V4</f>
-        <v>76.7</v>
+        <f>'dane po Vs'!V5</f>
+        <v>33.18</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" ref="W4:W30" si="4">((B4-$B$31)^2+(C4-$C$31)^2+(D4-$D$31)^2+(E4-$E$31)^2+(F4-$F$31)^2+(G4-$G$31)^2+(H4-$H$31)^2+(I4-$I$31)^2+(J4-$J$31)^2+(K4-$K$31)^2+(L4-$L$31)^2+(M4-$M$31)^2+(N4-$N$31)^2+(O4-$O$31)^2+(P4-$P$31)^2+(Q4-$Q$31)^2+(R4-$R$31)^2+(S4-$S$31)^2+(T4-$T$31)^2+(U4-$U$31)^2+(V4-$V$31)^2)^(0.5)</f>
-        <v>8926.1795768087031</v>
+        <f>((B4-$B$30)^2+(C4-$C$30)^2+(D4-$D$30)^2+(E4-$E$30)^2+(F4-$F$30)^2+(G4-$G$30)^2+(H4-$H$30)^2+(I4-$I$30)^2+(J4-$J$30)^2+(K4-$K$30)^2+(L4-$L$30)^2+(M4-$M$30)^2+(N4-$N$30)^2+(O4-$O$30)^2+(P4-$P$30)^2+(Q4-$Q$30)^2+(R4-$R$30)^2+(S4-$S$30)^2+(T4-$T$30)^2+(U4-$U$30)^2+(V4-$V$30)^2)^(0.5)</f>
+        <v>10586.847407012154</v>
       </c>
       <c r="X4" s="9">
+        <f>1-(W4/$AD$3)</f>
+        <v>0.19801578380670548</v>
+      </c>
+      <c r="Y4" t="str">
         <f t="shared" si="1"/>
-        <v>0.32381616015679837</v>
-      </c>
-      <c r="Y4" t="str">
+        <v>Bułgaria</v>
+      </c>
+      <c r="Z4" s="10">
         <f t="shared" si="2"/>
-        <v>Belgia</v>
-      </c>
-      <c r="Z4" s="10">
-        <f t="shared" si="3"/>
-        <v>0.32381616015679837</v>
+        <v>0.19801578380670548</v>
       </c>
       <c r="AA4" s="13">
         <f t="shared" si="0"/>
-        <v>0.32381616015679837</v>
-      </c>
-      <c r="AB4" s="10">
-        <f>AVERAGE(W3:W30)</f>
-        <v>8755.0367899412122</v>
-      </c>
-      <c r="AC4" s="10">
-        <f>STDEV(W3:W30)</f>
-        <v>2222.8904368040257</v>
-      </c>
-      <c r="AD4" s="10">
-        <f>AB4+2*AC4</f>
-        <v>13200.817663549264</v>
+        <v>0.19801578380670548</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>'dane po Vs'!A5</f>
-        <v>Bułgaria</v>
+        <f>'dane po Vs'!A6</f>
+        <v>Chorwacja</v>
       </c>
       <c r="B5">
-        <f>'dane po Vs'!B5</f>
-        <v>30</v>
+        <f>'dane po Vs'!B6</f>
+        <v>37</v>
       </c>
       <c r="C5" s="13">
-        <f>'dane po Vs'!C5</f>
-        <v>107.4</v>
+        <f>'dane po Vs'!C6</f>
+        <v>78.7</v>
       </c>
       <c r="D5" s="11">
-        <f>'dane po Vs'!D5</f>
-        <v>24</v>
+        <f>'dane po Vs'!D6</f>
+        <v>549</v>
       </c>
       <c r="E5" s="11">
-        <f>'dane po Vs'!E5</f>
-        <v>50.7</v>
+        <f>'dane po Vs'!E6</f>
+        <v>51.6</v>
       </c>
       <c r="F5" s="11">
-        <f>'dane po Vs'!F5</f>
-        <v>47.112499999999997</v>
+        <f>'dane po Vs'!F6</f>
+        <v>7.2125000000000004</v>
       </c>
       <c r="G5" s="11">
-        <f>'dane po Vs'!G5</f>
-        <v>6.9874999999999998</v>
+        <f>'dane po Vs'!G6</f>
+        <v>7.95</v>
       </c>
       <c r="H5" s="11">
-        <f>'dane po Vs'!H5</f>
-        <v>15.9</v>
+        <f>'dane po Vs'!H6</f>
+        <v>9.8571428571428577</v>
       </c>
       <c r="I5" s="11">
-        <f>'dane po Vs'!I5</f>
-        <v>18.8</v>
+        <f>'dane po Vs'!I6</f>
+        <v>13.6</v>
       </c>
       <c r="J5" s="11">
-        <f>'dane po Vs'!J5</f>
-        <v>0</v>
+        <f>'dane po Vs'!J6</f>
+        <v>12</v>
       </c>
       <c r="K5" s="11">
-        <f>'dane po Vs'!K5</f>
-        <v>553</v>
+        <f>'dane po Vs'!K6</f>
+        <v>399</v>
       </c>
       <c r="L5">
-        <f>'dane po Vs'!L5</f>
-        <v>9.1999999999999993</v>
+        <f>'dane po Vs'!L6</f>
+        <v>22.2</v>
       </c>
       <c r="M5">
-        <f>'dane po Vs'!M5</f>
-        <v>21.3</v>
+        <f>'dane po Vs'!M6</f>
+        <v>25.7</v>
       </c>
       <c r="N5">
-        <f>'dane po Vs'!N5</f>
-        <v>0.3</v>
+        <f>'dane po Vs'!N6</f>
+        <v>4.1100000000000003</v>
       </c>
       <c r="O5">
-        <f>'dane po Vs'!O5</f>
-        <v>373</v>
+        <f>'dane po Vs'!O6</f>
+        <v>1348</v>
       </c>
       <c r="P5">
-        <f>'dane po Vs'!P5</f>
-        <v>1.02</v>
+        <f>'dane po Vs'!P6</f>
+        <v>0.72</v>
       </c>
       <c r="Q5">
-        <f>'dane po Vs'!Q5</f>
-        <v>3.19</v>
+        <f>'dane po Vs'!Q6</f>
+        <v>3.14</v>
       </c>
       <c r="R5">
-        <f>'dane po Vs'!R5</f>
-        <v>1</v>
+        <f>'dane po Vs'!R6</f>
+        <v>0.33</v>
       </c>
       <c r="S5" s="12">
-        <f>'dane po Vs'!S5</f>
-        <v>0.25</v>
+        <f>'dane po Vs'!S6</f>
+        <v>0.2</v>
       </c>
       <c r="T5" s="11">
-        <f>'dane po Vs'!T5</f>
-        <v>14.1</v>
+        <f>'dane po Vs'!T6</f>
+        <v>25.4</v>
       </c>
       <c r="U5" s="11">
-        <f>'dane po Vs'!U5</f>
-        <v>60.7</v>
+        <f>'dane po Vs'!U6</f>
+        <v>30.357142857142861</v>
       </c>
       <c r="V5">
-        <f>'dane po Vs'!V5</f>
-        <v>33.18</v>
+        <f>'dane po Vs'!V6</f>
+        <v>48.333333333333336</v>
       </c>
       <c r="W5" s="9">
-        <f t="shared" si="4"/>
-        <v>10586.847407012154</v>
+        <f>((B5-$B$30)^2+(C5-$C$30)^2+(D5-$D$30)^2+(E5-$E$30)^2+(F5-$F$30)^2+(G5-$G$30)^2+(H5-$H$30)^2+(I5-$I$30)^2+(J5-$J$30)^2+(K5-$K$30)^2+(L5-$L$30)^2+(M5-$M$30)^2+(N5-$N$30)^2+(O5-$O$30)^2+(P5-$P$30)^2+(Q5-$Q$30)^2+(R5-$R$30)^2+(S5-$S$30)^2+(T5-$T$30)^2+(U5-$U$30)^2+(V5-$V$30)^2)^(0.5)</f>
+        <v>9625.0277696072153</v>
       </c>
       <c r="X5" s="9">
+        <f>1-(W5/$AD$3)</f>
+        <v>0.27087639455968648</v>
+      </c>
+      <c r="Y5" t="str">
         <f t="shared" si="1"/>
-        <v>0.19801578380670548</v>
-      </c>
-      <c r="Y5" t="str">
+        <v>Chorwacja</v>
+      </c>
+      <c r="Z5" s="10">
         <f t="shared" si="2"/>
-        <v>Bułgaria</v>
-      </c>
-      <c r="Z5" s="10">
-        <f t="shared" si="3"/>
-        <v>0.19801578380670548</v>
+        <v>0.27087639455968648</v>
       </c>
       <c r="AA5" s="13">
         <f t="shared" si="0"/>
-        <v>0.19801578380670548</v>
+        <v>0.27087639455968648</v>
       </c>
       <c r="AB5" t="s">
         <v>165</v>
@@ -17857,118 +17824,118 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>'dane po Vs'!A6</f>
-        <v>Chorwacja</v>
+        <f>'dane po Vs'!A7</f>
+        <v>Cypr</v>
       </c>
       <c r="B6">
-        <f>'dane po Vs'!B6</f>
-        <v>37</v>
+        <f>'dane po Vs'!B7</f>
+        <v>7</v>
       </c>
       <c r="C6" s="13">
-        <f>'dane po Vs'!C6</f>
-        <v>78.7</v>
+        <f>'dane po Vs'!C7</f>
+        <v>105.1</v>
       </c>
       <c r="D6" s="11">
-        <f>'dane po Vs'!D6</f>
-        <v>549</v>
+        <f>'dane po Vs'!D7</f>
+        <v>283</v>
       </c>
       <c r="E6" s="11">
-        <f>'dane po Vs'!E6</f>
-        <v>51.6</v>
+        <f>'dane po Vs'!E7</f>
+        <v>95.9</v>
       </c>
       <c r="F6" s="11">
-        <f>'dane po Vs'!F6</f>
-        <v>7.2125000000000004</v>
+        <f>'dane po Vs'!F7</f>
+        <v>21.462500000000002</v>
       </c>
       <c r="G6" s="11">
-        <f>'dane po Vs'!G6</f>
-        <v>7.95</v>
+        <f>'dane po Vs'!G7</f>
+        <v>3.1000000000000005</v>
       </c>
       <c r="H6" s="11">
-        <f>'dane po Vs'!H6</f>
-        <v>9.8571428571428577</v>
+        <f>'dane po Vs'!H7</f>
+        <v>36.799999999999997</v>
       </c>
       <c r="I6" s="11">
-        <f>'dane po Vs'!I6</f>
-        <v>13.6</v>
+        <f>'dane po Vs'!I7</f>
+        <v>27.3</v>
       </c>
       <c r="J6" s="11">
-        <f>'dane po Vs'!J6</f>
-        <v>12</v>
+        <f>'dane po Vs'!J7</f>
+        <v>31</v>
       </c>
       <c r="K6" s="11">
-        <f>'dane po Vs'!K6</f>
-        <v>399</v>
+        <f>'dane po Vs'!K7</f>
+        <v>704</v>
       </c>
       <c r="L6">
-        <f>'dane po Vs'!L6</f>
-        <v>22.2</v>
+        <f>'dane po Vs'!L7</f>
+        <v>4</v>
       </c>
       <c r="M6">
-        <f>'dane po Vs'!M6</f>
-        <v>25.7</v>
+        <f>'dane po Vs'!M7</f>
+        <v>178.4</v>
       </c>
       <c r="N6">
-        <f>'dane po Vs'!N6</f>
-        <v>4.1100000000000003</v>
+        <f>'dane po Vs'!N7</f>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <f>'dane po Vs'!O6</f>
-        <v>1348</v>
+        <f>'dane po Vs'!O7</f>
+        <v>2476</v>
       </c>
       <c r="P6">
-        <f>'dane po Vs'!P6</f>
-        <v>0.72</v>
+        <f>'dane po Vs'!P7</f>
+        <v>0.26</v>
       </c>
       <c r="Q6">
-        <f>'dane po Vs'!Q6</f>
+        <f>'dane po Vs'!Q7</f>
         <v>3.14</v>
       </c>
       <c r="R6">
-        <f>'dane po Vs'!R6</f>
-        <v>0.33</v>
+        <f>'dane po Vs'!R7</f>
+        <v>0.17</v>
       </c>
       <c r="S6" s="12">
-        <f>'dane po Vs'!S6</f>
-        <v>0.2</v>
+        <f>'dane po Vs'!S7</f>
+        <v>0.1</v>
       </c>
       <c r="T6" s="11">
-        <f>'dane po Vs'!T6</f>
-        <v>25.4</v>
+        <f>'dane po Vs'!T7</f>
+        <v>10.199999999999999</v>
       </c>
       <c r="U6" s="11">
-        <f>'dane po Vs'!U6</f>
-        <v>30.357142857142861</v>
+        <f>'dane po Vs'!U7</f>
+        <v>25.2</v>
       </c>
       <c r="V6">
-        <f>'dane po Vs'!V6</f>
-        <v>48.333333333333336</v>
+        <f>'dane po Vs'!V7</f>
+        <v>144.90352633826882</v>
       </c>
       <c r="W6" s="9">
-        <f t="shared" si="4"/>
-        <v>9625.0277696072153</v>
+        <f>((B6-$B$30)^2+(C6-$C$30)^2+(D6-$D$30)^2+(E6-$E$30)^2+(F6-$F$30)^2+(G6-$G$30)^2+(H6-$H$30)^2+(I6-$I$30)^2+(J6-$J$30)^2+(K6-$K$30)^2+(L6-$L$30)^2+(M6-$M$30)^2+(N6-$N$30)^2+(O6-$O$30)^2+(P6-$P$30)^2+(Q6-$Q$30)^2+(R6-$R$30)^2+(S6-$S$30)^2+(T6-$T$30)^2+(U6-$U$30)^2+(V6-$V$30)^2)^(0.5)</f>
+        <v>8492.1449980843809</v>
       </c>
       <c r="X6" s="9">
+        <f>1-(W6/$AD$3)</f>
+        <v>0.35669553094932127</v>
+      </c>
+      <c r="Y6" t="str">
         <f t="shared" si="1"/>
-        <v>0.27087639455968648</v>
-      </c>
-      <c r="Y6" t="str">
+        <v>Cypr</v>
+      </c>
+      <c r="Z6" s="10">
         <f t="shared" si="2"/>
-        <v>Chorwacja</v>
-      </c>
-      <c r="Z6" s="10">
-        <f t="shared" si="3"/>
-        <v>0.27087639455968648</v>
+        <v>0.35669553094932127</v>
       </c>
       <c r="AA6" s="13">
         <f t="shared" si="0"/>
-        <v>0.27087639455968648</v>
+        <v>0.35669553094932127</v>
       </c>
       <c r="AB6" t="s">
         <v>165</v>
       </c>
       <c r="AC6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AD6" t="s">
         <v>165</v>
@@ -17976,112 +17943,112 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>'dane po Vs'!A7</f>
-        <v>Cypr</v>
+        <f>'dane po Vs'!A8</f>
+        <v>Czechy</v>
       </c>
       <c r="B7">
-        <f>'dane po Vs'!B7</f>
-        <v>7</v>
+        <f>'dane po Vs'!B8</f>
+        <v>9</v>
       </c>
       <c r="C7" s="13">
-        <f>'dane po Vs'!C7</f>
-        <v>105.1</v>
+        <f>'dane po Vs'!C8</f>
+        <v>125</v>
       </c>
       <c r="D7" s="11">
-        <f>'dane po Vs'!D7</f>
-        <v>283</v>
+        <f>'dane po Vs'!D8</f>
+        <v>8</v>
       </c>
       <c r="E7" s="11">
-        <f>'dane po Vs'!E7</f>
-        <v>95.9</v>
+        <f>'dane po Vs'!E8</f>
+        <v>25</v>
       </c>
       <c r="F7" s="11">
-        <f>'dane po Vs'!F7</f>
-        <v>21.462500000000002</v>
+        <f>'dane po Vs'!F8</f>
+        <v>14.3</v>
       </c>
       <c r="G7" s="11">
-        <f>'dane po Vs'!G7</f>
-        <v>3.1000000000000005</v>
+        <f>'dane po Vs'!G8</f>
+        <v>3.7625000000000006</v>
       </c>
       <c r="H7" s="11">
-        <f>'dane po Vs'!H7</f>
-        <v>36.799999999999997</v>
+        <f>'dane po Vs'!H8</f>
+        <v>18.399999999999999</v>
       </c>
       <c r="I7" s="11">
-        <f>'dane po Vs'!I7</f>
-        <v>27.3</v>
+        <f>'dane po Vs'!I8</f>
+        <v>19.100000000000001</v>
       </c>
       <c r="J7" s="11">
-        <f>'dane po Vs'!J7</f>
-        <v>31</v>
+        <f>'dane po Vs'!J8</f>
+        <v>2</v>
       </c>
       <c r="K7" s="11">
-        <f>'dane po Vs'!K7</f>
-        <v>704</v>
+        <f>'dane po Vs'!K8</f>
+        <v>294</v>
       </c>
       <c r="L7">
-        <f>'dane po Vs'!L7</f>
-        <v>4</v>
+        <f>'dane po Vs'!L8</f>
+        <v>8</v>
       </c>
       <c r="M7">
-        <f>'dane po Vs'!M7</f>
-        <v>178.4</v>
+        <f>'dane po Vs'!M8</f>
+        <v>5.9</v>
       </c>
       <c r="N7">
-        <f>'dane po Vs'!N7</f>
-        <v>1.5</v>
+        <f>'dane po Vs'!N8</f>
+        <v>8.1999999999999993</v>
       </c>
       <c r="O7">
-        <f>'dane po Vs'!O7</f>
-        <v>2476</v>
+        <f>'dane po Vs'!O8</f>
+        <v>3394</v>
       </c>
       <c r="P7">
-        <f>'dane po Vs'!P7</f>
-        <v>0.26</v>
+        <f>'dane po Vs'!P8</f>
+        <v>0.79</v>
       </c>
       <c r="Q7">
-        <f>'dane po Vs'!Q7</f>
-        <v>3.14</v>
+        <f>'dane po Vs'!Q8</f>
+        <v>2.31</v>
       </c>
       <c r="R7">
-        <f>'dane po Vs'!R7</f>
-        <v>0.17</v>
+        <f>'dane po Vs'!R8</f>
+        <v>6</v>
       </c>
       <c r="S7" s="12">
-        <f>'dane po Vs'!S7</f>
-        <v>0.1</v>
+        <f>'dane po Vs'!S8</f>
+        <v>0.3</v>
       </c>
       <c r="T7" s="11">
-        <f>'dane po Vs'!T7</f>
-        <v>10.199999999999999</v>
+        <f>'dane po Vs'!T8</f>
+        <v>10.7</v>
       </c>
       <c r="U7" s="11">
-        <f>'dane po Vs'!U7</f>
-        <v>25.2</v>
+        <f>'dane po Vs'!U8</f>
+        <v>15.8</v>
       </c>
       <c r="V7">
-        <f>'dane po Vs'!V7</f>
-        <v>144.90352633826882</v>
+        <f>'dane po Vs'!V8</f>
+        <v>106.25</v>
       </c>
       <c r="W7" s="9">
-        <f t="shared" si="4"/>
-        <v>8492.1449980843809</v>
+        <f>((B7-$B$30)^2+(C7-$C$30)^2+(D7-$D$30)^2+(E7-$E$30)^2+(F7-$F$30)^2+(G7-$G$30)^2+(H7-$H$30)^2+(I7-$I$30)^2+(J7-$J$30)^2+(K7-$K$30)^2+(L7-$L$30)^2+(M7-$M$30)^2+(N7-$N$30)^2+(O7-$O$30)^2+(P7-$P$30)^2+(Q7-$Q$30)^2+(R7-$R$30)^2+(S7-$S$30)^2+(T7-$T$30)^2+(U7-$U$30)^2+(V7-$V$30)^2)^(0.5)</f>
+        <v>7562.7979571808883</v>
       </c>
       <c r="X7" s="9">
+        <f>1-(W7/$AD$3)</f>
+        <v>0.42709624888891151</v>
+      </c>
+      <c r="Y7" t="str">
         <f t="shared" si="1"/>
-        <v>0.35669553094932127</v>
-      </c>
-      <c r="Y7" t="str">
+        <v>Czechy</v>
+      </c>
+      <c r="Z7" s="10">
         <f t="shared" si="2"/>
-        <v>Cypr</v>
-      </c>
-      <c r="Z7" s="10">
-        <f t="shared" si="3"/>
-        <v>0.35669553094932127</v>
+        <v>0.42709624888891151</v>
       </c>
       <c r="AA7" s="13">
         <f t="shared" si="0"/>
-        <v>0.35669553094932127</v>
+        <v>0.42709624888891151</v>
       </c>
       <c r="AB7" t="s">
         <v>165</v>
@@ -18095,112 +18062,112 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>'dane po Vs'!A8</f>
-        <v>Czechy</v>
+        <f>'dane po Vs'!A9</f>
+        <v>Dania</v>
       </c>
       <c r="B8">
-        <f>'dane po Vs'!B8</f>
-        <v>9</v>
+        <f>'dane po Vs'!B9</f>
+        <v>7</v>
       </c>
       <c r="C8" s="13">
-        <f>'dane po Vs'!C8</f>
-        <v>125</v>
+        <f>'dane po Vs'!C9</f>
+        <v>98.8</v>
       </c>
       <c r="D8" s="11">
-        <f>'dane po Vs'!D8</f>
-        <v>8</v>
+        <f>'dane po Vs'!D9</f>
+        <v>231.76190476190476</v>
       </c>
       <c r="E8" s="11">
-        <f>'dane po Vs'!E8</f>
-        <v>25</v>
+        <f>'dane po Vs'!E9</f>
+        <v>-24</v>
       </c>
       <c r="F8" s="11">
-        <f>'dane po Vs'!F8</f>
-        <v>14.3</v>
+        <f>'dane po Vs'!F9</f>
+        <v>5</v>
       </c>
       <c r="G8" s="11">
-        <f>'dane po Vs'!G8</f>
-        <v>3.7625000000000006</v>
+        <f>'dane po Vs'!G9</f>
+        <v>7.8</v>
       </c>
       <c r="H8" s="11">
-        <f>'dane po Vs'!H8</f>
-        <v>18.399999999999999</v>
+        <f>'dane po Vs'!H9</f>
+        <v>19.899999999999999</v>
       </c>
       <c r="I8" s="11">
-        <f>'dane po Vs'!I8</f>
-        <v>19.100000000000001</v>
+        <f>'dane po Vs'!I9</f>
+        <v>28.4</v>
       </c>
       <c r="J8" s="11">
-        <f>'dane po Vs'!J8</f>
-        <v>2</v>
+        <f>'dane po Vs'!J9</f>
+        <v>12</v>
       </c>
       <c r="K8" s="11">
-        <f>'dane po Vs'!K8</f>
-        <v>294</v>
+        <f>'dane po Vs'!K9</f>
+        <v>790</v>
       </c>
       <c r="L8">
-        <f>'dane po Vs'!L8</f>
-        <v>8</v>
+        <f>'dane po Vs'!L9</f>
+        <v>17.8</v>
       </c>
       <c r="M8">
-        <f>'dane po Vs'!M8</f>
-        <v>5.9</v>
+        <f>'dane po Vs'!M9</f>
+        <v>2.5</v>
       </c>
       <c r="N8">
-        <f>'dane po Vs'!N8</f>
-        <v>8.1999999999999993</v>
+        <f>'dane po Vs'!N9</f>
+        <v>5</v>
       </c>
       <c r="O8">
-        <f>'dane po Vs'!O8</f>
-        <v>3394</v>
+        <f>'dane po Vs'!O9</f>
+        <v>4272</v>
       </c>
       <c r="P8">
-        <f>'dane po Vs'!P8</f>
-        <v>0.79</v>
+        <f>'dane po Vs'!P9</f>
+        <v>0.42</v>
       </c>
       <c r="Q8">
-        <f>'dane po Vs'!Q8</f>
-        <v>2.31</v>
+        <f>'dane po Vs'!Q9</f>
+        <v>4.74</v>
       </c>
       <c r="R8">
-        <f>'dane po Vs'!R8</f>
-        <v>6</v>
+        <f>'dane po Vs'!R9</f>
+        <v>4.24</v>
       </c>
       <c r="S8" s="12">
-        <f>'dane po Vs'!S8</f>
-        <v>0.3</v>
+        <f>'dane po Vs'!S9</f>
+        <v>0.08</v>
       </c>
       <c r="T8" s="11">
-        <f>'dane po Vs'!T8</f>
-        <v>10.7</v>
+        <f>'dane po Vs'!T9</f>
+        <v>7.5</v>
       </c>
       <c r="U8" s="11">
-        <f>'dane po Vs'!U8</f>
-        <v>15.8</v>
+        <f>'dane po Vs'!U9</f>
+        <v>16.8</v>
       </c>
       <c r="V8">
-        <f>'dane po Vs'!V8</f>
-        <v>106.25</v>
+        <f>'dane po Vs'!V9</f>
+        <v>68.575000000000003</v>
       </c>
       <c r="W8" s="9">
-        <f t="shared" si="4"/>
-        <v>7562.7979571808883</v>
+        <f>((B8-$B$30)^2+(C8-$C$30)^2+(D8-$D$30)^2+(E8-$E$30)^2+(F8-$F$30)^2+(G8-$G$30)^2+(H8-$H$30)^2+(I8-$I$30)^2+(J8-$J$30)^2+(K8-$K$30)^2+(L8-$L$30)^2+(M8-$M$30)^2+(N8-$N$30)^2+(O8-$O$30)^2+(P8-$P$30)^2+(Q8-$Q$30)^2+(R8-$R$30)^2+(S8-$S$30)^2+(T8-$T$30)^2+(U8-$U$30)^2+(V8-$V$30)^2)^(0.5)</f>
+        <v>6710.3820660726115</v>
       </c>
       <c r="X8" s="9">
+        <f>1-(W8/$AD$3)</f>
+        <v>0.49166921041553036</v>
+      </c>
+      <c r="Y8" t="str">
         <f t="shared" si="1"/>
-        <v>0.42709624888891151</v>
-      </c>
-      <c r="Y8" t="str">
+        <v>Dania</v>
+      </c>
+      <c r="Z8" s="10">
         <f t="shared" si="2"/>
-        <v>Czechy</v>
-      </c>
-      <c r="Z8" s="10">
-        <f t="shared" si="3"/>
-        <v>0.42709624888891151</v>
+        <v>0.49166921041553036</v>
       </c>
       <c r="AA8" s="13">
         <f t="shared" si="0"/>
-        <v>0.42709624888891151</v>
+        <v>0.49166921041553036</v>
       </c>
       <c r="AB8" t="s">
         <v>165</v>
@@ -18214,112 +18181,112 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>'dane po Vs'!A9</f>
-        <v>Dania</v>
+        <f>'dane po Vs'!A10</f>
+        <v>Estonia</v>
       </c>
       <c r="B9">
-        <f>'dane po Vs'!B9</f>
-        <v>7</v>
+        <f>'dane po Vs'!B10</f>
+        <v>17</v>
       </c>
       <c r="C9" s="13">
-        <f>'dane po Vs'!C9</f>
-        <v>98.8</v>
+        <f>'dane po Vs'!C10</f>
+        <v>98.3</v>
       </c>
       <c r="D9" s="11">
-        <f>'dane po Vs'!D9</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D10</f>
+        <v>227</v>
       </c>
       <c r="E9" s="11">
-        <f>'dane po Vs'!E9</f>
-        <v>-24</v>
+        <f>'dane po Vs'!E10</f>
+        <v>24.7</v>
       </c>
       <c r="F9" s="11">
-        <f>'dane po Vs'!F9</f>
-        <v>5</v>
+        <f>'dane po Vs'!F10</f>
+        <v>40.512499999999996</v>
       </c>
       <c r="G9" s="11">
-        <f>'dane po Vs'!G9</f>
-        <v>7.8</v>
+        <f>'dane po Vs'!G10</f>
+        <v>14.112499999999997</v>
       </c>
       <c r="H9" s="11">
-        <f>'dane po Vs'!H9</f>
-        <v>19.899999999999999</v>
+        <f>'dane po Vs'!H10</f>
+        <v>22.8</v>
       </c>
       <c r="I9" s="11">
-        <f>'dane po Vs'!I9</f>
-        <v>28.4</v>
+        <f>'dane po Vs'!I10</f>
+        <v>29</v>
       </c>
       <c r="J9" s="11">
-        <f>'dane po Vs'!J9</f>
-        <v>12</v>
+        <f>'dane po Vs'!J10</f>
+        <v>-7</v>
       </c>
       <c r="K9" s="11">
-        <f>'dane po Vs'!K9</f>
-        <v>790</v>
+        <f>'dane po Vs'!K10</f>
+        <v>449</v>
       </c>
       <c r="L9">
-        <f>'dane po Vs'!L9</f>
-        <v>17.8</v>
+        <f>'dane po Vs'!L10</f>
+        <v>17.100000000000001</v>
       </c>
       <c r="M9">
-        <f>'dane po Vs'!M9</f>
-        <v>2.5</v>
+        <f>'dane po Vs'!M10</f>
+        <v>11.8</v>
       </c>
       <c r="N9">
-        <f>'dane po Vs'!N9</f>
-        <v>5</v>
+        <f>'dane po Vs'!N10</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O9">
-        <f>'dane po Vs'!O9</f>
-        <v>4272</v>
+        <f>'dane po Vs'!O10</f>
+        <v>2343</v>
       </c>
       <c r="P9">
-        <f>'dane po Vs'!P9</f>
-        <v>0.42</v>
+        <f>'dane po Vs'!P10</f>
+        <v>0.53999999999999992</v>
       </c>
       <c r="Q9">
-        <f>'dane po Vs'!Q9</f>
-        <v>4.74</v>
+        <f>'dane po Vs'!Q10</f>
+        <v>2.19</v>
       </c>
       <c r="R9">
-        <f>'dane po Vs'!R9</f>
-        <v>4.24</v>
+        <f>'dane po Vs'!R10</f>
+        <v>0</v>
       </c>
       <c r="S9" s="12">
-        <f>'dane po Vs'!S9</f>
-        <v>0.08</v>
+        <f>'dane po Vs'!S10</f>
+        <v>0.09</v>
       </c>
       <c r="T9" s="11">
-        <f>'dane po Vs'!T9</f>
-        <v>7.5</v>
+        <f>'dane po Vs'!T10</f>
+        <v>10.1</v>
       </c>
       <c r="U9" s="11">
-        <f>'dane po Vs'!U9</f>
-        <v>16.8</v>
+        <f>'dane po Vs'!U10</f>
+        <v>22</v>
       </c>
       <c r="V9">
-        <f>'dane po Vs'!V9</f>
-        <v>68.575000000000003</v>
+        <f>'dane po Vs'!V10</f>
+        <v>28.25</v>
       </c>
       <c r="W9" s="9">
-        <f t="shared" si="4"/>
-        <v>6710.3820660726115</v>
+        <f>((B9-$B$30)^2+(C9-$C$30)^2+(D9-$D$30)^2+(E9-$E$30)^2+(F9-$F$30)^2+(G9-$G$30)^2+(H9-$H$30)^2+(I9-$I$30)^2+(J9-$J$30)^2+(K9-$K$30)^2+(L9-$L$30)^2+(M9-$M$30)^2+(N9-$N$30)^2+(O9-$O$30)^2+(P9-$P$30)^2+(Q9-$Q$30)^2+(R9-$R$30)^2+(S9-$S$30)^2+(T9-$T$30)^2+(U9-$U$30)^2+(V9-$V$30)^2)^(0.5)</f>
+        <v>8620.333347376336</v>
       </c>
       <c r="X9" s="9">
+        <f>1-(W9/$AD$3)</f>
+        <v>0.34698489388432219</v>
+      </c>
+      <c r="Y9" t="str">
         <f t="shared" si="1"/>
-        <v>0.49166921041553036</v>
-      </c>
-      <c r="Y9" t="str">
+        <v>Estonia</v>
+      </c>
+      <c r="Z9" s="10">
         <f t="shared" si="2"/>
-        <v>Dania</v>
-      </c>
-      <c r="Z9" s="10">
-        <f t="shared" si="3"/>
-        <v>0.49166921041553036</v>
+        <v>0.34698489388432219</v>
       </c>
       <c r="AA9" s="13">
         <f t="shared" si="0"/>
-        <v>0.49166921041553036</v>
+        <v>0.34698489388432219</v>
       </c>
       <c r="AB9" t="s">
         <v>165</v>
@@ -18333,112 +18300,112 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>'dane po Vs'!A10</f>
-        <v>Estonia</v>
+        <f>'dane po Vs'!A11</f>
+        <v>Finlandia</v>
       </c>
       <c r="B10">
-        <f>'dane po Vs'!B10</f>
-        <v>17</v>
+        <f>'dane po Vs'!B11</f>
+        <v>13</v>
       </c>
       <c r="C10" s="13">
-        <f>'dane po Vs'!C10</f>
-        <v>98.3</v>
+        <f>'dane po Vs'!C11</f>
+        <v>106</v>
       </c>
       <c r="D10" s="11">
-        <f>'dane po Vs'!D10</f>
-        <v>227</v>
+        <f>'dane po Vs'!D11</f>
+        <v>231.76190476190476</v>
       </c>
       <c r="E10" s="11">
-        <f>'dane po Vs'!E10</f>
-        <v>24.7</v>
+        <f>'dane po Vs'!E11</f>
+        <v>52.9</v>
       </c>
       <c r="F10" s="11">
-        <f>'dane po Vs'!F10</f>
-        <v>40.512499999999996</v>
+        <f>'dane po Vs'!F11</f>
+        <v>10.237500000000001</v>
       </c>
       <c r="G10" s="11">
-        <f>'dane po Vs'!G10</f>
-        <v>14.112499999999997</v>
+        <f>'dane po Vs'!G11</f>
+        <v>8.1</v>
       </c>
       <c r="H10" s="11">
-        <f>'dane po Vs'!H10</f>
-        <v>22.8</v>
+        <f>'dane po Vs'!H11</f>
+        <v>16</v>
       </c>
       <c r="I10" s="11">
-        <f>'dane po Vs'!I10</f>
-        <v>29</v>
+        <f>'dane po Vs'!I11</f>
+        <v>38.799999999999997</v>
       </c>
       <c r="J10" s="11">
-        <f>'dane po Vs'!J10</f>
-        <v>-7</v>
+        <f>'dane po Vs'!J11</f>
+        <v>5</v>
       </c>
       <c r="K10" s="11">
-        <f>'dane po Vs'!K10</f>
-        <v>449</v>
+        <f>'dane po Vs'!K11</f>
+        <v>506</v>
       </c>
       <c r="L10">
-        <f>'dane po Vs'!L10</f>
-        <v>17.100000000000001</v>
+        <f>'dane po Vs'!L11</f>
+        <v>29.6</v>
       </c>
       <c r="M10">
-        <f>'dane po Vs'!M10</f>
-        <v>11.8</v>
+        <f>'dane po Vs'!M11</f>
+        <v>51.4</v>
       </c>
       <c r="N10">
-        <f>'dane po Vs'!N10</f>
-        <v>8.6999999999999993</v>
+        <f>'dane po Vs'!N11</f>
+        <v>6.6</v>
       </c>
       <c r="O10">
-        <f>'dane po Vs'!O10</f>
-        <v>2343</v>
+        <f>'dane po Vs'!O11</f>
+        <v>486</v>
       </c>
       <c r="P10">
-        <f>'dane po Vs'!P10</f>
-        <v>0.53999999999999992</v>
+        <f>'dane po Vs'!P11</f>
+        <v>0.39</v>
       </c>
       <c r="Q10">
-        <f>'dane po Vs'!Q10</f>
-        <v>2.19</v>
+        <f>'dane po Vs'!Q11</f>
+        <v>2.66</v>
       </c>
       <c r="R10">
-        <f>'dane po Vs'!R10</f>
-        <v>0</v>
+        <f>'dane po Vs'!R11</f>
+        <v>9.6</v>
       </c>
       <c r="S10" s="12">
-        <f>'dane po Vs'!S10</f>
-        <v>0.09</v>
+        <f>'dane po Vs'!S11</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T10" s="11">
-        <f>'dane po Vs'!T10</f>
-        <v>10.1</v>
+        <f>'dane po Vs'!T11</f>
+        <v>16.5</v>
       </c>
       <c r="U10" s="11">
-        <f>'dane po Vs'!U10</f>
-        <v>22</v>
+        <f>'dane po Vs'!U11</f>
+        <v>17.399999999999999</v>
       </c>
       <c r="V10">
-        <f>'dane po Vs'!V10</f>
-        <v>28.25</v>
+        <f>'dane po Vs'!V11</f>
+        <v>132.69999999999999</v>
       </c>
       <c r="W10" s="9">
-        <f t="shared" si="4"/>
-        <v>8620.333347376336</v>
+        <f>((B10-$B$30)^2+(C10-$C$30)^2+(D10-$D$30)^2+(E10-$E$30)^2+(F10-$F$30)^2+(G10-$G$30)^2+(H10-$H$30)^2+(I10-$I$30)^2+(J10-$J$30)^2+(K10-$K$30)^2+(L10-$L$30)^2+(M10-$M$30)^2+(N10-$N$30)^2+(O10-$O$30)^2+(P10-$P$30)^2+(Q10-$Q$30)^2+(R10-$R$30)^2+(S10-$S$30)^2+(T10-$T$30)^2+(U10-$U$30)^2+(V10-$V$30)^2)^(0.5)</f>
+        <v>10471.467863390235</v>
       </c>
       <c r="X10" s="9">
+        <f>1-(W10/$AD$3)</f>
+        <v>0.20675611691050333</v>
+      </c>
+      <c r="Y10" t="str">
         <f t="shared" si="1"/>
-        <v>0.34698489388432219</v>
-      </c>
-      <c r="Y10" t="str">
+        <v>Finlandia</v>
+      </c>
+      <c r="Z10" s="10">
         <f t="shared" si="2"/>
-        <v>Estonia</v>
-      </c>
-      <c r="Z10" s="10">
-        <f t="shared" si="3"/>
-        <v>0.34698489388432219</v>
+        <v>0.20675611691050333</v>
       </c>
       <c r="AA10" s="13">
         <f t="shared" si="0"/>
-        <v>0.34698489388432219</v>
+        <v>0.20675611691050333</v>
       </c>
       <c r="AB10" t="s">
         <v>165</v>
@@ -18452,112 +18419,112 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>'dane po Vs'!A11</f>
-        <v>Finlandia</v>
+        <f>'dane po Vs'!A12</f>
+        <v>Francja</v>
       </c>
       <c r="B11">
-        <f>'dane po Vs'!B11</f>
-        <v>13</v>
+        <f>'dane po Vs'!B12</f>
+        <v>8</v>
       </c>
       <c r="C11" s="13">
-        <f>'dane po Vs'!C11</f>
-        <v>106</v>
+        <f>'dane po Vs'!C12</f>
+        <v>110.6</v>
       </c>
       <c r="D11" s="11">
-        <f>'dane po Vs'!D11</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D12</f>
+        <v>687</v>
       </c>
       <c r="E11" s="11">
-        <f>'dane po Vs'!E11</f>
-        <v>52.9</v>
+        <f>'dane po Vs'!E12</f>
+        <v>50.3</v>
       </c>
       <c r="F11" s="11">
-        <f>'dane po Vs'!F11</f>
-        <v>10.237500000000001</v>
+        <f>'dane po Vs'!F12</f>
+        <v>3.65</v>
       </c>
       <c r="G11" s="11">
-        <f>'dane po Vs'!G11</f>
-        <v>8.1</v>
+        <f>'dane po Vs'!G12</f>
+        <v>4.5249999999999995</v>
       </c>
       <c r="H11" s="11">
-        <f>'dane po Vs'!H11</f>
-        <v>16</v>
+        <f>'dane po Vs'!H12</f>
+        <v>19</v>
       </c>
       <c r="I11" s="11">
-        <f>'dane po Vs'!I11</f>
-        <v>38.799999999999997</v>
+        <f>'dane po Vs'!I12</f>
+        <v>14.3</v>
       </c>
       <c r="J11" s="11">
-        <f>'dane po Vs'!J11</f>
-        <v>5</v>
+        <f>'dane po Vs'!J12</f>
+        <v>4</v>
       </c>
       <c r="K11" s="11">
-        <f>'dane po Vs'!K11</f>
-        <v>506</v>
+        <f>'dane po Vs'!K12</f>
+        <v>543</v>
       </c>
       <c r="L11">
-        <f>'dane po Vs'!L11</f>
-        <v>29.6</v>
+        <f>'dane po Vs'!L12</f>
+        <v>10.3</v>
       </c>
       <c r="M11">
-        <f>'dane po Vs'!M11</f>
-        <v>51.4</v>
+        <f>'dane po Vs'!M12</f>
+        <v>112.8</v>
       </c>
       <c r="N11">
-        <f>'dane po Vs'!N11</f>
-        <v>6.6</v>
+        <f>'dane po Vs'!N12</f>
+        <v>1.9</v>
       </c>
       <c r="O11">
-        <f>'dane po Vs'!O11</f>
-        <v>486</v>
+        <f>'dane po Vs'!O12</f>
+        <v>1587</v>
       </c>
       <c r="P11">
-        <f>'dane po Vs'!P11</f>
-        <v>0.39</v>
+        <f>'dane po Vs'!P12</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q11">
-        <f>'dane po Vs'!Q11</f>
-        <v>2.66</v>
+        <f>'dane po Vs'!Q12</f>
+        <v>1.87</v>
       </c>
       <c r="R11">
-        <f>'dane po Vs'!R11</f>
-        <v>9.6</v>
+        <f>'dane po Vs'!R12</f>
+        <v>28.66</v>
       </c>
       <c r="S11" s="12">
-        <f>'dane po Vs'!S11</f>
-        <v>0.28000000000000003</v>
+        <f>'dane po Vs'!S12</f>
+        <v>0.33</v>
       </c>
       <c r="T11" s="11">
-        <f>'dane po Vs'!T11</f>
-        <v>16.5</v>
+        <f>'dane po Vs'!T12</f>
+        <v>19.5</v>
       </c>
       <c r="U11" s="11">
-        <f>'dane po Vs'!U11</f>
-        <v>17.399999999999999</v>
+        <f>'dane po Vs'!U12</f>
+        <v>19</v>
       </c>
       <c r="V11">
-        <f>'dane po Vs'!V11</f>
-        <v>132.69999999999999</v>
+        <f>'dane po Vs'!V12</f>
+        <v>434.97499999999997</v>
       </c>
       <c r="W11" s="9">
-        <f t="shared" si="4"/>
-        <v>10471.467863390235</v>
+        <f>((B11-$B$30)^2+(C11-$C$30)^2+(D11-$D$30)^2+(E11-$E$30)^2+(F11-$F$30)^2+(G11-$G$30)^2+(H11-$H$30)^2+(I11-$I$30)^2+(J11-$J$30)^2+(K11-$K$30)^2+(L11-$L$30)^2+(M11-$M$30)^2+(N11-$N$30)^2+(O11-$O$30)^2+(P11-$P$30)^2+(Q11-$Q$30)^2+(R11-$R$30)^2+(S11-$S$30)^2+(T11-$T$30)^2+(U11-$U$30)^2+(V11-$V$30)^2)^(0.5)</f>
+        <v>9389.2242445029369</v>
       </c>
       <c r="X11" s="9">
+        <f>1-(W11/$AD$3)</f>
+        <v>0.28873919147986438</v>
+      </c>
+      <c r="Y11" t="str">
         <f t="shared" si="1"/>
-        <v>0.20675611691050333</v>
-      </c>
-      <c r="Y11" t="str">
+        <v>Francja</v>
+      </c>
+      <c r="Z11" s="10">
         <f t="shared" si="2"/>
-        <v>Finlandia</v>
-      </c>
-      <c r="Z11" s="10">
-        <f t="shared" si="3"/>
-        <v>0.20675611691050333</v>
+        <v>0.28873919147986438</v>
       </c>
       <c r="AA11" s="13">
         <f t="shared" si="0"/>
-        <v>0.20675611691050333</v>
+        <v>0.28873919147986438</v>
       </c>
       <c r="AB11" t="s">
         <v>165</v>
@@ -18571,112 +18538,112 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>'dane po Vs'!A12</f>
-        <v>Francja</v>
+        <f>'dane po Vs'!A13</f>
+        <v>Grecja</v>
       </c>
       <c r="B12">
-        <f>'dane po Vs'!B12</f>
-        <v>8</v>
+        <f>'dane po Vs'!B13</f>
+        <v>16</v>
       </c>
       <c r="C12" s="13">
-        <f>'dane po Vs'!C12</f>
-        <v>110.6</v>
+        <f>'dane po Vs'!C13</f>
+        <v>82.6</v>
       </c>
       <c r="D12" s="11">
-        <f>'dane po Vs'!D12</f>
-        <v>687</v>
+        <f>'dane po Vs'!D13</f>
+        <v>215</v>
       </c>
       <c r="E12" s="11">
-        <f>'dane po Vs'!E12</f>
-        <v>50.3</v>
+        <f>'dane po Vs'!E13</f>
+        <v>71.2</v>
       </c>
       <c r="F12" s="11">
-        <f>'dane po Vs'!F12</f>
-        <v>3.65</v>
+        <f>'dane po Vs'!F13</f>
+        <v>20.8125</v>
       </c>
       <c r="G12" s="11">
-        <f>'dane po Vs'!G12</f>
-        <v>4.5249999999999995</v>
+        <f>'dane po Vs'!G13</f>
+        <v>7.2999999999999989</v>
       </c>
       <c r="H12" s="11">
-        <f>'dane po Vs'!H12</f>
-        <v>19</v>
+        <f>'dane po Vs'!H13</f>
+        <v>21.7</v>
       </c>
       <c r="I12" s="11">
-        <f>'dane po Vs'!I12</f>
-        <v>14.3</v>
+        <f>'dane po Vs'!I13</f>
+        <v>22.2</v>
       </c>
       <c r="J12" s="11">
-        <f>'dane po Vs'!J12</f>
+        <f>'dane po Vs'!J13</f>
         <v>4</v>
       </c>
       <c r="K12" s="11">
-        <f>'dane po Vs'!K12</f>
-        <v>543</v>
+        <f>'dane po Vs'!K13</f>
+        <v>453</v>
       </c>
       <c r="L12">
-        <f>'dane po Vs'!L12</f>
-        <v>10.3</v>
+        <f>'dane po Vs'!L13</f>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M12">
-        <f>'dane po Vs'!M12</f>
-        <v>112.8</v>
+        <f>'dane po Vs'!M13</f>
+        <v>11.2</v>
       </c>
       <c r="N12">
-        <f>'dane po Vs'!N12</f>
-        <v>1.9</v>
+        <f>'dane po Vs'!N13</f>
+        <v>7</v>
       </c>
       <c r="O12">
-        <f>'dane po Vs'!O12</f>
-        <v>1587</v>
+        <f>'dane po Vs'!O13</f>
+        <v>3219</v>
       </c>
       <c r="P12">
-        <f>'dane po Vs'!P12</f>
-        <v>0.14000000000000001</v>
+        <f>'dane po Vs'!P13</f>
+        <v>0.42</v>
       </c>
       <c r="Q12">
-        <f>'dane po Vs'!Q12</f>
-        <v>1.87</v>
+        <f>'dane po Vs'!Q13</f>
+        <v>2.08</v>
       </c>
       <c r="R12">
-        <f>'dane po Vs'!R12</f>
-        <v>28.66</v>
+        <f>'dane po Vs'!R13</f>
+        <v>0.7</v>
       </c>
       <c r="S12" s="12">
-        <f>'dane po Vs'!S12</f>
-        <v>0.33</v>
+        <f>'dane po Vs'!S13</f>
+        <v>0.12</v>
       </c>
       <c r="T12" s="11">
-        <f>'dane po Vs'!T12</f>
-        <v>19.5</v>
+        <f>'dane po Vs'!T13</f>
+        <v>22.7</v>
       </c>
       <c r="U12" s="11">
-        <f>'dane po Vs'!U12</f>
-        <v>19</v>
+        <f>'dane po Vs'!U13</f>
+        <v>28.3</v>
       </c>
       <c r="V12">
-        <f>'dane po Vs'!V12</f>
-        <v>434.97499999999997</v>
+        <f>'dane po Vs'!V13</f>
+        <v>145.53229055046864</v>
       </c>
       <c r="W12" s="9">
-        <f t="shared" si="4"/>
-        <v>9389.2242445029369</v>
+        <f>((B12-$B$30)^2+(C12-$C$30)^2+(D12-$D$30)^2+(E12-$E$30)^2+(F12-$F$30)^2+(G12-$G$30)^2+(H12-$H$30)^2+(I12-$I$30)^2+(J12-$J$30)^2+(K12-$K$30)^2+(L12-$L$30)^2+(M12-$M$30)^2+(N12-$N$30)^2+(O12-$O$30)^2+(P12-$P$30)^2+(Q12-$Q$30)^2+(R12-$R$30)^2+(S12-$S$30)^2+(T12-$T$30)^2+(U12-$U$30)^2+(V12-$V$30)^2)^(0.5)</f>
+        <v>7741.1450545365087</v>
       </c>
       <c r="X12" s="9">
+        <f>1-(W12/$AD$3)</f>
+        <v>0.41358594203511101</v>
+      </c>
+      <c r="Y12" t="str">
         <f t="shared" si="1"/>
-        <v>0.28873919147986438</v>
-      </c>
-      <c r="Y12" t="str">
+        <v>Grecja</v>
+      </c>
+      <c r="Z12" s="10">
         <f t="shared" si="2"/>
-        <v>Francja</v>
-      </c>
-      <c r="Z12" s="10">
-        <f t="shared" si="3"/>
-        <v>0.28873919147986438</v>
+        <v>0.41358594203511101</v>
       </c>
       <c r="AA12" s="13">
         <f t="shared" si="0"/>
-        <v>0.28873919147986438</v>
+        <v>0.41358594203511101</v>
       </c>
       <c r="AB12" t="s">
         <v>165</v>
@@ -18690,112 +18657,112 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>'dane po Vs'!A13</f>
-        <v>Grecja</v>
+        <f>'dane po Vs'!A14</f>
+        <v>Hiszpania</v>
       </c>
       <c r="B13">
-        <f>'dane po Vs'!B13</f>
-        <v>16</v>
+        <f>'dane po Vs'!B14</f>
+        <v>23</v>
       </c>
       <c r="C13" s="13">
-        <f>'dane po Vs'!C13</f>
-        <v>82.6</v>
+        <f>'dane po Vs'!C14</f>
+        <v>94.6</v>
       </c>
       <c r="D13" s="11">
-        <f>'dane po Vs'!D13</f>
-        <v>215</v>
+        <f>'dane po Vs'!D14</f>
+        <v>94</v>
       </c>
       <c r="E13" s="11">
-        <f>'dane po Vs'!E13</f>
-        <v>71.2</v>
+        <f>'dane po Vs'!E14</f>
+        <v>79.599999999999994</v>
       </c>
       <c r="F13" s="11">
-        <f>'dane po Vs'!F13</f>
-        <v>20.8125</v>
+        <f>'dane po Vs'!F14</f>
+        <v>8.2125000000000004</v>
       </c>
       <c r="G13" s="11">
-        <f>'dane po Vs'!G13</f>
-        <v>7.2999999999999989</v>
+        <f>'dane po Vs'!G14</f>
+        <v>3.8875000000000006</v>
       </c>
       <c r="H13" s="11">
-        <f>'dane po Vs'!H13</f>
-        <v>21.7</v>
+        <f>'dane po Vs'!H14</f>
+        <v>25.6</v>
       </c>
       <c r="I13" s="11">
-        <f>'dane po Vs'!I13</f>
-        <v>22.2</v>
+        <f>'dane po Vs'!I14</f>
+        <v>20.6</v>
       </c>
       <c r="J13" s="11">
-        <f>'dane po Vs'!J13</f>
+        <f>'dane po Vs'!J14</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="11">
+        <f>'dane po Vs'!K14</f>
+        <v>578</v>
+      </c>
+      <c r="L13">
+        <f>'dane po Vs'!L14</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M13">
+        <f>'dane po Vs'!M14</f>
+        <v>87.2</v>
+      </c>
+      <c r="N13">
+        <f>'dane po Vs'!N14</f>
         <v>4</v>
       </c>
-      <c r="K13" s="11">
-        <f>'dane po Vs'!K13</f>
-        <v>453</v>
-      </c>
-      <c r="L13">
-        <f>'dane po Vs'!L13</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M13">
-        <f>'dane po Vs'!M13</f>
-        <v>11.2</v>
-      </c>
-      <c r="N13">
-        <f>'dane po Vs'!N13</f>
-        <v>7</v>
-      </c>
       <c r="O13">
-        <f>'dane po Vs'!O13</f>
-        <v>3219</v>
+        <f>'dane po Vs'!O14</f>
+        <v>163</v>
       </c>
       <c r="P13">
-        <f>'dane po Vs'!P13</f>
-        <v>0.42</v>
+        <f>'dane po Vs'!P14</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q13">
-        <f>'dane po Vs'!Q13</f>
-        <v>2.08</v>
+        <f>'dane po Vs'!Q14</f>
+        <v>1.77</v>
       </c>
       <c r="R13">
-        <f>'dane po Vs'!R13</f>
-        <v>0.7</v>
+        <f>'dane po Vs'!R14</f>
+        <v>14.29</v>
       </c>
       <c r="S13" s="12">
-        <f>'dane po Vs'!S13</f>
-        <v>0.12</v>
+        <f>'dane po Vs'!S14</f>
+        <v>0.22</v>
       </c>
       <c r="T13" s="11">
-        <f>'dane po Vs'!T13</f>
-        <v>22.7</v>
+        <f>'dane po Vs'!T14</f>
+        <v>18.100000000000001</v>
       </c>
       <c r="U13" s="11">
-        <f>'dane po Vs'!U13</f>
-        <v>28.3</v>
+        <f>'dane po Vs'!U14</f>
+        <v>23.3</v>
       </c>
       <c r="V13">
-        <f>'dane po Vs'!V13</f>
-        <v>145.53229055046864</v>
+        <f>'dane po Vs'!V14</f>
+        <v>259.75</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="4"/>
-        <v>7741.1450545365087</v>
+        <f>((B13-$B$30)^2+(C13-$C$30)^2+(D13-$D$30)^2+(E13-$E$30)^2+(F13-$F$30)^2+(G13-$G$30)^2+(H13-$H$30)^2+(I13-$I$30)^2+(J13-$J$30)^2+(K13-$K$30)^2+(L13-$L$30)^2+(M13-$M$30)^2+(N13-$N$30)^2+(O13-$O$30)^2+(P13-$P$30)^2+(Q13-$Q$30)^2+(R13-$R$30)^2+(S13-$S$30)^2+(T13-$T$30)^2+(U13-$U$30)^2+(V13-$V$30)^2)^(0.5)</f>
+        <v>10790.801253349471</v>
       </c>
       <c r="X13" s="9">
+        <f>1-(W13/$AD$3)</f>
+        <v>0.18256569188546912</v>
+      </c>
+      <c r="Y13" t="str">
         <f t="shared" si="1"/>
-        <v>0.41358594203511101</v>
-      </c>
-      <c r="Y13" t="str">
+        <v>Hiszpania</v>
+      </c>
+      <c r="Z13" s="10">
         <f t="shared" si="2"/>
-        <v>Grecja</v>
-      </c>
-      <c r="Z13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.41358594203511101</v>
+        <v>0.18256569188546912</v>
       </c>
       <c r="AA13" s="13">
         <f t="shared" si="0"/>
-        <v>0.41358594203511101</v>
+        <v>0.18256569188546912</v>
       </c>
       <c r="AB13" t="s">
         <v>165</v>
@@ -18809,112 +18776,112 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>'dane po Vs'!A14</f>
-        <v>Hiszpania</v>
+        <f>'dane po Vs'!A15</f>
+        <v>Holandia</v>
       </c>
       <c r="B14">
-        <f>'dane po Vs'!B14</f>
-        <v>23</v>
+        <f>'dane po Vs'!B15</f>
+        <v>8</v>
       </c>
       <c r="C14" s="13">
-        <f>'dane po Vs'!C14</f>
-        <v>94.6</v>
+        <f>'dane po Vs'!C15</f>
+        <v>118.2</v>
       </c>
       <c r="D14" s="11">
-        <f>'dane po Vs'!D14</f>
-        <v>94</v>
+        <f>'dane po Vs'!D15</f>
+        <v>1</v>
       </c>
       <c r="E14" s="11">
-        <f>'dane po Vs'!E14</f>
-        <v>79.599999999999994</v>
+        <f>'dane po Vs'!E15</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="F14" s="11">
-        <f>'dane po Vs'!F14</f>
-        <v>8.2125000000000004</v>
+        <f>'dane po Vs'!F15</f>
+        <v>3.7</v>
       </c>
       <c r="G14" s="11">
-        <f>'dane po Vs'!G14</f>
-        <v>3.8875000000000006</v>
+        <f>'dane po Vs'!G15</f>
+        <v>2.1</v>
       </c>
       <c r="H14" s="11">
-        <f>'dane po Vs'!H14</f>
-        <v>25.6</v>
+        <f>'dane po Vs'!H15</f>
+        <v>32.1</v>
       </c>
       <c r="I14" s="11">
-        <f>'dane po Vs'!I14</f>
-        <v>20.6</v>
+        <f>'dane po Vs'!I15</f>
+        <v>11.8</v>
       </c>
       <c r="J14" s="11">
-        <f>'dane po Vs'!J14</f>
-        <v>1</v>
+        <f>'dane po Vs'!J15</f>
+        <v>12</v>
       </c>
       <c r="K14" s="11">
-        <f>'dane po Vs'!K14</f>
-        <v>578</v>
+        <f>'dane po Vs'!K15</f>
+        <v>606</v>
       </c>
       <c r="L14">
-        <f>'dane po Vs'!L14</f>
-        <v>9.6999999999999993</v>
+        <f>'dane po Vs'!L15</f>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <f>'dane po Vs'!M14</f>
-        <v>87.2</v>
+        <f>'dane po Vs'!M15</f>
+        <v>0.2</v>
       </c>
       <c r="N14">
-        <f>'dane po Vs'!N14</f>
-        <v>4</v>
+        <f>'dane po Vs'!N15</f>
+        <v>2.5</v>
       </c>
       <c r="O14">
-        <f>'dane po Vs'!O14</f>
-        <v>163</v>
+        <f>'dane po Vs'!O15</f>
+        <v>1535</v>
       </c>
       <c r="P14">
-        <f>'dane po Vs'!P14</f>
-        <v>0.28999999999999998</v>
+        <f>'dane po Vs'!P15</f>
+        <v>0.33</v>
       </c>
       <c r="Q14">
-        <f>'dane po Vs'!Q14</f>
-        <v>1.77</v>
+        <f>'dane po Vs'!Q15</f>
+        <v>3.4</v>
       </c>
       <c r="R14">
-        <f>'dane po Vs'!R14</f>
-        <v>14.29</v>
+        <f>'dane po Vs'!R15</f>
+        <v>12.73</v>
       </c>
       <c r="S14" s="12">
-        <f>'dane po Vs'!S14</f>
-        <v>0.22</v>
+        <f>'dane po Vs'!S15</f>
+        <v>0.21</v>
       </c>
       <c r="T14" s="11">
-        <f>'dane po Vs'!T14</f>
-        <v>18.100000000000001</v>
+        <f>'dane po Vs'!T15</f>
+        <v>9.4</v>
       </c>
       <c r="U14" s="11">
-        <f>'dane po Vs'!U14</f>
-        <v>23.3</v>
+        <f>'dane po Vs'!U15</f>
+        <v>15.7</v>
       </c>
       <c r="V14">
-        <f>'dane po Vs'!V14</f>
-        <v>259.75</v>
+        <f>'dane po Vs'!V15</f>
+        <v>130.75</v>
       </c>
       <c r="W14" s="9">
-        <f t="shared" si="4"/>
-        <v>10790.801253349471</v>
+        <f>((B14-$B$30)^2+(C14-$C$30)^2+(D14-$D$30)^2+(E14-$E$30)^2+(F14-$F$30)^2+(G14-$G$30)^2+(H14-$H$30)^2+(I14-$I$30)^2+(J14-$J$30)^2+(K14-$K$30)^2+(L14-$L$30)^2+(M14-$M$30)^2+(N14-$N$30)^2+(O14-$O$30)^2+(P14-$P$30)^2+(Q14-$Q$30)^2+(R14-$R$30)^2+(S14-$S$30)^2+(T14-$T$30)^2+(U14-$U$30)^2+(V14-$V$30)^2)^(0.5)</f>
+        <v>9424.3961343217561</v>
       </c>
       <c r="X14" s="9">
+        <f>1-(W14/$AD$3)</f>
+        <v>0.28607481941479618</v>
+      </c>
+      <c r="Y14" t="str">
         <f t="shared" si="1"/>
-        <v>0.18256569188546912</v>
-      </c>
-      <c r="Y14" t="str">
+        <v>Holandia</v>
+      </c>
+      <c r="Z14" s="10">
         <f t="shared" si="2"/>
-        <v>Hiszpania</v>
-      </c>
-      <c r="Z14" s="10">
-        <f t="shared" si="3"/>
-        <v>0.18256569188546912</v>
+        <v>0.28607481941479618</v>
       </c>
       <c r="AA14" s="13">
         <f t="shared" si="0"/>
-        <v>0.18256569188546912</v>
+        <v>0.28607481941479618</v>
       </c>
       <c r="AB14" t="s">
         <v>165</v>
@@ -18928,112 +18895,112 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>'dane po Vs'!A15</f>
-        <v>Holandia</v>
+        <f>'dane po Vs'!A16</f>
+        <v>Irlandia</v>
       </c>
       <c r="B15">
-        <f>'dane po Vs'!B15</f>
-        <v>8</v>
+        <f>'dane po Vs'!B16</f>
+        <v>11</v>
       </c>
       <c r="C15" s="13">
-        <f>'dane po Vs'!C15</f>
-        <v>118.2</v>
+        <f>'dane po Vs'!C16</f>
+        <v>103</v>
       </c>
       <c r="D15" s="11">
-        <f>'dane po Vs'!D15</f>
+        <f>'dane po Vs'!D16</f>
+        <v>97</v>
+      </c>
+      <c r="E15" s="11">
+        <f>'dane po Vs'!E16</f>
+        <v>87.9</v>
+      </c>
+      <c r="F15" s="11">
+        <f>'dane po Vs'!F16</f>
+        <v>12.9</v>
+      </c>
+      <c r="G15" s="11">
+        <f>'dane po Vs'!G16</f>
+        <v>6.4</v>
+      </c>
+      <c r="H15" s="11">
+        <f>'dane po Vs'!H16</f>
+        <v>13</v>
+      </c>
+      <c r="I15" s="11">
+        <f>'dane po Vs'!I16</f>
+        <v>41.2</v>
+      </c>
+      <c r="J15" s="11">
+        <f>'dane po Vs'!J16</f>
+        <v>5</v>
+      </c>
+      <c r="K15" s="11">
+        <f>'dane po Vs'!K16</f>
+        <v>772</v>
+      </c>
+      <c r="L15">
+        <f>'dane po Vs'!L16</f>
+        <v>3.7</v>
+      </c>
+      <c r="M15">
+        <f>'dane po Vs'!M16</f>
+        <v>11.7</v>
+      </c>
+      <c r="N15">
+        <f>'dane po Vs'!N16</f>
         <v>1</v>
       </c>
-      <c r="E15" s="11">
-        <f>'dane po Vs'!E15</f>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="F15" s="11">
-        <f>'dane po Vs'!F15</f>
-        <v>3.7</v>
-      </c>
-      <c r="G15" s="11">
-        <f>'dane po Vs'!G15</f>
-        <v>2.1</v>
-      </c>
-      <c r="H15" s="11">
-        <f>'dane po Vs'!H15</f>
-        <v>32.1</v>
-      </c>
-      <c r="I15" s="11">
-        <f>'dane po Vs'!I15</f>
-        <v>11.8</v>
-      </c>
-      <c r="J15" s="11">
-        <f>'dane po Vs'!J15</f>
-        <v>12</v>
-      </c>
-      <c r="K15" s="11">
-        <f>'dane po Vs'!K15</f>
-        <v>606</v>
-      </c>
-      <c r="L15">
-        <f>'dane po Vs'!L15</f>
-        <v>3.3</v>
-      </c>
-      <c r="M15">
-        <f>'dane po Vs'!M15</f>
-        <v>0.2</v>
-      </c>
-      <c r="N15">
-        <f>'dane po Vs'!N15</f>
-        <v>2.5</v>
-      </c>
       <c r="O15">
-        <f>'dane po Vs'!O15</f>
-        <v>1535</v>
+        <f>'dane po Vs'!O16</f>
+        <v>957</v>
       </c>
       <c r="P15">
-        <f>'dane po Vs'!P15</f>
-        <v>0.33</v>
+        <f>'dane po Vs'!P16</f>
+        <v>0.42</v>
       </c>
       <c r="Q15">
-        <f>'dane po Vs'!Q15</f>
-        <v>3.4</v>
+        <f>'dane po Vs'!Q16</f>
+        <v>2.4500000000000002</v>
       </c>
       <c r="R15">
-        <f>'dane po Vs'!R15</f>
-        <v>12.73</v>
+        <f>'dane po Vs'!R16</f>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S15" s="12">
-        <f>'dane po Vs'!S15</f>
-        <v>0.21</v>
+        <f>'dane po Vs'!S16</f>
+        <v>0.09</v>
       </c>
       <c r="T15" s="11">
-        <f>'dane po Vs'!T15</f>
-        <v>9.4</v>
+        <f>'dane po Vs'!T16</f>
+        <v>9.1999999999999993</v>
       </c>
       <c r="U15" s="11">
-        <f>'dane po Vs'!U15</f>
-        <v>15.7</v>
+        <f>'dane po Vs'!U16</f>
+        <v>23.1</v>
       </c>
       <c r="V15">
-        <f>'dane po Vs'!V15</f>
-        <v>130.75</v>
+        <f>'dane po Vs'!V16</f>
+        <v>21.266666666666666</v>
       </c>
       <c r="W15" s="9">
-        <f t="shared" si="4"/>
-        <v>9424.3961343217561</v>
+        <f>((B15-$B$30)^2+(C15-$C$30)^2+(D15-$D$30)^2+(E15-$E$30)^2+(F15-$F$30)^2+(G15-$G$30)^2+(H15-$H$30)^2+(I15-$I$30)^2+(J15-$J$30)^2+(K15-$K$30)^2+(L15-$L$30)^2+(M15-$M$30)^2+(N15-$N$30)^2+(O15-$O$30)^2+(P15-$P$30)^2+(Q15-$Q$30)^2+(R15-$R$30)^2+(S15-$S$30)^2+(T15-$T$30)^2+(U15-$U$30)^2+(V15-$V$30)^2)^(0.5)</f>
+        <v>10012.995492200147</v>
       </c>
       <c r="X15" s="9">
+        <f>1-(W15/$AD$3)</f>
+        <v>0.24148672094392198</v>
+      </c>
+      <c r="Y15" t="str">
         <f t="shared" si="1"/>
-        <v>0.28607481941479618</v>
-      </c>
-      <c r="Y15" t="str">
+        <v>Irlandia</v>
+      </c>
+      <c r="Z15" s="10">
         <f t="shared" si="2"/>
-        <v>Holandia</v>
-      </c>
-      <c r="Z15" s="10">
-        <f t="shared" si="3"/>
-        <v>0.28607481941479618</v>
+        <v>0.24148672094392198</v>
       </c>
       <c r="AA15" s="13">
         <f t="shared" si="0"/>
-        <v>0.28607481941479618</v>
+        <v>0.24148672094392198</v>
       </c>
       <c r="AB15" t="s">
         <v>165</v>
@@ -19047,112 +19014,112 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>'dane po Vs'!A16</f>
-        <v>Irlandia</v>
+        <f>'dane po Vs'!A17</f>
+        <v>Litwa</v>
       </c>
       <c r="B16">
-        <f>'dane po Vs'!B16</f>
-        <v>11</v>
+        <f>'dane po Vs'!B17</f>
+        <v>10</v>
       </c>
       <c r="C16" s="13">
-        <f>'dane po Vs'!C16</f>
-        <v>103</v>
+        <f>'dane po Vs'!C17</f>
+        <v>103.1</v>
       </c>
       <c r="D16" s="11">
-        <f>'dane po Vs'!D16</f>
-        <v>97</v>
+        <f>'dane po Vs'!D17</f>
+        <v>155</v>
       </c>
       <c r="E16" s="11">
-        <f>'dane po Vs'!E16</f>
-        <v>87.9</v>
+        <f>'dane po Vs'!E17</f>
+        <v>61.2</v>
       </c>
       <c r="F16" s="11">
-        <f>'dane po Vs'!F16</f>
-        <v>12.9</v>
+        <f>'dane po Vs'!F17</f>
+        <v>6.8374999999999995</v>
       </c>
       <c r="G16" s="11">
-        <f>'dane po Vs'!G16</f>
-        <v>6.4</v>
+        <f>'dane po Vs'!G17</f>
+        <v>8.6875</v>
       </c>
       <c r="H16" s="11">
-        <f>'dane po Vs'!H16</f>
-        <v>13</v>
+        <f>'dane po Vs'!H17</f>
+        <v>18.5</v>
       </c>
       <c r="I16" s="11">
-        <f>'dane po Vs'!I16</f>
-        <v>41.2</v>
+        <f>'dane po Vs'!I17</f>
+        <v>15.1</v>
       </c>
       <c r="J16" s="11">
-        <f>'dane po Vs'!J16</f>
-        <v>5</v>
+        <f>'dane po Vs'!J17</f>
+        <v>4</v>
       </c>
       <c r="K16" s="11">
-        <f>'dane po Vs'!K16</f>
-        <v>772</v>
+        <f>'dane po Vs'!K17</f>
+        <v>419</v>
       </c>
       <c r="L16">
-        <f>'dane po Vs'!L16</f>
-        <v>3.7</v>
+        <f>'dane po Vs'!L17</f>
+        <v>16.5</v>
       </c>
       <c r="M16">
-        <f>'dane po Vs'!M16</f>
-        <v>11.7</v>
+        <f>'dane po Vs'!M17</f>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N16">
-        <f>'dane po Vs'!N16</f>
-        <v>1</v>
+        <f>'dane po Vs'!N17</f>
+        <v>4.5</v>
       </c>
       <c r="O16">
-        <f>'dane po Vs'!O16</f>
-        <v>957</v>
+        <f>'dane po Vs'!O17</f>
+        <v>305</v>
       </c>
       <c r="P16">
-        <f>'dane po Vs'!P16</f>
-        <v>0.42</v>
+        <f>'dane po Vs'!P17</f>
+        <v>0.49</v>
       </c>
       <c r="Q16">
-        <f>'dane po Vs'!Q16</f>
-        <v>2.4500000000000002</v>
+        <f>'dane po Vs'!Q17</f>
+        <v>1.75</v>
       </c>
       <c r="R16">
-        <f>'dane po Vs'!R16</f>
-        <v>0.57999999999999996</v>
+        <f>'dane po Vs'!R17</f>
+        <v>0</v>
       </c>
       <c r="S16" s="12">
-        <f>'dane po Vs'!S16</f>
-        <v>0.09</v>
+        <f>'dane po Vs'!S17</f>
+        <v>0.17</v>
       </c>
       <c r="T16" s="11">
-        <f>'dane po Vs'!T16</f>
-        <v>9.1999999999999993</v>
+        <f>'dane po Vs'!T17</f>
+        <v>8.4</v>
       </c>
       <c r="U16" s="11">
-        <f>'dane po Vs'!U16</f>
-        <v>23.1</v>
+        <f>'dane po Vs'!U17</f>
+        <v>28.7</v>
       </c>
       <c r="V16">
-        <f>'dane po Vs'!V16</f>
-        <v>21.266666666666666</v>
+        <f>'dane po Vs'!V17</f>
+        <v>36.933333333333337</v>
       </c>
       <c r="W16" s="9">
-        <f t="shared" si="4"/>
-        <v>10012.995492200147</v>
+        <f>((B16-$B$30)^2+(C16-$C$30)^2+(D16-$D$30)^2+(E16-$E$30)^2+(F16-$F$30)^2+(G16-$G$30)^2+(H16-$H$30)^2+(I16-$I$30)^2+(J16-$J$30)^2+(K16-$K$30)^2+(L16-$L$30)^2+(M16-$M$30)^2+(N16-$N$30)^2+(O16-$O$30)^2+(P16-$P$30)^2+(Q16-$Q$30)^2+(R16-$R$30)^2+(S16-$S$30)^2+(T16-$T$30)^2+(U16-$U$30)^2+(V16-$V$30)^2)^(0.5)</f>
+        <v>10653.39871711112</v>
       </c>
       <c r="X16" s="9">
+        <f>1-(W16/$AD$3)</f>
+        <v>0.19297433017897059</v>
+      </c>
+      <c r="Y16" t="str">
         <f t="shared" si="1"/>
-        <v>0.24148672094392198</v>
-      </c>
-      <c r="Y16" t="str">
+        <v>Litwa</v>
+      </c>
+      <c r="Z16" s="10">
         <f t="shared" si="2"/>
-        <v>Irlandia</v>
-      </c>
-      <c r="Z16" s="10">
-        <f t="shared" si="3"/>
-        <v>0.24148672094392198</v>
+        <v>0.19297433017897059</v>
       </c>
       <c r="AA16" s="13">
         <f t="shared" si="0"/>
-        <v>0.24148672094392198</v>
+        <v>0.19297433017897059</v>
       </c>
       <c r="AB16" t="s">
         <v>165</v>
@@ -19166,112 +19133,112 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>'dane po Vs'!A17</f>
-        <v>Litwa</v>
+        <f>'dane po Vs'!A18</f>
+        <v>Luksemburg</v>
       </c>
       <c r="B17">
-        <f>'dane po Vs'!B17</f>
-        <v>10</v>
+        <f>'dane po Vs'!B18</f>
+        <v>15</v>
       </c>
       <c r="C17" s="13">
-        <f>'dane po Vs'!C17</f>
-        <v>103.1</v>
+        <f>'dane po Vs'!C18</f>
+        <v>115.7</v>
       </c>
       <c r="D17" s="11">
-        <f>'dane po Vs'!D17</f>
-        <v>155</v>
+        <f>'dane po Vs'!D18</f>
+        <v>150</v>
       </c>
       <c r="E17" s="11">
-        <f>'dane po Vs'!E17</f>
-        <v>61.2</v>
+        <f>'dane po Vs'!E18</f>
+        <v>96.7</v>
       </c>
       <c r="F17" s="11">
-        <f>'dane po Vs'!F17</f>
-        <v>6.8374999999999995</v>
+        <f>'dane po Vs'!F18</f>
+        <v>2.9125000000000001</v>
       </c>
       <c r="G17" s="11">
-        <f>'dane po Vs'!G17</f>
-        <v>8.6875</v>
+        <f>'dane po Vs'!G18</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H17" s="11">
-        <f>'dane po Vs'!H17</f>
-        <v>18.5</v>
+        <f>'dane po Vs'!H18</f>
+        <v>22</v>
       </c>
       <c r="I17" s="11">
-        <f>'dane po Vs'!I17</f>
-        <v>15.1</v>
+        <f>'dane po Vs'!I18</f>
+        <v>26.5</v>
       </c>
       <c r="J17" s="11">
-        <f>'dane po Vs'!J17</f>
-        <v>4</v>
+        <f>'dane po Vs'!J18</f>
+        <v>6</v>
       </c>
       <c r="K17" s="11">
-        <f>'dane po Vs'!K17</f>
-        <v>419</v>
+        <f>'dane po Vs'!K18</f>
+        <v>695</v>
       </c>
       <c r="L17">
-        <f>'dane po Vs'!L17</f>
-        <v>16.5</v>
+        <f>'dane po Vs'!L18</f>
+        <v>2.7</v>
       </c>
       <c r="M17">
-        <f>'dane po Vs'!M17</f>
-        <v>9.1999999999999993</v>
+        <f>'dane po Vs'!M18</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N17">
-        <f>'dane po Vs'!N17</f>
-        <v>4.5</v>
+        <f>'dane po Vs'!N18</f>
+        <v>2.6</v>
       </c>
       <c r="O17">
-        <f>'dane po Vs'!O17</f>
-        <v>305</v>
+        <f>'dane po Vs'!O18</f>
+        <v>487</v>
       </c>
       <c r="P17">
-        <f>'dane po Vs'!P17</f>
-        <v>0.49</v>
+        <f>'dane po Vs'!P18</f>
+        <v>0.42</v>
       </c>
       <c r="Q17">
-        <f>'dane po Vs'!Q17</f>
-        <v>1.75</v>
+        <f>'dane po Vs'!Q18</f>
+        <v>2.57</v>
       </c>
       <c r="R17">
-        <f>'dane po Vs'!R17</f>
-        <v>0</v>
+        <f>'dane po Vs'!R18</f>
+        <v>0.24</v>
       </c>
       <c r="S17" s="12">
-        <f>'dane po Vs'!S17</f>
-        <v>0.17</v>
+        <f>'dane po Vs'!S18</f>
+        <v>0.21</v>
       </c>
       <c r="T17" s="11">
-        <f>'dane po Vs'!T17</f>
-        <v>8.4</v>
+        <f>'dane po Vs'!T18</f>
+        <v>15.6</v>
       </c>
       <c r="U17" s="11">
-        <f>'dane po Vs'!U17</f>
-        <v>28.7</v>
+        <f>'dane po Vs'!U18</f>
+        <v>15.9</v>
       </c>
       <c r="V17">
-        <f>'dane po Vs'!V17</f>
-        <v>36.933333333333337</v>
+        <f>'dane po Vs'!V18</f>
+        <v>9.64</v>
       </c>
       <c r="W17" s="9">
-        <f t="shared" si="4"/>
-        <v>10653.39871711112</v>
+        <f>((B17-$B$30)^2+(C17-$C$30)^2+(D17-$D$30)^2+(E17-$E$30)^2+(F17-$F$30)^2+(G17-$G$30)^2+(H17-$H$30)^2+(I17-$I$30)^2+(J17-$J$30)^2+(K17-$K$30)^2+(L17-$L$30)^2+(M17-$M$30)^2+(N17-$N$30)^2+(O17-$O$30)^2+(P17-$P$30)^2+(Q17-$Q$30)^2+(R17-$R$30)^2+(S17-$S$30)^2+(T17-$T$30)^2+(U17-$U$30)^2+(V17-$V$30)^2)^(0.5)</f>
+        <v>10480.025657361763</v>
       </c>
       <c r="X17" s="9">
+        <f>1-(W17/$AD$3)</f>
+        <v>0.20610783934242827</v>
+      </c>
+      <c r="Y17" t="str">
         <f t="shared" si="1"/>
-        <v>0.19297433017897059</v>
-      </c>
-      <c r="Y17" t="str">
+        <v>Luksemburg</v>
+      </c>
+      <c r="Z17" s="10">
         <f t="shared" si="2"/>
-        <v>Litwa</v>
-      </c>
-      <c r="Z17" s="10">
-        <f t="shared" si="3"/>
-        <v>0.19297433017897059</v>
+        <v>0.20610783934242827</v>
       </c>
       <c r="AA17" s="13">
         <f t="shared" si="0"/>
-        <v>0.19297433017897059</v>
+        <v>0.20610783934242827</v>
       </c>
       <c r="AB17" t="s">
         <v>165</v>
@@ -19285,112 +19252,112 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>'dane po Vs'!A18</f>
-        <v>Luksemburg</v>
+        <f>'dane po Vs'!A19</f>
+        <v>Łotwa</v>
       </c>
       <c r="B18">
-        <f>'dane po Vs'!B18</f>
-        <v>15</v>
+        <f>'dane po Vs'!B19</f>
+        <v>11</v>
       </c>
       <c r="C18" s="13">
-        <f>'dane po Vs'!C18</f>
-        <v>115.7</v>
+        <f>'dane po Vs'!C19</f>
+        <v>128.9</v>
       </c>
       <c r="D18" s="11">
-        <f>'dane po Vs'!D18</f>
-        <v>150</v>
+        <f>'dane po Vs'!D19</f>
+        <v>2</v>
       </c>
       <c r="E18" s="11">
-        <f>'dane po Vs'!E18</f>
-        <v>96.7</v>
+        <f>'dane po Vs'!E19</f>
+        <v>62.5</v>
       </c>
       <c r="F18" s="11">
-        <f>'dane po Vs'!F18</f>
-        <v>2.9125000000000001</v>
+        <f>'dane po Vs'!F19</f>
+        <v>3.6</v>
       </c>
       <c r="G18" s="11">
-        <f>'dane po Vs'!G18</f>
-        <v>4.4000000000000004</v>
+        <f>'dane po Vs'!G19</f>
+        <v>12.4</v>
       </c>
       <c r="H18" s="11">
-        <f>'dane po Vs'!H18</f>
-        <v>22</v>
+        <f>'dane po Vs'!H19</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="I18" s="11">
-        <f>'dane po Vs'!I18</f>
-        <v>26.5</v>
+        <f>'dane po Vs'!I19</f>
+        <v>22.4</v>
       </c>
       <c r="J18" s="11">
-        <f>'dane po Vs'!J18</f>
-        <v>6</v>
+        <f>'dane po Vs'!J19</f>
+        <v>2</v>
       </c>
       <c r="K18" s="11">
-        <f>'dane po Vs'!K18</f>
-        <v>695</v>
+        <f>'dane po Vs'!K19</f>
+        <v>391</v>
       </c>
       <c r="L18">
-        <f>'dane po Vs'!L18</f>
-        <v>2.7</v>
+        <f>'dane po Vs'!L19</f>
+        <v>29.6</v>
       </c>
       <c r="M18">
-        <f>'dane po Vs'!M18</f>
-        <v>1.1000000000000001</v>
+        <f>'dane po Vs'!M19</f>
+        <v>17.7</v>
       </c>
       <c r="N18">
-        <f>'dane po Vs'!N18</f>
-        <v>2.6</v>
+        <f>'dane po Vs'!N19</f>
+        <v>8.1</v>
       </c>
       <c r="O18">
-        <f>'dane po Vs'!O18</f>
-        <v>487</v>
+        <f>'dane po Vs'!O19</f>
+        <v>10947</v>
       </c>
       <c r="P18">
-        <f>'dane po Vs'!P18</f>
-        <v>0.42</v>
+        <f>'dane po Vs'!P19</f>
+        <v>0.3</v>
       </c>
       <c r="Q18">
-        <f>'dane po Vs'!Q18</f>
-        <v>2.57</v>
+        <f>'dane po Vs'!Q19</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R18">
-        <f>'dane po Vs'!R18</f>
-        <v>0.24</v>
+        <f>'dane po Vs'!R19</f>
+        <v>0</v>
       </c>
       <c r="S18" s="12">
-        <f>'dane po Vs'!S18</f>
-        <v>0.21</v>
+        <f>'dane po Vs'!S19</f>
+        <v>0.13</v>
       </c>
       <c r="T18" s="11">
-        <f>'dane po Vs'!T18</f>
-        <v>15.6</v>
+        <f>'dane po Vs'!T19</f>
+        <v>10.6</v>
       </c>
       <c r="U18" s="11">
-        <f>'dane po Vs'!U18</f>
-        <v>15.9</v>
+        <f>'dane po Vs'!U19</f>
+        <v>35.1</v>
       </c>
       <c r="V18">
-        <f>'dane po Vs'!V18</f>
-        <v>9.64</v>
+        <f>'dane po Vs'!V19</f>
+        <v>27.9</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="4"/>
-        <v>10480.025657361763</v>
+        <f>((B18-$B$30)^2+(C18-$C$30)^2+(D18-$D$30)^2+(E18-$E$30)^2+(F18-$F$30)^2+(G18-$G$30)^2+(H18-$H$30)^2+(I18-$I$30)^2+(J18-$J$30)^2+(K18-$K$30)^2+(L18-$L$30)^2+(M18-$M$30)^2+(N18-$N$30)^2+(O18-$O$30)^2+(P18-$P$30)^2+(Q18-$Q$30)^2+(R18-$R$30)^2+(S18-$S$30)^2+(T18-$T$30)^2+(U18-$U$30)^2+(V18-$V$30)^2)^(0.5)</f>
+        <v>465.23439389380349</v>
       </c>
       <c r="X18" s="9">
+        <f>1-(W18/$AD$3)</f>
+        <v>0.96475715324979971</v>
+      </c>
+      <c r="Y18" t="str">
         <f t="shared" si="1"/>
-        <v>0.20610783934242827</v>
-      </c>
-      <c r="Y18" t="str">
+        <v>Łotwa</v>
+      </c>
+      <c r="Z18" s="10">
         <f t="shared" si="2"/>
-        <v>Luksemburg</v>
-      </c>
-      <c r="Z18" s="10">
-        <f t="shared" si="3"/>
-        <v>0.20610783934242827</v>
+        <v>0.96475715324979971</v>
       </c>
       <c r="AA18" s="13">
         <f t="shared" si="0"/>
-        <v>0.20610783934242827</v>
+        <v>0.96475715324979971</v>
       </c>
       <c r="AB18" t="s">
         <v>165</v>
@@ -19404,112 +19371,112 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>'dane po Vs'!A19</f>
-        <v>Łotwa</v>
+        <f>'dane po Vs'!A20</f>
+        <v>Malta</v>
       </c>
       <c r="B19">
-        <f>'dane po Vs'!B19</f>
-        <v>11</v>
+        <f>'dane po Vs'!B20</f>
+        <v>13</v>
       </c>
       <c r="C19" s="13">
-        <f>'dane po Vs'!C19</f>
-        <v>128.9</v>
+        <f>'dane po Vs'!C20</f>
+        <v>120.1</v>
       </c>
       <c r="D19" s="11">
-        <f>'dane po Vs'!D19</f>
-        <v>2</v>
+        <f>'dane po Vs'!D20</f>
+        <v>231.76190476190473</v>
       </c>
       <c r="E19" s="11">
-        <f>'dane po Vs'!E19</f>
-        <v>62.5</v>
+        <f>'dane po Vs'!E20</f>
+        <v>100</v>
       </c>
       <c r="F19" s="11">
-        <f>'dane po Vs'!F19</f>
-        <v>3.6</v>
+        <f>'dane po Vs'!F20</f>
+        <v>16.574999999999999</v>
       </c>
       <c r="G19" s="11">
-        <f>'dane po Vs'!G19</f>
-        <v>12.4</v>
+        <f>'dane po Vs'!G20</f>
+        <v>3.35</v>
       </c>
       <c r="H19" s="11">
-        <f>'dane po Vs'!H19</f>
-        <v>20.399999999999999</v>
+        <f>'dane po Vs'!H20</f>
+        <v>24.1</v>
       </c>
       <c r="I19" s="11">
-        <f>'dane po Vs'!I19</f>
-        <v>22.4</v>
+        <f>'dane po Vs'!I20</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J19" s="11">
-        <f>'dane po Vs'!J19</f>
-        <v>2</v>
+        <f>'dane po Vs'!J20</f>
+        <v>49</v>
       </c>
       <c r="K19" s="11">
-        <f>'dane po Vs'!K19</f>
-        <v>391</v>
+        <f>'dane po Vs'!K20</f>
+        <v>654</v>
       </c>
       <c r="L19">
-        <f>'dane po Vs'!L19</f>
-        <v>29.6</v>
+        <f>'dane po Vs'!L20</f>
+        <v>0.2</v>
       </c>
       <c r="M19">
-        <f>'dane po Vs'!M19</f>
-        <v>17.7</v>
+        <f>'dane po Vs'!M20</f>
+        <v>0</v>
       </c>
       <c r="N19">
-        <f>'dane po Vs'!N19</f>
-        <v>8.1</v>
+        <f>'dane po Vs'!N20</f>
+        <v>0.3</v>
       </c>
       <c r="O19">
-        <f>'dane po Vs'!O19</f>
-        <v>10947</v>
+        <f>'dane po Vs'!O20</f>
+        <v>618</v>
       </c>
       <c r="P19">
-        <f>'dane po Vs'!P19</f>
-        <v>0.3</v>
+        <f>'dane po Vs'!P20</f>
+        <v>0.42</v>
       </c>
       <c r="Q19">
-        <f>'dane po Vs'!Q19</f>
-        <v>2.0499999999999998</v>
+        <f>'dane po Vs'!Q20</f>
+        <v>3.53</v>
       </c>
       <c r="R19">
-        <f>'dane po Vs'!R19</f>
+        <f>'dane po Vs'!R20</f>
         <v>0</v>
       </c>
       <c r="S19" s="12">
-        <f>'dane po Vs'!S19</f>
-        <v>0.13</v>
+        <f>'dane po Vs'!S20</f>
+        <v>0.01</v>
       </c>
       <c r="T19" s="11">
-        <f>'dane po Vs'!T19</f>
-        <v>10.6</v>
+        <f>'dane po Vs'!T20</f>
+        <v>14.2</v>
       </c>
       <c r="U19" s="11">
-        <f>'dane po Vs'!U19</f>
-        <v>35.1</v>
+        <f>'dane po Vs'!U20</f>
+        <v>19.7</v>
       </c>
       <c r="V19">
-        <f>'dane po Vs'!V19</f>
-        <v>27.9</v>
+        <f>'dane po Vs'!V20</f>
+        <v>143.91419305977459</v>
       </c>
       <c r="W19" s="9">
-        <f t="shared" si="4"/>
-        <v>465.23439389380349</v>
+        <f>((B19-$B$30)^2+(C19-$C$30)^2+(D19-$D$30)^2+(E19-$E$30)^2+(F19-$F$30)^2+(G19-$G$30)^2+(H19-$H$30)^2+(I19-$I$30)^2+(J19-$J$30)^2+(K19-$K$30)^2+(L19-$L$30)^2+(M19-$M$30)^2+(N19-$N$30)^2+(O19-$O$30)^2+(P19-$P$30)^2+(Q19-$Q$30)^2+(R19-$R$30)^2+(S19-$S$30)^2+(T19-$T$30)^2+(U19-$U$30)^2+(V19-$V$30)^2)^(0.5)</f>
+        <v>10344.837094789393</v>
       </c>
       <c r="X19" s="9">
+        <f>1-(W19/$AD$3)</f>
+        <v>0.21634876274717008</v>
+      </c>
+      <c r="Y19" t="str">
         <f t="shared" si="1"/>
-        <v>0.96475715324979971</v>
-      </c>
-      <c r="Y19" t="str">
+        <v>Malta</v>
+      </c>
+      <c r="Z19" s="10">
         <f t="shared" si="2"/>
-        <v>Łotwa</v>
-      </c>
-      <c r="Z19" s="10">
-        <f t="shared" si="3"/>
-        <v>0.96475715324979971</v>
+        <v>0.21634876274717008</v>
       </c>
       <c r="AA19" s="13">
         <f t="shared" si="0"/>
-        <v>0.96475715324979971</v>
+        <v>0.21634876274717008</v>
       </c>
       <c r="AB19" t="s">
         <v>165</v>
@@ -19523,112 +19490,112 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>'dane po Vs'!A20</f>
-        <v>Malta</v>
+        <f>'dane po Vs'!A21</f>
+        <v>Niemcy</v>
       </c>
       <c r="B20">
-        <f>'dane po Vs'!B20</f>
-        <v>13</v>
+        <f>'dane po Vs'!B21</f>
+        <v>10</v>
       </c>
       <c r="C20" s="13">
-        <f>'dane po Vs'!C20</f>
-        <v>120.1</v>
+        <f>'dane po Vs'!C21</f>
+        <v>119.8</v>
       </c>
       <c r="D20" s="11">
-        <f>'dane po Vs'!D20</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D21</f>
+        <v>653</v>
       </c>
       <c r="E20" s="11">
-        <f>'dane po Vs'!E20</f>
-        <v>100</v>
+        <f>'dane po Vs'!E21</f>
+        <v>58.5</v>
       </c>
       <c r="F20" s="11">
-        <f>'dane po Vs'!F20</f>
-        <v>16.574999999999999</v>
+        <f>'dane po Vs'!F21</f>
+        <v>4.7874999999999996</v>
       </c>
       <c r="G20" s="11">
-        <f>'dane po Vs'!G20</f>
-        <v>3.35</v>
+        <f>'dane po Vs'!G21</f>
+        <v>2.7875000000000001</v>
       </c>
       <c r="H20" s="11">
-        <f>'dane po Vs'!H20</f>
-        <v>24.1</v>
+        <f>'dane po Vs'!H21</f>
+        <v>27.1</v>
       </c>
       <c r="I20" s="11">
-        <f>'dane po Vs'!I20</f>
-        <v>8.8000000000000007</v>
+        <f>'dane po Vs'!I21</f>
+        <v>16.3</v>
       </c>
       <c r="J20" s="11">
-        <f>'dane po Vs'!J20</f>
-        <v>49</v>
+        <f>'dane po Vs'!J21</f>
+        <v>0</v>
       </c>
       <c r="K20" s="11">
-        <f>'dane po Vs'!K20</f>
-        <v>654</v>
+        <f>'dane po Vs'!K21</f>
+        <v>582</v>
       </c>
       <c r="L20">
-        <f>'dane po Vs'!L20</f>
-        <v>0.2</v>
+        <f>'dane po Vs'!L21</f>
+        <v>9.1</v>
       </c>
       <c r="M20">
-        <f>'dane po Vs'!M20</f>
-        <v>0</v>
+        <f>'dane po Vs'!M21</f>
+        <v>22.6</v>
       </c>
       <c r="N20">
-        <f>'dane po Vs'!N20</f>
-        <v>0.3</v>
+        <f>'dane po Vs'!N21</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O20">
-        <f>'dane po Vs'!O20</f>
-        <v>618</v>
+        <f>'dane po Vs'!O21</f>
+        <v>430</v>
       </c>
       <c r="P20">
-        <f>'dane po Vs'!P20</f>
-        <v>0.42</v>
+        <f>'dane po Vs'!P21</f>
+        <v>0.47</v>
       </c>
       <c r="Q20">
-        <f>'dane po Vs'!Q20</f>
-        <v>3.53</v>
+        <f>'dane po Vs'!Q21</f>
+        <v>2.17</v>
       </c>
       <c r="R20">
-        <f>'dane po Vs'!R20</f>
-        <v>0</v>
+        <f>'dane po Vs'!R21</f>
+        <v>78.03</v>
       </c>
       <c r="S20" s="12">
-        <f>'dane po Vs'!S20</f>
-        <v>0.01</v>
+        <f>'dane po Vs'!S21</f>
+        <v>0.34</v>
       </c>
       <c r="T20" s="11">
-        <f>'dane po Vs'!T20</f>
-        <v>14.2</v>
+        <f>'dane po Vs'!T21</f>
+        <v>11.8</v>
       </c>
       <c r="U20" s="11">
-        <f>'dane po Vs'!U20</f>
-        <v>19.7</v>
+        <f>'dane po Vs'!U21</f>
+        <v>20.6</v>
       </c>
       <c r="V20">
-        <f>'dane po Vs'!V20</f>
-        <v>143.91419305977459</v>
+        <f>'dane po Vs'!V21</f>
+        <v>101.7</v>
       </c>
       <c r="W20" s="9">
-        <f t="shared" si="4"/>
-        <v>10344.837094789393</v>
+        <f>((B20-$B$30)^2+(C20-$C$30)^2+(D20-$D$30)^2+(E20-$E$30)^2+(F20-$F$30)^2+(G20-$G$30)^2+(H20-$H$30)^2+(I20-$I$30)^2+(J20-$J$30)^2+(K20-$K$30)^2+(L20-$L$30)^2+(M20-$M$30)^2+(N20-$N$30)^2+(O20-$O$30)^2+(P20-$P$30)^2+(Q20-$Q$30)^2+(R20-$R$30)^2+(S20-$S$30)^2+(T20-$T$30)^2+(U20-$U$30)^2+(V20-$V$30)^2)^(0.5)</f>
+        <v>10547.995447456353</v>
       </c>
       <c r="X20" s="9">
+        <f>1-(W20/$AD$3)</f>
+        <v>0.20095893176511426</v>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" si="1"/>
-        <v>0.21634876274717008</v>
-      </c>
-      <c r="Y20" t="str">
+        <v>Niemcy</v>
+      </c>
+      <c r="Z20" s="10">
         <f t="shared" si="2"/>
-        <v>Malta</v>
-      </c>
-      <c r="Z20" s="10">
-        <f t="shared" si="3"/>
-        <v>0.21634876274717008</v>
+        <v>0.20095893176511426</v>
       </c>
       <c r="AA20" s="13">
         <f t="shared" si="0"/>
-        <v>0.21634876274717008</v>
+        <v>0.20095893176511426</v>
       </c>
       <c r="AB20" t="s">
         <v>165</v>
@@ -19642,112 +19609,112 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>'dane po Vs'!A21</f>
-        <v>Niemcy</v>
+        <f>'dane po Vs'!A22</f>
+        <v>Polska</v>
       </c>
       <c r="B21">
-        <f>'dane po Vs'!B21</f>
-        <v>10</v>
+        <f>'dane po Vs'!B22</f>
+        <v>8</v>
       </c>
       <c r="C21" s="13">
-        <f>'dane po Vs'!C21</f>
-        <v>119.8</v>
+        <f>'dane po Vs'!C22</f>
+        <v>113.5</v>
       </c>
       <c r="D21" s="11">
-        <f>'dane po Vs'!D21</f>
-        <v>653</v>
+        <f>'dane po Vs'!D22</f>
+        <v>231.76190476190473</v>
       </c>
       <c r="E21" s="11">
-        <f>'dane po Vs'!E21</f>
-        <v>58.5</v>
+        <f>'dane po Vs'!E22</f>
+        <v>25.5</v>
       </c>
       <c r="F21" s="11">
-        <f>'dane po Vs'!F21</f>
-        <v>4.7874999999999996</v>
+        <f>'dane po Vs'!F22</f>
+        <v>21.012499999999999</v>
       </c>
       <c r="G21" s="11">
-        <f>'dane po Vs'!G21</f>
-        <v>2.7875000000000001</v>
+        <f>'dane po Vs'!G22</f>
+        <v>6.4375</v>
       </c>
       <c r="H21" s="11">
-        <f>'dane po Vs'!H21</f>
-        <v>27.1</v>
+        <f>'dane po Vs'!H22</f>
+        <v>19.3</v>
       </c>
       <c r="I21" s="11">
-        <f>'dane po Vs'!I21</f>
-        <v>16.3</v>
+        <f>'dane po Vs'!I22</f>
+        <v>16.5</v>
       </c>
       <c r="J21" s="11">
-        <f>'dane po Vs'!J21</f>
-        <v>0</v>
+        <f>'dane po Vs'!J22</f>
+        <v>7</v>
       </c>
       <c r="K21" s="11">
-        <f>'dane po Vs'!K21</f>
-        <v>582</v>
+        <f>'dane po Vs'!K22</f>
+        <v>322</v>
       </c>
       <c r="L21">
-        <f>'dane po Vs'!L21</f>
-        <v>9.1</v>
+        <f>'dane po Vs'!L22</f>
+        <v>6.9</v>
       </c>
       <c r="M21">
-        <f>'dane po Vs'!M21</f>
-        <v>22.6</v>
+        <f>'dane po Vs'!M22</f>
+        <v>43.6</v>
       </c>
       <c r="N21">
-        <f>'dane po Vs'!N21</f>
-        <v>5.0999999999999996</v>
+        <f>'dane po Vs'!N22</f>
+        <v>1.8</v>
       </c>
       <c r="O21">
-        <f>'dane po Vs'!O21</f>
-        <v>430</v>
+        <f>'dane po Vs'!O22</f>
+        <v>4156</v>
       </c>
       <c r="P21">
-        <f>'dane po Vs'!P21</f>
-        <v>0.47</v>
+        <f>'dane po Vs'!P22</f>
+        <v>0.78</v>
       </c>
       <c r="Q21">
-        <f>'dane po Vs'!Q21</f>
-        <v>2.17</v>
+        <f>'dane po Vs'!Q22</f>
+        <v>2.74</v>
       </c>
       <c r="R21">
-        <f>'dane po Vs'!R21</f>
-        <v>78.03</v>
+        <f>'dane po Vs'!R22</f>
+        <v>10.83</v>
       </c>
       <c r="S21" s="12">
-        <f>'dane po Vs'!S21</f>
-        <v>0.34</v>
+        <f>'dane po Vs'!S22</f>
+        <v>0.2</v>
       </c>
       <c r="T21" s="11">
-        <f>'dane po Vs'!T21</f>
-        <v>11.8</v>
+        <f>'dane po Vs'!T22</f>
+        <v>21.6</v>
       </c>
       <c r="U21" s="11">
-        <f>'dane po Vs'!U21</f>
-        <v>20.6</v>
+        <f>'dane po Vs'!U22</f>
+        <v>34.4</v>
       </c>
       <c r="V21">
-        <f>'dane po Vs'!V21</f>
-        <v>101.7</v>
+        <f>'dane po Vs'!V22</f>
+        <v>329.4</v>
       </c>
       <c r="W21" s="9">
-        <f t="shared" si="4"/>
-        <v>10547.995447456353</v>
+        <f>((B21-$B$30)^2+(C21-$C$30)^2+(D21-$D$30)^2+(E21-$E$30)^2+(F21-$F$30)^2+(G21-$G$30)^2+(H21-$H$30)^2+(I21-$I$30)^2+(J21-$J$30)^2+(K21-$K$30)^2+(L21-$L$30)^2+(M21-$M$30)^2+(N21-$N$30)^2+(O21-$O$30)^2+(P21-$P$30)^2+(Q21-$Q$30)^2+(R21-$R$30)^2+(S21-$S$30)^2+(T21-$T$30)^2+(U21-$U$30)^2+(V21-$V$30)^2)^(0.5)</f>
+        <v>6797.9507725878584</v>
       </c>
       <c r="X21" s="9">
+        <f>1-(W21/$AD$3)</f>
+        <v>0.48503562840969394</v>
+      </c>
+      <c r="Y21" t="str">
         <f t="shared" si="1"/>
-        <v>0.20095893176511426</v>
-      </c>
-      <c r="Y21" t="str">
+        <v>Polska</v>
+      </c>
+      <c r="Z21" s="10">
         <f t="shared" si="2"/>
-        <v>Niemcy</v>
-      </c>
-      <c r="Z21" s="10">
-        <f t="shared" si="3"/>
-        <v>0.20095893176511426</v>
+        <v>0.48503562840969394</v>
       </c>
       <c r="AA21" s="13">
         <f t="shared" si="0"/>
-        <v>0.20095893176511426</v>
+        <v>0.48503562840969394</v>
       </c>
       <c r="AB21" t="s">
         <v>165</v>
@@ -19761,112 +19728,112 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>'dane po Vs'!A22</f>
-        <v>Polska</v>
+        <f>'dane po Vs'!A23</f>
+        <v>Portugalia</v>
       </c>
       <c r="B22">
-        <f>'dane po Vs'!B22</f>
-        <v>8</v>
+        <f>'dane po Vs'!B23</f>
+        <v>17</v>
       </c>
       <c r="C22" s="13">
-        <f>'dane po Vs'!C22</f>
-        <v>113.5</v>
+        <f>'dane po Vs'!C23</f>
+        <v>97.5</v>
       </c>
       <c r="D22" s="11">
-        <f>'dane po Vs'!D22</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D23</f>
+        <v>125</v>
       </c>
       <c r="E22" s="11">
-        <f>'dane po Vs'!E22</f>
-        <v>25.5</v>
+        <f>'dane po Vs'!E23</f>
+        <v>81.400000000000006</v>
       </c>
       <c r="F22" s="11">
-        <f>'dane po Vs'!F22</f>
-        <v>21.012499999999999</v>
+        <f>'dane po Vs'!F23</f>
+        <v>15.4</v>
       </c>
       <c r="G22" s="11">
-        <f>'dane po Vs'!G22</f>
-        <v>6.4375</v>
+        <f>'dane po Vs'!G23</f>
+        <v>7.2</v>
       </c>
       <c r="H22" s="11">
-        <f>'dane po Vs'!H22</f>
-        <v>19.3</v>
+        <f>'dane po Vs'!H23</f>
+        <v>27.5</v>
       </c>
       <c r="I22" s="11">
-        <f>'dane po Vs'!I22</f>
-        <v>16.5</v>
+        <f>'dane po Vs'!I23</f>
+        <v>21.2</v>
       </c>
       <c r="J22" s="11">
-        <f>'dane po Vs'!J22</f>
-        <v>7</v>
+        <f>'dane po Vs'!J23</f>
+        <v>9</v>
       </c>
       <c r="K22" s="11">
-        <f>'dane po Vs'!K22</f>
-        <v>322</v>
+        <f>'dane po Vs'!K23</f>
+        <v>471</v>
       </c>
       <c r="L22">
-        <f>'dane po Vs'!L22</f>
-        <v>6.9</v>
+        <f>'dane po Vs'!L23</f>
+        <v>21.9</v>
       </c>
       <c r="M22">
-        <f>'dane po Vs'!M22</f>
-        <v>43.6</v>
+        <f>'dane po Vs'!M23</f>
+        <v>45.7</v>
       </c>
       <c r="N22">
-        <f>'dane po Vs'!N22</f>
-        <v>1.8</v>
+        <f>'dane po Vs'!N23</f>
+        <v>6.3</v>
       </c>
       <c r="O22">
-        <f>'dane po Vs'!O22</f>
-        <v>4156</v>
+        <f>'dane po Vs'!O23</f>
+        <v>4332</v>
       </c>
       <c r="P22">
-        <f>'dane po Vs'!P22</f>
-        <v>0.78</v>
+        <f>'dane po Vs'!P23</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q22">
-        <f>'dane po Vs'!Q22</f>
+        <f>'dane po Vs'!Q23</f>
         <v>2.74</v>
       </c>
       <c r="R22">
-        <f>'dane po Vs'!R22</f>
-        <v>10.83</v>
+        <f>'dane po Vs'!R23</f>
+        <v>3.5</v>
       </c>
       <c r="S22" s="12">
-        <f>'dane po Vs'!S22</f>
-        <v>0.2</v>
+        <f>'dane po Vs'!S23</f>
+        <v>0.11</v>
       </c>
       <c r="T22" s="11">
-        <f>'dane po Vs'!T22</f>
-        <v>21.6</v>
+        <f>'dane po Vs'!T23</f>
+        <v>21.4</v>
       </c>
       <c r="U22" s="11">
-        <f>'dane po Vs'!U22</f>
-        <v>34.4</v>
+        <f>'dane po Vs'!U23</f>
+        <v>25</v>
       </c>
       <c r="V22">
-        <f>'dane po Vs'!V22</f>
-        <v>329.4</v>
+        <f>'dane po Vs'!V23</f>
+        <v>95.699999999999989</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" si="4"/>
-        <v>6797.9507725878584</v>
+        <f>((B22-$B$30)^2+(C22-$C$30)^2+(D22-$D$30)^2+(E22-$E$30)^2+(F22-$F$30)^2+(G22-$G$30)^2+(H22-$H$30)^2+(I22-$I$30)^2+(J22-$J$30)^2+(K22-$K$30)^2+(L22-$L$30)^2+(M22-$M$30)^2+(N22-$N$30)^2+(O22-$O$30)^2+(P22-$P$30)^2+(Q22-$Q$30)^2+(R22-$R$30)^2+(S22-$S$30)^2+(T22-$T$30)^2+(U22-$U$30)^2+(V22-$V$30)^2)^(0.5)</f>
+        <v>6630.0619897127026</v>
       </c>
       <c r="X22" s="9">
+        <f>1-(W22/$AD$3)</f>
+        <v>0.49775368778708684</v>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" si="1"/>
-        <v>0.48503562840969394</v>
-      </c>
-      <c r="Y22" t="str">
+        <v>Portugalia</v>
+      </c>
+      <c r="Z22" s="10">
         <f t="shared" si="2"/>
-        <v>Polska</v>
-      </c>
-      <c r="Z22" s="10">
-        <f t="shared" si="3"/>
-        <v>0.48503562840969394</v>
+        <v>0.49775368778708684</v>
       </c>
       <c r="AA22" s="13">
         <f t="shared" si="0"/>
-        <v>0.48503562840969394</v>
+        <v>0.49775368778708684</v>
       </c>
       <c r="AB22" t="s">
         <v>165</v>
@@ -19880,112 +19847,112 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>'dane po Vs'!A23</f>
-        <v>Portugalia</v>
+        <f>'dane po Vs'!A24</f>
+        <v>Rumunia</v>
       </c>
       <c r="B23">
-        <f>'dane po Vs'!B23</f>
-        <v>17</v>
+        <f>'dane po Vs'!B24</f>
+        <v>13</v>
       </c>
       <c r="C23" s="13">
-        <f>'dane po Vs'!C23</f>
-        <v>97.5</v>
+        <f>'dane po Vs'!C24</f>
+        <v>61.6</v>
       </c>
       <c r="D23" s="11">
-        <f>'dane po Vs'!D23</f>
-        <v>125</v>
+        <f>'dane po Vs'!D24</f>
+        <v>251</v>
       </c>
       <c r="E23" s="11">
-        <f>'dane po Vs'!E23</f>
-        <v>81.400000000000006</v>
+        <f>'dane po Vs'!E24</f>
+        <v>31.7</v>
       </c>
       <c r="F23" s="11">
-        <f>'dane po Vs'!F23</f>
-        <v>15.4</v>
+        <f>'dane po Vs'!F24</f>
+        <v>15</v>
       </c>
       <c r="G23" s="11">
-        <f>'dane po Vs'!G23</f>
-        <v>7.2</v>
+        <f>'dane po Vs'!G24</f>
+        <v>7.9</v>
       </c>
       <c r="H23" s="11">
-        <f>'dane po Vs'!H23</f>
-        <v>27.5</v>
+        <f>'dane po Vs'!H24</f>
+        <v>34.4</v>
       </c>
       <c r="I23" s="11">
-        <f>'dane po Vs'!I23</f>
-        <v>21.2</v>
+        <f>'dane po Vs'!I24</f>
+        <v>20.5</v>
       </c>
       <c r="J23" s="11">
-        <f>'dane po Vs'!J23</f>
-        <v>9</v>
+        <f>'dane po Vs'!J24</f>
+        <v>4</v>
       </c>
       <c r="K23" s="11">
-        <f>'dane po Vs'!K23</f>
-        <v>471</v>
+        <f>'dane po Vs'!K24</f>
+        <v>391</v>
       </c>
       <c r="L23">
-        <f>'dane po Vs'!L23</f>
-        <v>21.9</v>
+        <f>'dane po Vs'!L24</f>
+        <v>18.3</v>
       </c>
       <c r="M23">
-        <f>'dane po Vs'!M23</f>
-        <v>45.7</v>
+        <f>'dane po Vs'!M24</f>
+        <v>30.5</v>
       </c>
       <c r="N23">
-        <f>'dane po Vs'!N23</f>
-        <v>6.3</v>
+        <f>'dane po Vs'!N24</f>
+        <v>1</v>
       </c>
       <c r="O23">
-        <f>'dane po Vs'!O23</f>
-        <v>4332</v>
+        <f>'dane po Vs'!O24</f>
+        <v>2869</v>
       </c>
       <c r="P23">
-        <f>'dane po Vs'!P23</f>
-        <v>0.28999999999999998</v>
+        <f>'dane po Vs'!P24</f>
+        <v>0.62</v>
       </c>
       <c r="Q23">
-        <f>'dane po Vs'!Q23</f>
-        <v>2.74</v>
+        <f>'dane po Vs'!Q24</f>
+        <v>1.99</v>
       </c>
       <c r="R23">
-        <f>'dane po Vs'!R23</f>
-        <v>3.5</v>
+        <f>'dane po Vs'!R24</f>
+        <v>2</v>
       </c>
       <c r="S23" s="12">
-        <f>'dane po Vs'!S23</f>
-        <v>0.11</v>
+        <f>'dane po Vs'!S24</f>
+        <v>0.17</v>
       </c>
       <c r="T23" s="11">
-        <f>'dane po Vs'!T23</f>
-        <v>21.4</v>
+        <f>'dane po Vs'!T24</f>
+        <v>19.3</v>
       </c>
       <c r="U23" s="11">
-        <f>'dane po Vs'!U23</f>
-        <v>25</v>
+        <f>'dane po Vs'!U24</f>
+        <v>47</v>
       </c>
       <c r="V23">
-        <f>'dane po Vs'!V23</f>
-        <v>95.699999999999989</v>
+        <f>'dane po Vs'!V24</f>
+        <v>239.1</v>
       </c>
       <c r="W23" s="9">
-        <f t="shared" si="4"/>
-        <v>6630.0619897127026</v>
+        <f>((B23-$B$30)^2+(C23-$C$30)^2+(D23-$D$30)^2+(E23-$E$30)^2+(F23-$F$30)^2+(G23-$G$30)^2+(H23-$H$30)^2+(I23-$I$30)^2+(J23-$J$30)^2+(K23-$K$30)^2+(L23-$L$30)^2+(M23-$M$30)^2+(N23-$N$30)^2+(O23-$O$30)^2+(P23-$P$30)^2+(Q23-$Q$30)^2+(R23-$R$30)^2+(S23-$S$30)^2+(T23-$T$30)^2+(U23-$U$30)^2+(V23-$V$30)^2)^(0.5)</f>
+        <v>8087.2616146172577</v>
       </c>
       <c r="X23" s="9">
+        <f>1-(W23/$AD$3)</f>
+        <v>0.38736661464931865</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" si="1"/>
-        <v>0.49775368778708684</v>
-      </c>
-      <c r="Y23" t="str">
+        <v>Rumunia</v>
+      </c>
+      <c r="Z23" s="10">
         <f t="shared" si="2"/>
-        <v>Portugalia</v>
-      </c>
-      <c r="Z23" s="10">
-        <f t="shared" si="3"/>
-        <v>0.49775368778708684</v>
+        <v>0.38736661464931865</v>
       </c>
       <c r="AA23" s="13">
         <f t="shared" si="0"/>
-        <v>0.49775368778708684</v>
+        <v>0.38736661464931865</v>
       </c>
       <c r="AB23" t="s">
         <v>165</v>
@@ -19999,112 +19966,112 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>'dane po Vs'!A24</f>
-        <v>Rumunia</v>
+        <f>'dane po Vs'!A25</f>
+        <v>Słowacja</v>
       </c>
       <c r="B24">
-        <f>'dane po Vs'!B24</f>
-        <v>13</v>
+        <f>'dane po Vs'!B25</f>
+        <v>12</v>
       </c>
       <c r="C24" s="13">
-        <f>'dane po Vs'!C24</f>
-        <v>61.6</v>
+        <f>'dane po Vs'!C25</f>
+        <v>110.7</v>
       </c>
       <c r="D24" s="11">
-        <f>'dane po Vs'!D24</f>
-        <v>251</v>
+        <f>'dane po Vs'!D25</f>
+        <v>1</v>
       </c>
       <c r="E24" s="11">
-        <f>'dane po Vs'!E24</f>
-        <v>31.7</v>
+        <f>'dane po Vs'!E25</f>
+        <v>68.3</v>
       </c>
       <c r="F24" s="11">
-        <f>'dane po Vs'!F24</f>
-        <v>15</v>
+        <f>'dane po Vs'!F25</f>
+        <v>12.15</v>
       </c>
       <c r="G24" s="11">
-        <f>'dane po Vs'!G24</f>
-        <v>7.9</v>
+        <f>'dane po Vs'!G25</f>
+        <v>6.6875</v>
       </c>
       <c r="H24" s="11">
-        <f>'dane po Vs'!H24</f>
-        <v>34.4</v>
+        <f>'dane po Vs'!H25</f>
+        <v>18.899999999999999</v>
       </c>
       <c r="I24" s="11">
-        <f>'dane po Vs'!I24</f>
-        <v>20.5</v>
+        <f>'dane po Vs'!I25</f>
+        <v>14</v>
       </c>
       <c r="J24" s="11">
-        <f>'dane po Vs'!J24</f>
-        <v>4</v>
+        <f>'dane po Vs'!J25</f>
+        <v>-1</v>
       </c>
       <c r="K24" s="11">
-        <f>'dane po Vs'!K24</f>
-        <v>391</v>
+        <f>'dane po Vs'!K25</f>
+        <v>294</v>
       </c>
       <c r="L24">
-        <f>'dane po Vs'!L24</f>
-        <v>18.3</v>
+        <f>'dane po Vs'!L25</f>
+        <v>7.8</v>
       </c>
       <c r="M24">
-        <f>'dane po Vs'!M24</f>
-        <v>30.5</v>
+        <f>'dane po Vs'!M25</f>
+        <v>33.6</v>
       </c>
       <c r="N24">
-        <f>'dane po Vs'!N24</f>
-        <v>1</v>
+        <f>'dane po Vs'!N25</f>
+        <v>6.1</v>
       </c>
       <c r="O24">
-        <f>'dane po Vs'!O24</f>
-        <v>2869</v>
+        <f>'dane po Vs'!O25</f>
+        <v>580</v>
       </c>
       <c r="P24">
-        <f>'dane po Vs'!P24</f>
-        <v>0.62</v>
+        <f>'dane po Vs'!P25</f>
+        <v>0.82</v>
       </c>
       <c r="Q24">
-        <f>'dane po Vs'!Q24</f>
-        <v>1.99</v>
+        <f>'dane po Vs'!Q25</f>
+        <v>2.0699999999999998</v>
       </c>
       <c r="R24">
-        <f>'dane po Vs'!R24</f>
-        <v>2</v>
+        <f>'dane po Vs'!R25</f>
+        <v>0</v>
       </c>
       <c r="S24" s="12">
-        <f>'dane po Vs'!S24</f>
-        <v>0.17</v>
+        <f>'dane po Vs'!S25</f>
+        <v>0.16</v>
       </c>
       <c r="T24" s="11">
-        <f>'dane po Vs'!T24</f>
-        <v>19.3</v>
+        <f>'dane po Vs'!T25</f>
+        <v>20.6</v>
       </c>
       <c r="U24" s="11">
-        <f>'dane po Vs'!U24</f>
-        <v>47</v>
+        <f>'dane po Vs'!U25</f>
+        <v>21.4</v>
       </c>
       <c r="V24">
-        <f>'dane po Vs'!V24</f>
-        <v>239.1</v>
+        <f>'dane po Vs'!V25</f>
+        <v>144.01113543840199</v>
       </c>
       <c r="W24" s="9">
-        <f t="shared" si="4"/>
-        <v>8087.2616146172577</v>
+        <f>((B24-$B$30)^2+(C24-$C$30)^2+(D24-$D$30)^2+(E24-$E$30)^2+(F24-$F$30)^2+(G24-$G$30)^2+(H24-$H$30)^2+(I24-$I$30)^2+(J24-$J$30)^2+(K24-$K$30)^2+(L24-$L$30)^2+(M24-$M$30)^2+(N24-$N$30)^2+(O24-$O$30)^2+(P24-$P$30)^2+(Q24-$Q$30)^2+(R24-$R$30)^2+(S24-$S$30)^2+(T24-$T$30)^2+(U24-$U$30)^2+(V24-$V$30)^2)^(0.5)</f>
+        <v>10372.9420719149</v>
       </c>
       <c r="X24" s="9">
+        <f>1-(W24/$AD$3)</f>
+        <v>0.21421972969468628</v>
+      </c>
+      <c r="Y24" t="str">
         <f t="shared" si="1"/>
-        <v>0.38736661464931865</v>
-      </c>
-      <c r="Y24" t="str">
+        <v>Słowacja</v>
+      </c>
+      <c r="Z24" s="10">
         <f t="shared" si="2"/>
-        <v>Rumunia</v>
-      </c>
-      <c r="Z24" s="10">
-        <f t="shared" si="3"/>
-        <v>0.38736661464931865</v>
+        <v>0.21421972969468628</v>
       </c>
       <c r="AA24" s="13">
         <f t="shared" si="0"/>
-        <v>0.38736661464931865</v>
+        <v>0.21421972969468628</v>
       </c>
       <c r="AB24" t="s">
         <v>165</v>
@@ -20118,112 +20085,112 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>'dane po Vs'!A25</f>
-        <v>Słowacja</v>
+        <f>'dane po Vs'!A26</f>
+        <v>Słowenia</v>
       </c>
       <c r="B25">
-        <f>'dane po Vs'!B25</f>
-        <v>12</v>
+        <f>'dane po Vs'!B26</f>
+        <v>31</v>
       </c>
       <c r="C25" s="13">
-        <f>'dane po Vs'!C25</f>
-        <v>110.7</v>
+        <f>'dane po Vs'!C26</f>
+        <v>96.5</v>
       </c>
       <c r="D25" s="11">
-        <f>'dane po Vs'!D25</f>
+        <f>'dane po Vs'!D26</f>
         <v>1</v>
       </c>
       <c r="E25" s="11">
-        <f>'dane po Vs'!E25</f>
-        <v>68.3</v>
+        <f>'dane po Vs'!E26</f>
+        <v>52.5</v>
       </c>
       <c r="F25" s="11">
-        <f>'dane po Vs'!F25</f>
-        <v>12.15</v>
+        <f>'dane po Vs'!F26</f>
+        <v>5.0375000000000005</v>
       </c>
       <c r="G25" s="11">
-        <f>'dane po Vs'!G25</f>
-        <v>6.6875</v>
+        <f>'dane po Vs'!G26</f>
+        <v>6.8875000000000002</v>
       </c>
       <c r="H25" s="11">
-        <f>'dane po Vs'!H25</f>
-        <v>18.899999999999999</v>
+        <f>'dane po Vs'!H26</f>
+        <v>18.7</v>
       </c>
       <c r="I25" s="11">
-        <f>'dane po Vs'!I25</f>
-        <v>14</v>
+        <f>'dane po Vs'!I26</f>
+        <v>23.7</v>
       </c>
       <c r="J25" s="11">
-        <f>'dane po Vs'!J25</f>
-        <v>-1</v>
+        <f>'dane po Vs'!J26</f>
+        <v>7</v>
       </c>
       <c r="K25" s="11">
-        <f>'dane po Vs'!K25</f>
-        <v>294</v>
+        <f>'dane po Vs'!K26</f>
+        <v>525</v>
       </c>
       <c r="L25">
-        <f>'dane po Vs'!L25</f>
-        <v>7.8</v>
+        <f>'dane po Vs'!L26</f>
+        <v>15.6</v>
       </c>
       <c r="M25">
-        <f>'dane po Vs'!M25</f>
-        <v>33.6</v>
+        <f>'dane po Vs'!M26</f>
+        <v>4.5</v>
       </c>
       <c r="N25">
-        <f>'dane po Vs'!N25</f>
-        <v>6.1</v>
+        <f>'dane po Vs'!N26</f>
+        <v>5.9</v>
       </c>
       <c r="O25">
-        <f>'dane po Vs'!O25</f>
-        <v>580</v>
+        <f>'dane po Vs'!O26</f>
+        <v>463</v>
       </c>
       <c r="P25">
-        <f>'dane po Vs'!P25</f>
-        <v>0.82</v>
+        <f>'dane po Vs'!P26</f>
+        <v>0.68</v>
       </c>
       <c r="Q25">
-        <f>'dane po Vs'!Q25</f>
-        <v>2.0699999999999998</v>
+        <f>'dane po Vs'!Q26</f>
+        <v>2.95</v>
       </c>
       <c r="R25">
-        <f>'dane po Vs'!R25</f>
+        <f>'dane po Vs'!R26</f>
         <v>0</v>
       </c>
       <c r="S25" s="12">
-        <f>'dane po Vs'!S25</f>
-        <v>0.16</v>
+        <f>'dane po Vs'!S26</f>
+        <v>0.35</v>
       </c>
       <c r="T25" s="11">
-        <f>'dane po Vs'!T25</f>
-        <v>20.6</v>
+        <f>'dane po Vs'!T26</f>
+        <v>10.1</v>
       </c>
       <c r="U25" s="11">
-        <f>'dane po Vs'!U25</f>
-        <v>21.4</v>
+        <f>'dane po Vs'!U26</f>
+        <v>17.100000000000001</v>
       </c>
       <c r="V25">
-        <f>'dane po Vs'!V25</f>
-        <v>144.01113543840199</v>
+        <f>'dane po Vs'!V26</f>
+        <v>23.599999999999998</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" si="4"/>
-        <v>10372.9420719149</v>
+        <f>((B25-$B$30)^2+(C25-$C$30)^2+(D25-$D$30)^2+(E25-$E$30)^2+(F25-$F$30)^2+(G25-$G$30)^2+(H25-$H$30)^2+(I25-$I$30)^2+(J25-$J$30)^2+(K25-$K$30)^2+(L25-$L$30)^2+(M25-$M$30)^2+(N25-$N$30)^2+(O25-$O$30)^2+(P25-$P$30)^2+(Q25-$Q$30)^2+(R25-$R$30)^2+(S25-$S$30)^2+(T25-$T$30)^2+(U25-$U$30)^2+(V25-$V$30)^2)^(0.5)</f>
+        <v>10496.750592512426</v>
       </c>
       <c r="X25" s="9">
+        <f>1-(W25/$AD$3)</f>
+        <v>0.20484087728167311</v>
+      </c>
+      <c r="Y25" t="str">
         <f t="shared" si="1"/>
-        <v>0.21421972969468628</v>
-      </c>
-      <c r="Y25" t="str">
+        <v>Słowenia</v>
+      </c>
+      <c r="Z25" s="10">
         <f t="shared" si="2"/>
-        <v>Słowacja</v>
-      </c>
-      <c r="Z25" s="10">
-        <f t="shared" si="3"/>
-        <v>0.21421972969468628</v>
+        <v>0.20484087728167311</v>
       </c>
       <c r="AA25" s="13">
         <f t="shared" si="0"/>
-        <v>0.21421972969468628</v>
+        <v>0.20484087728167311</v>
       </c>
       <c r="AB25" t="s">
         <v>165</v>
@@ -20237,112 +20204,112 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>'dane po Vs'!A26</f>
-        <v>Słowenia</v>
+        <f>'dane po Vs'!A27</f>
+        <v>Szwecja</v>
       </c>
       <c r="B26">
-        <f>'dane po Vs'!B26</f>
-        <v>31</v>
+        <f>'dane po Vs'!B27</f>
+        <v>14</v>
       </c>
       <c r="C26" s="13">
-        <f>'dane po Vs'!C26</f>
-        <v>96.5</v>
+        <f>'dane po Vs'!C27</f>
+        <v>105.7</v>
       </c>
       <c r="D26" s="11">
-        <f>'dane po Vs'!D26</f>
+        <f>'dane po Vs'!D27</f>
+        <v>128</v>
+      </c>
+      <c r="E26" s="11">
+        <f>'dane po Vs'!E27</f>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F26" s="11">
+        <f>'dane po Vs'!F27</f>
+        <v>2.6374999999999997</v>
+      </c>
+      <c r="G26" s="11">
+        <f>'dane po Vs'!G27</f>
+        <v>4.3624999999999998</v>
+      </c>
+      <c r="H26" s="11">
+        <f>'dane po Vs'!H27</f>
+        <v>12.7</v>
+      </c>
+      <c r="I26" s="11">
+        <f>'dane po Vs'!I27</f>
+        <v>22.4</v>
+      </c>
+      <c r="J26" s="11">
+        <f>'dane po Vs'!J27</f>
         <v>1</v>
       </c>
-      <c r="E26" s="11">
-        <f>'dane po Vs'!E26</f>
-        <v>52.5</v>
-      </c>
-      <c r="F26" s="11">
-        <f>'dane po Vs'!F26</f>
-        <v>5.0375000000000005</v>
-      </c>
-      <c r="G26" s="11">
-        <f>'dane po Vs'!G26</f>
-        <v>6.8875000000000002</v>
-      </c>
-      <c r="H26" s="11">
-        <f>'dane po Vs'!H26</f>
-        <v>18.7</v>
-      </c>
-      <c r="I26" s="11">
-        <f>'dane po Vs'!I26</f>
-        <v>23.7</v>
-      </c>
-      <c r="J26" s="11">
-        <f>'dane po Vs'!J26</f>
-        <v>7</v>
-      </c>
       <c r="K26" s="11">
-        <f>'dane po Vs'!K26</f>
-        <v>525</v>
+        <f>'dane po Vs'!K27</f>
+        <v>486</v>
       </c>
       <c r="L26">
-        <f>'dane po Vs'!L26</f>
-        <v>15.6</v>
+        <f>'dane po Vs'!L27</f>
+        <v>44.2</v>
       </c>
       <c r="M26">
-        <f>'dane po Vs'!M26</f>
-        <v>4.5</v>
+        <f>'dane po Vs'!M27</f>
+        <v>5.5</v>
       </c>
       <c r="N26">
-        <f>'dane po Vs'!N26</f>
-        <v>5.9</v>
+        <f>'dane po Vs'!N27</f>
+        <v>9.9</v>
       </c>
       <c r="O26">
-        <f>'dane po Vs'!O26</f>
-        <v>463</v>
+        <f>'dane po Vs'!O27</f>
+        <v>1659</v>
       </c>
       <c r="P26">
-        <f>'dane po Vs'!P26</f>
-        <v>0.68</v>
+        <f>'dane po Vs'!P27</f>
+        <v>0.34999999999999992</v>
       </c>
       <c r="Q26">
-        <f>'dane po Vs'!Q26</f>
-        <v>2.95</v>
+        <f>'dane po Vs'!Q27</f>
+        <v>2.52</v>
       </c>
       <c r="R26">
-        <f>'dane po Vs'!R26</f>
-        <v>0</v>
+        <f>'dane po Vs'!R27</f>
+        <v>0.17</v>
       </c>
       <c r="S26" s="12">
-        <f>'dane po Vs'!S26</f>
-        <v>0.35</v>
+        <f>'dane po Vs'!S27</f>
+        <v>0.16</v>
       </c>
       <c r="T26" s="11">
-        <f>'dane po Vs'!T26</f>
-        <v>10.1</v>
+        <f>'dane po Vs'!T27</f>
+        <v>19.2</v>
       </c>
       <c r="U26" s="11">
-        <f>'dane po Vs'!U26</f>
-        <v>17.100000000000001</v>
+        <f>'dane po Vs'!U27</f>
+        <v>13.9</v>
       </c>
       <c r="V26">
-        <f>'dane po Vs'!V26</f>
-        <v>23.599999999999998</v>
+        <f>'dane po Vs'!V27</f>
+        <v>71.7</v>
       </c>
       <c r="W26" s="9">
-        <f t="shared" si="4"/>
-        <v>10496.750592512426</v>
+        <f>((B26-$B$30)^2+(C26-$C$30)^2+(D26-$D$30)^2+(E26-$E$30)^2+(F26-$F$30)^2+(G26-$G$30)^2+(H26-$H$30)^2+(I26-$I$30)^2+(J26-$J$30)^2+(K26-$K$30)^2+(L26-$L$30)^2+(M26-$M$30)^2+(N26-$N$30)^2+(O26-$O$30)^2+(P26-$P$30)^2+(Q26-$Q$30)^2+(R26-$R$30)^2+(S26-$S$30)^2+(T26-$T$30)^2+(U26-$U$30)^2+(V26-$V$30)^2)^(0.5)</f>
+        <v>9300.1657653653801</v>
       </c>
       <c r="X26" s="9">
+        <f>1-(W26/$AD$3)</f>
+        <v>0.29548562805730982</v>
+      </c>
+      <c r="Y26" t="str">
         <f t="shared" si="1"/>
-        <v>0.20484087728167311</v>
-      </c>
-      <c r="Y26" t="str">
+        <v>Szwecja</v>
+      </c>
+      <c r="Z26" s="10">
         <f t="shared" si="2"/>
-        <v>Słowenia</v>
-      </c>
-      <c r="Z26" s="10">
-        <f t="shared" si="3"/>
-        <v>0.20484087728167311</v>
+        <v>0.29548562805730982</v>
       </c>
       <c r="AA26" s="13">
         <f t="shared" si="0"/>
-        <v>0.20484087728167311</v>
+        <v>0.29548562805730982</v>
       </c>
       <c r="AB26" t="s">
         <v>165</v>
@@ -20356,112 +20323,112 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>'dane po Vs'!A27</f>
-        <v>Szwecja</v>
+        <f>'dane po Vs'!A28</f>
+        <v>Węgry</v>
       </c>
       <c r="B27">
-        <f>'dane po Vs'!B27</f>
-        <v>14</v>
+        <f>'dane po Vs'!B28</f>
+        <v>15</v>
       </c>
       <c r="C27" s="13">
-        <f>'dane po Vs'!C27</f>
-        <v>105.7</v>
+        <f>'dane po Vs'!C28</f>
+        <v>131.4</v>
       </c>
       <c r="D27" s="11">
-        <f>'dane po Vs'!D27</f>
-        <v>128</v>
+        <f>'dane po Vs'!D28</f>
+        <v>609</v>
       </c>
       <c r="E27" s="11">
-        <f>'dane po Vs'!E27</f>
-        <v>35.799999999999997</v>
+        <f>'dane po Vs'!E28</f>
+        <v>60</v>
       </c>
       <c r="F27" s="11">
-        <f>'dane po Vs'!F27</f>
-        <v>2.6374999999999997</v>
+        <f>'dane po Vs'!F28</f>
+        <v>3.5</v>
       </c>
       <c r="G27" s="11">
-        <f>'dane po Vs'!G27</f>
-        <v>4.3624999999999998</v>
+        <f>'dane po Vs'!G28</f>
+        <v>5.7</v>
       </c>
       <c r="H27" s="11">
-        <f>'dane po Vs'!H27</f>
-        <v>12.7</v>
+        <f>'dane po Vs'!H28</f>
+        <v>14.8</v>
       </c>
       <c r="I27" s="11">
-        <f>'dane po Vs'!I27</f>
-        <v>22.4</v>
+        <f>'dane po Vs'!I28</f>
+        <v>11.8</v>
       </c>
       <c r="J27" s="11">
-        <f>'dane po Vs'!J27</f>
-        <v>1</v>
+        <f>'dane po Vs'!J28</f>
+        <v>3</v>
       </c>
       <c r="K27" s="11">
-        <f>'dane po Vs'!K27</f>
-        <v>486</v>
+        <f>'dane po Vs'!K28</f>
+        <v>457</v>
       </c>
       <c r="L27">
-        <f>'dane po Vs'!L27</f>
-        <v>44.2</v>
+        <f>'dane po Vs'!L28</f>
+        <v>8.6</v>
       </c>
       <c r="M27">
-        <f>'dane po Vs'!M27</f>
-        <v>5.5</v>
+        <f>'dane po Vs'!M28</f>
+        <v>74.2</v>
       </c>
       <c r="N27">
-        <f>'dane po Vs'!N27</f>
-        <v>9.9</v>
+        <f>'dane po Vs'!N28</f>
+        <v>1.8</v>
       </c>
       <c r="O27">
-        <f>'dane po Vs'!O27</f>
-        <v>1659</v>
+        <f>'dane po Vs'!O28</f>
+        <v>829</v>
       </c>
       <c r="P27">
-        <f>'dane po Vs'!P27</f>
-        <v>0.34999999999999992</v>
+        <f>'dane po Vs'!P28</f>
+        <v>0.51</v>
       </c>
       <c r="Q27">
-        <f>'dane po Vs'!Q27</f>
-        <v>2.52</v>
+        <f>'dane po Vs'!Q28</f>
+        <v>2.76</v>
       </c>
       <c r="R27">
-        <f>'dane po Vs'!R27</f>
-        <v>0.17</v>
+        <f>'dane po Vs'!R28</f>
+        <v>1.3</v>
       </c>
       <c r="S27" s="12">
-        <f>'dane po Vs'!S27</f>
-        <v>0.16</v>
+        <f>'dane po Vs'!S28</f>
+        <v>0.23</v>
       </c>
       <c r="T27" s="11">
-        <f>'dane po Vs'!T27</f>
-        <v>19.2</v>
+        <f>'dane po Vs'!T28</f>
+        <v>18.100000000000001</v>
       </c>
       <c r="U27" s="11">
-        <f>'dane po Vs'!U27</f>
-        <v>13.9</v>
+        <f>'dane po Vs'!U28</f>
+        <v>29.4</v>
       </c>
       <c r="V27">
-        <f>'dane po Vs'!V27</f>
-        <v>71.7</v>
+        <f>'dane po Vs'!V28</f>
+        <v>144.12425003756678</v>
       </c>
       <c r="W27" s="9">
-        <f t="shared" si="4"/>
-        <v>9300.1657653653801</v>
+        <f>((B27-$B$30)^2+(C27-$C$30)^2+(D27-$D$30)^2+(E27-$E$30)^2+(F27-$F$30)^2+(G27-$G$30)^2+(H27-$H$30)^2+(I27-$I$30)^2+(J27-$J$30)^2+(K27-$K$30)^2+(L27-$L$30)^2+(M27-$M$30)^2+(N27-$N$30)^2+(O27-$O$30)^2+(P27-$P$30)^2+(Q27-$Q$30)^2+(R27-$R$30)^2+(S27-$S$30)^2+(T27-$T$30)^2+(U27-$U$30)^2+(V27-$V$30)^2)^(0.5)</f>
+        <v>10143.029155454027</v>
       </c>
       <c r="X27" s="9">
+        <f>1-(W27/$AD$3)</f>
+        <v>0.23163629602570379</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="1"/>
-        <v>0.29548562805730982</v>
-      </c>
-      <c r="Y27" t="str">
+        <v>Węgry</v>
+      </c>
+      <c r="Z27" s="10">
         <f t="shared" si="2"/>
-        <v>Szwecja</v>
-      </c>
-      <c r="Z27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.29548562805730982</v>
+        <v>0.23163629602570379</v>
       </c>
       <c r="AA27" s="13">
         <f t="shared" si="0"/>
-        <v>0.29548562805730982</v>
+        <v>0.23163629602570379</v>
       </c>
       <c r="AB27" t="s">
         <v>165</v>
@@ -20475,112 +20442,112 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>'dane po Vs'!A28</f>
-        <v>Węgry</v>
+        <f>'dane po Vs'!A29</f>
+        <v>Wielka Brytania</v>
       </c>
       <c r="B28">
-        <f>'dane po Vs'!B28</f>
-        <v>15</v>
+        <f>'dane po Vs'!B29</f>
+        <v>7</v>
       </c>
       <c r="C28" s="13">
-        <f>'dane po Vs'!C28</f>
-        <v>131.4</v>
+        <f>'dane po Vs'!C29</f>
+        <v>124.3</v>
       </c>
       <c r="D28" s="11">
-        <f>'dane po Vs'!D28</f>
-        <v>609</v>
+        <f>'dane po Vs'!D29</f>
+        <v>231.76190476190473</v>
       </c>
       <c r="E28" s="11">
-        <f>'dane po Vs'!E28</f>
-        <v>60</v>
+        <f>'dane po Vs'!E29</f>
+        <v>20.5</v>
       </c>
       <c r="F28" s="11">
-        <f>'dane po Vs'!F28</f>
-        <v>3.5</v>
+        <f>'dane po Vs'!F29</f>
+        <v>9.6</v>
       </c>
       <c r="G28" s="11">
-        <f>'dane po Vs'!G28</f>
-        <v>5.7</v>
+        <f>'dane po Vs'!G29</f>
+        <v>2.6</v>
       </c>
       <c r="H28" s="11">
-        <f>'dane po Vs'!H28</f>
-        <v>14.8</v>
+        <f>'dane po Vs'!H29</f>
+        <v>19.899999999999999</v>
       </c>
       <c r="I28" s="11">
-        <f>'dane po Vs'!I28</f>
-        <v>11.8</v>
+        <f>'dane po Vs'!I29</f>
+        <v>11.7</v>
       </c>
       <c r="J28" s="11">
-        <f>'dane po Vs'!J28</f>
-        <v>3</v>
+        <f>'dane po Vs'!J29</f>
+        <v>-0.54545454545454541</v>
       </c>
       <c r="K28" s="11">
-        <f>'dane po Vs'!K28</f>
-        <v>457</v>
+        <f>'dane po Vs'!K29</f>
+        <v>567</v>
       </c>
       <c r="L28">
-        <f>'dane po Vs'!L28</f>
-        <v>8.6</v>
+        <f>'dane po Vs'!L29</f>
+        <v>1.8</v>
       </c>
       <c r="M28">
-        <f>'dane po Vs'!M28</f>
-        <v>74.2</v>
+        <f>'dane po Vs'!M29</f>
+        <v>93.8</v>
       </c>
       <c r="N28">
-        <f>'dane po Vs'!N28</f>
-        <v>1.8</v>
+        <f>'dane po Vs'!N29</f>
+        <v>3.7</v>
       </c>
       <c r="O28">
-        <f>'dane po Vs'!O28</f>
-        <v>829</v>
+        <f>'dane po Vs'!O29</f>
+        <v>6114</v>
       </c>
       <c r="P28">
-        <f>'dane po Vs'!P28</f>
-        <v>0.51</v>
+        <f>'dane po Vs'!P29</f>
+        <v>0.31</v>
       </c>
       <c r="Q28">
-        <f>'dane po Vs'!Q28</f>
-        <v>2.76</v>
+        <f>'dane po Vs'!Q29</f>
+        <v>2.27</v>
       </c>
       <c r="R28">
-        <f>'dane po Vs'!R28</f>
-        <v>1.3</v>
+        <f>'dane po Vs'!R29</f>
+        <v>11.5</v>
       </c>
       <c r="S28" s="12">
-        <f>'dane po Vs'!S28</f>
-        <v>0.23</v>
+        <f>'dane po Vs'!S29</f>
+        <v>0.15</v>
       </c>
       <c r="T28" s="11">
-        <f>'dane po Vs'!T28</f>
-        <v>18.100000000000001</v>
+        <f>'dane po Vs'!T29</f>
+        <v>14.3</v>
       </c>
       <c r="U28" s="11">
-        <f>'dane po Vs'!U28</f>
-        <v>29.4</v>
+        <f>'dane po Vs'!U29</f>
+        <v>22.6</v>
       </c>
       <c r="V28">
-        <f>'dane po Vs'!V28</f>
-        <v>144.12425003756678</v>
+        <f>'dane po Vs'!V29</f>
+        <v>325.20000000000005</v>
       </c>
       <c r="W28" s="9">
-        <f t="shared" si="4"/>
-        <v>10143.029155454027</v>
+        <f>((B28-$B$30)^2+(C28-$C$30)^2+(D28-$D$30)^2+(E28-$E$30)^2+(F28-$F$30)^2+(G28-$G$30)^2+(H28-$H$30)^2+(I28-$I$30)^2+(J28-$J$30)^2+(K28-$K$30)^2+(L28-$L$30)^2+(M28-$M$30)^2+(N28-$N$30)^2+(O28-$O$30)^2+(P28-$P$30)^2+(Q28-$Q$30)^2+(R28-$R$30)^2+(S28-$S$30)^2+(T28-$T$30)^2+(U28-$U$30)^2+(V28-$V$30)^2)^(0.5)</f>
+        <v>4849.1800712441027</v>
       </c>
       <c r="X28" s="9">
+        <f>1-(W28/$AD$3)</f>
+        <v>0.63266062793716982</v>
+      </c>
+      <c r="Y28" t="str">
         <f t="shared" si="1"/>
-        <v>0.23163629602570379</v>
-      </c>
-      <c r="Y28" t="str">
+        <v>Wielka Brytania</v>
+      </c>
+      <c r="Z28" s="10">
         <f t="shared" si="2"/>
-        <v>Węgry</v>
-      </c>
-      <c r="Z28" s="10">
-        <f t="shared" si="3"/>
-        <v>0.23163629602570379</v>
+        <v>0.63266062793716982</v>
       </c>
       <c r="AA28" s="13">
         <f t="shared" si="0"/>
-        <v>0.23163629602570379</v>
+        <v>0.63266062793716982</v>
       </c>
       <c r="AB28" t="s">
         <v>165</v>
@@ -20594,112 +20561,112 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>'dane po Vs'!A29</f>
-        <v>Wielka Brytania</v>
+        <f>'dane po Vs'!A30</f>
+        <v>Włochy</v>
       </c>
       <c r="B29">
-        <f>'dane po Vs'!B29</f>
-        <v>7</v>
+        <f>'dane po Vs'!B30</f>
+        <v>14</v>
       </c>
       <c r="C29" s="13">
-        <f>'dane po Vs'!C29</f>
-        <v>124.3</v>
+        <f>'dane po Vs'!C30</f>
+        <v>123.6</v>
       </c>
       <c r="D29" s="11">
-        <f>'dane po Vs'!D29</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D30</f>
+        <v>236</v>
       </c>
       <c r="E29" s="11">
-        <f>'dane po Vs'!E29</f>
-        <v>20.5</v>
+        <f>'dane po Vs'!E30</f>
+        <v>83</v>
       </c>
       <c r="F29" s="11">
-        <f>'dane po Vs'!F29</f>
-        <v>9.6</v>
+        <f>'dane po Vs'!F30</f>
+        <v>5.9</v>
       </c>
       <c r="G29" s="11">
-        <f>'dane po Vs'!G29</f>
-        <v>2.6</v>
+        <f>'dane po Vs'!G30</f>
+        <v>3.9</v>
       </c>
       <c r="H29" s="11">
-        <f>'dane po Vs'!H29</f>
-        <v>19.899999999999999</v>
+        <f>'dane po Vs'!H30</f>
+        <v>25.2</v>
       </c>
       <c r="I29" s="11">
-        <f>'dane po Vs'!I29</f>
-        <v>11.7</v>
+        <f>'dane po Vs'!I30</f>
+        <v>14.2</v>
       </c>
       <c r="J29" s="11">
-        <f>'dane po Vs'!J29</f>
-        <v>-0.54545454545454541</v>
+        <f>'dane po Vs'!J30</f>
+        <v>2</v>
       </c>
       <c r="K29" s="11">
-        <f>'dane po Vs'!K29</f>
-        <v>567</v>
+        <f>'dane po Vs'!K30</f>
+        <v>557</v>
       </c>
       <c r="L29">
-        <f>'dane po Vs'!L29</f>
-        <v>1.8</v>
+        <f>'dane po Vs'!L30</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M29">
-        <f>'dane po Vs'!M29</f>
-        <v>93.8</v>
+        <f>'dane po Vs'!M30</f>
+        <v>35.9</v>
       </c>
       <c r="N29">
-        <f>'dane po Vs'!N29</f>
-        <v>3.7</v>
+        <f>'dane po Vs'!N30</f>
+        <v>7.9</v>
       </c>
       <c r="O29">
-        <f>'dane po Vs'!O29</f>
-        <v>6114</v>
+        <f>'dane po Vs'!O30</f>
+        <v>1977</v>
       </c>
       <c r="P29">
-        <f>'dane po Vs'!P29</f>
-        <v>0.31</v>
+        <f>'dane po Vs'!P30</f>
+        <v>0.82</v>
       </c>
       <c r="Q29">
-        <f>'dane po Vs'!Q29</f>
-        <v>2.27</v>
+        <f>'dane po Vs'!Q30</f>
+        <v>2.72</v>
       </c>
       <c r="R29">
-        <f>'dane po Vs'!R29</f>
-        <v>11.5</v>
+        <f>'dane po Vs'!R30</f>
+        <v>13.88</v>
       </c>
       <c r="S29" s="12">
-        <f>'dane po Vs'!S29</f>
-        <v>0.15</v>
+        <f>'dane po Vs'!S30</f>
+        <v>0.16</v>
       </c>
       <c r="T29" s="11">
-        <f>'dane po Vs'!T29</f>
-        <v>14.3</v>
+        <f>'dane po Vs'!T30</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="U29" s="11">
-        <f>'dane po Vs'!U29</f>
-        <v>22.6</v>
+        <f>'dane po Vs'!U30</f>
+        <v>26</v>
       </c>
       <c r="V29">
-        <f>'dane po Vs'!V29</f>
-        <v>325.20000000000005</v>
+        <f>'dane po Vs'!V30</f>
+        <v>144.2523062613476</v>
       </c>
       <c r="W29" s="9">
-        <f t="shared" si="4"/>
-        <v>4849.1800712441027</v>
+        <f>((B29-$B$30)^2+(C29-$C$30)^2+(D29-$D$30)^2+(E29-$E$30)^2+(F29-$F$30)^2+(G29-$G$30)^2+(H29-$H$30)^2+(I29-$I$30)^2+(J29-$J$30)^2+(K29-$K$30)^2+(L29-$L$30)^2+(M29-$M$30)^2+(N29-$N$30)^2+(O29-$O$30)^2+(P29-$P$30)^2+(Q29-$Q$30)^2+(R29-$R$30)^2+(S29-$S$30)^2+(T29-$T$30)^2+(U29-$U$30)^2+(V29-$V$30)^2)^(0.5)</f>
+        <v>8983.7754840000289</v>
       </c>
       <c r="X29" s="9">
+        <f>1-(W29/$AD$3)</f>
+        <v>0.319453104120477</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="1"/>
-        <v>0.63266062793716982</v>
-      </c>
-      <c r="Y29" t="str">
+        <v>Włochy</v>
+      </c>
+      <c r="Z29" s="10">
         <f t="shared" si="2"/>
-        <v>Wielka Brytania</v>
-      </c>
-      <c r="Z29" s="10">
-        <f t="shared" si="3"/>
-        <v>0.63266062793716982</v>
+        <v>0.319453104120477</v>
       </c>
       <c r="AA29" s="13">
         <f t="shared" si="0"/>
-        <v>0.63266062793716982</v>
+        <v>0.319453104120477</v>
       </c>
       <c r="AB29" t="s">
         <v>165</v>
@@ -20712,113 +20679,107 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <f>'dane po Vs'!A30</f>
-        <v>Włochy</v>
-      </c>
-      <c r="B30">
-        <f>'dane po Vs'!B30</f>
-        <v>14</v>
-      </c>
-      <c r="C30" s="13">
-        <f>'dane po Vs'!C30</f>
-        <v>123.6</v>
-      </c>
-      <c r="D30" s="11">
-        <f>'dane po Vs'!D30</f>
-        <v>236</v>
-      </c>
-      <c r="E30" s="11">
-        <f>'dane po Vs'!E30</f>
-        <v>83</v>
-      </c>
-      <c r="F30" s="11">
-        <f>'dane po Vs'!F30</f>
-        <v>5.9</v>
-      </c>
-      <c r="G30" s="11">
-        <f>'dane po Vs'!G30</f>
-        <v>3.9</v>
-      </c>
-      <c r="H30" s="11">
-        <f>'dane po Vs'!H30</f>
-        <v>25.2</v>
-      </c>
-      <c r="I30" s="11">
-        <f>'dane po Vs'!I30</f>
-        <v>14.2</v>
-      </c>
-      <c r="J30" s="11">
-        <f>'dane po Vs'!J30</f>
-        <v>2</v>
-      </c>
-      <c r="K30" s="11">
-        <f>'dane po Vs'!K30</f>
-        <v>557</v>
-      </c>
-      <c r="L30">
-        <f>'dane po Vs'!L30</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M30">
-        <f>'dane po Vs'!M30</f>
-        <v>35.9</v>
-      </c>
-      <c r="N30">
-        <f>'dane po Vs'!N30</f>
-        <v>7.9</v>
-      </c>
-      <c r="O30">
-        <f>'dane po Vs'!O30</f>
-        <v>1977</v>
-      </c>
-      <c r="P30">
-        <f>'dane po Vs'!P30</f>
-        <v>0.82</v>
-      </c>
-      <c r="Q30">
-        <f>'dane po Vs'!Q30</f>
-        <v>2.72</v>
-      </c>
-      <c r="R30">
-        <f>'dane po Vs'!R30</f>
-        <v>13.88</v>
-      </c>
-      <c r="S30" s="12">
-        <f>'dane po Vs'!S30</f>
-        <v>0.16</v>
-      </c>
-      <c r="T30" s="11">
-        <f>'dane po Vs'!T30</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="U30" s="11">
-        <f>'dane po Vs'!U30</f>
-        <v>26</v>
-      </c>
-      <c r="V30">
-        <f>'dane po Vs'!V30</f>
-        <v>144.2523062613476</v>
-      </c>
-      <c r="W30" s="9">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8">
+        <f>MAX(B2:B29)</f>
+        <v>37</v>
+      </c>
+      <c r="C30" s="8">
+        <f>MAX(C2:C29)</f>
+        <v>131.4</v>
+      </c>
+      <c r="D30" s="17">
+        <f>MIN(D2:D29)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" ref="E30:K30" si="3">MIN(E2:E29)</f>
+        <v>-24</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="3"/>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="K30" s="17">
+        <f t="shared" si="3"/>
+        <v>294</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" ref="L30:S30" si="4">MAX(L2:L29)</f>
+        <v>44.2</v>
+      </c>
+      <c r="M30" s="8">
         <f t="shared" si="4"/>
-        <v>8983.7754840000289</v>
-      </c>
-      <c r="X30" s="9">
-        <f t="shared" si="1"/>
-        <v>0.319453104120477</v>
-      </c>
-      <c r="Y30" t="str">
-        <f t="shared" si="2"/>
-        <v>Włochy</v>
-      </c>
-      <c r="Z30" s="10">
-        <f t="shared" si="3"/>
-        <v>0.319453104120477</v>
-      </c>
-      <c r="AA30" s="13">
-        <f t="shared" si="0"/>
-        <v>0.319453104120477</v>
+        <v>178.4</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="4"/>
+        <v>10947</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="4"/>
+        <v>1.02</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="4"/>
+        <v>4.74</v>
+      </c>
+      <c r="R30" s="8">
+        <f t="shared" si="4"/>
+        <v>78.03</v>
+      </c>
+      <c r="S30" s="8">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="T30" s="17">
+        <f>MIN(T2:T29)</f>
+        <v>7.5</v>
+      </c>
+      <c r="U30" s="17">
+        <f>MIN(U2:U29)</f>
+        <v>13.9</v>
+      </c>
+      <c r="V30" s="8">
+        <f>MAX(V2:V29)</f>
+        <v>434.97499999999997</v>
+      </c>
+      <c r="W30" t="s">
+        <v>165</v>
+      </c>
+      <c r="X30" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>165</v>
       </c>
       <c r="AB30" t="s">
         <v>165</v>
@@ -20827,119 +20788,6 @@
         <v>165</v>
       </c>
       <c r="AD30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="8">
-        <f>MAX(B3:B30)</f>
-        <v>37</v>
-      </c>
-      <c r="C31" s="8">
-        <f>MAX(C3:C30)</f>
-        <v>131.4</v>
-      </c>
-      <c r="D31" s="17">
-        <f>MIN(D3:D30)</f>
-        <v>1</v>
-      </c>
-      <c r="E31" s="17">
-        <f t="shared" ref="E31:K31" si="5">MIN(E3:E30)</f>
-        <v>-24</v>
-      </c>
-      <c r="F31" s="17">
-        <f t="shared" si="5"/>
-        <v>1.9</v>
-      </c>
-      <c r="G31" s="17">
-        <f t="shared" si="5"/>
-        <v>2.1</v>
-      </c>
-      <c r="H31" s="17">
-        <f t="shared" si="5"/>
-        <v>9.8571428571428577</v>
-      </c>
-      <c r="I31" s="17">
-        <f t="shared" si="5"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="5"/>
-        <v>-7</v>
-      </c>
-      <c r="K31" s="17">
-        <f t="shared" si="5"/>
-        <v>294</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" ref="L31:S31" si="6">MAX(L3:L30)</f>
-        <v>44.2</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" si="6"/>
-        <v>178.4</v>
-      </c>
-      <c r="N31" s="8">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="6"/>
-        <v>10947</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="6"/>
-        <v>1.02</v>
-      </c>
-      <c r="Q31" s="8">
-        <f t="shared" si="6"/>
-        <v>4.74</v>
-      </c>
-      <c r="R31" s="8">
-        <f t="shared" si="6"/>
-        <v>78.03</v>
-      </c>
-      <c r="S31" s="8">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="T31" s="17">
-        <f>MIN(T3:T30)</f>
-        <v>7.5</v>
-      </c>
-      <c r="U31" s="17">
-        <f>MIN(U3:U30)</f>
-        <v>13.9</v>
-      </c>
-      <c r="V31" s="8">
-        <f>MAX(V3:V30)</f>
-        <v>434.97499999999997</v>
-      </c>
-      <c r="W31" t="s">
-        <v>165</v>
-      </c>
-      <c r="X31" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD31" t="s">
         <v>165</v>
       </c>
     </row>
@@ -21038,7 +20886,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21284,47 +21131,47 @@
         <v>597</v>
       </c>
       <c r="L3">
-        <f>wzorzec!L3</f>
+        <f>wzorzec!L2</f>
         <v>27</v>
       </c>
       <c r="M3">
-        <f>wzorzec!M3</f>
+        <f>wzorzec!M2</f>
         <v>15.1</v>
       </c>
       <c r="N3">
-        <f>wzorzec!N3</f>
+        <f>wzorzec!N2</f>
         <v>17</v>
       </c>
       <c r="O3">
-        <f>wzorzec!O3</f>
+        <f>wzorzec!O2</f>
         <v>2332</v>
       </c>
       <c r="P3">
-        <f>wzorzec!P3</f>
+        <f>wzorzec!P2</f>
         <v>0.3</v>
       </c>
       <c r="Q3">
-        <f>wzorzec!Q3</f>
+        <f>wzorzec!Q2</f>
         <v>2.37</v>
       </c>
       <c r="R3" s="12">
-        <f>wzorzec!R3</f>
+        <f>wzorzec!R2</f>
         <v>7.07</v>
       </c>
       <c r="S3" s="12">
-        <f>wzorzec!S3</f>
+        <f>wzorzec!S2</f>
         <v>0.13</v>
       </c>
       <c r="T3" s="11">
-        <f>wzorzec!T3</f>
+        <f>wzorzec!T2</f>
         <v>9.4</v>
       </c>
       <c r="U3" s="11">
-        <f>wzorzec!U3</f>
+        <f>wzorzec!U2</f>
         <v>16.7</v>
       </c>
       <c r="V3" s="13">
-        <f>wzorzec!V3</f>
+        <f>wzorzec!V2</f>
         <v>166.80385803767996</v>
       </c>
     </row>
@@ -21374,47 +21221,47 @@
         <v>493</v>
       </c>
       <c r="L4">
-        <f>wzorzec!L4</f>
+        <f>wzorzec!L3</f>
         <v>3.1</v>
       </c>
       <c r="M4">
-        <f>wzorzec!M4</f>
+        <f>wzorzec!M3</f>
         <v>6.8</v>
       </c>
       <c r="N4">
-        <f>wzorzec!N4</f>
+        <f>wzorzec!N3</f>
         <v>2.4</v>
       </c>
       <c r="O4">
-        <f>wzorzec!O4</f>
+        <f>wzorzec!O3</f>
         <v>2036</v>
       </c>
       <c r="P4">
-        <f>wzorzec!P4</f>
+        <f>wzorzec!P3</f>
         <v>0.37</v>
       </c>
       <c r="Q4">
-        <f>wzorzec!Q4</f>
+        <f>wzorzec!Q3</f>
         <v>2.2200000000000002</v>
       </c>
       <c r="R4" s="12">
-        <f>wzorzec!R4</f>
+        <f>wzorzec!R3</f>
         <v>4.22</v>
       </c>
       <c r="S4" s="12">
-        <f>wzorzec!S4</f>
+        <f>wzorzec!S3</f>
         <v>0.15</v>
       </c>
       <c r="T4" s="11">
-        <f>wzorzec!T4</f>
+        <f>wzorzec!T3</f>
         <v>18.8</v>
       </c>
       <c r="U4" s="11">
-        <f>wzorzec!U4</f>
+        <f>wzorzec!U3</f>
         <v>21.6</v>
       </c>
       <c r="V4" s="13">
-        <f>wzorzec!V4</f>
+        <f>wzorzec!V3</f>
         <v>76.7</v>
       </c>
     </row>
@@ -21464,47 +21311,47 @@
         <v>553</v>
       </c>
       <c r="L5">
-        <f>wzorzec!L5</f>
+        <f>wzorzec!L4</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="M5">
-        <f>wzorzec!M5</f>
+        <f>wzorzec!M4</f>
         <v>21.3</v>
       </c>
       <c r="N5">
-        <f>wzorzec!N5</f>
+        <f>wzorzec!N4</f>
         <v>0.3</v>
       </c>
       <c r="O5">
-        <f>wzorzec!O5</f>
+        <f>wzorzec!O4</f>
         <v>373</v>
       </c>
       <c r="P5">
-        <f>wzorzec!P5</f>
+        <f>wzorzec!P4</f>
         <v>1.02</v>
       </c>
       <c r="Q5">
-        <f>wzorzec!Q5</f>
+        <f>wzorzec!Q4</f>
         <v>3.19</v>
       </c>
       <c r="R5" s="12">
-        <f>wzorzec!R5</f>
+        <f>wzorzec!R4</f>
         <v>1</v>
       </c>
       <c r="S5" s="12">
-        <f>wzorzec!S5</f>
+        <f>wzorzec!S4</f>
         <v>0.25</v>
       </c>
       <c r="T5" s="11">
-        <f>wzorzec!T5</f>
+        <f>wzorzec!T4</f>
         <v>14.1</v>
       </c>
       <c r="U5" s="11">
-        <f>wzorzec!U5</f>
+        <f>wzorzec!U4</f>
         <v>60.7</v>
       </c>
       <c r="V5" s="13">
-        <f>wzorzec!V5</f>
+        <f>wzorzec!V4</f>
         <v>33.18</v>
       </c>
     </row>
@@ -21554,47 +21401,47 @@
         <v>399</v>
       </c>
       <c r="L6">
-        <f>wzorzec!L6</f>
+        <f>wzorzec!L5</f>
         <v>22.2</v>
       </c>
       <c r="M6">
-        <f>wzorzec!M6</f>
+        <f>wzorzec!M5</f>
         <v>25.7</v>
       </c>
       <c r="N6">
-        <f>wzorzec!N6</f>
+        <f>wzorzec!N5</f>
         <v>4.1100000000000003</v>
       </c>
       <c r="O6">
-        <f>wzorzec!O6</f>
+        <f>wzorzec!O5</f>
         <v>1348</v>
       </c>
       <c r="P6">
-        <f>wzorzec!P6</f>
+        <f>wzorzec!P5</f>
         <v>0.72</v>
       </c>
       <c r="Q6">
-        <f>wzorzec!Q6</f>
+        <f>wzorzec!Q5</f>
         <v>3.14</v>
       </c>
       <c r="R6" s="12">
-        <f>wzorzec!R6</f>
+        <f>wzorzec!R5</f>
         <v>0.33</v>
       </c>
       <c r="S6" s="12">
-        <f>wzorzec!S6</f>
+        <f>wzorzec!S5</f>
         <v>0.2</v>
       </c>
       <c r="T6" s="11">
-        <f>wzorzec!T6</f>
+        <f>wzorzec!T5</f>
         <v>25.4</v>
       </c>
       <c r="U6" s="11">
-        <f>wzorzec!U6</f>
+        <f>wzorzec!U5</f>
         <v>30.357142857142861</v>
       </c>
       <c r="V6" s="13">
-        <f>wzorzec!V6</f>
+        <f>wzorzec!V5</f>
         <v>48.333333333333336</v>
       </c>
     </row>
@@ -21644,47 +21491,47 @@
         <v>704</v>
       </c>
       <c r="L7">
-        <f>wzorzec!L7</f>
+        <f>wzorzec!L6</f>
         <v>4</v>
       </c>
       <c r="M7">
-        <f>wzorzec!M7</f>
+        <f>wzorzec!M6</f>
         <v>178.4</v>
       </c>
       <c r="N7">
-        <f>wzorzec!N7</f>
+        <f>wzorzec!N6</f>
         <v>1.5</v>
       </c>
       <c r="O7">
-        <f>wzorzec!O7</f>
+        <f>wzorzec!O6</f>
         <v>2476</v>
       </c>
       <c r="P7">
-        <f>wzorzec!P7</f>
+        <f>wzorzec!P6</f>
         <v>0.26</v>
       </c>
       <c r="Q7">
-        <f>wzorzec!Q7</f>
+        <f>wzorzec!Q6</f>
         <v>3.14</v>
       </c>
       <c r="R7" s="12">
-        <f>wzorzec!R7</f>
+        <f>wzorzec!R6</f>
         <v>0.17</v>
       </c>
       <c r="S7" s="12">
-        <f>wzorzec!S7</f>
+        <f>wzorzec!S6</f>
         <v>0.1</v>
       </c>
       <c r="T7" s="11">
-        <f>wzorzec!T7</f>
+        <f>wzorzec!T6</f>
         <v>10.199999999999999</v>
       </c>
       <c r="U7" s="11">
-        <f>wzorzec!U7</f>
+        <f>wzorzec!U6</f>
         <v>25.2</v>
       </c>
       <c r="V7" s="13">
-        <f>wzorzec!V7</f>
+        <f>wzorzec!V6</f>
         <v>144.90352633826882</v>
       </c>
     </row>
@@ -21734,47 +21581,47 @@
         <v>294</v>
       </c>
       <c r="L8">
-        <f>wzorzec!L8</f>
+        <f>wzorzec!L7</f>
         <v>8</v>
       </c>
       <c r="M8">
-        <f>wzorzec!M8</f>
+        <f>wzorzec!M7</f>
         <v>5.9</v>
       </c>
       <c r="N8">
-        <f>wzorzec!N8</f>
+        <f>wzorzec!N7</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="O8">
-        <f>wzorzec!O8</f>
+        <f>wzorzec!O7</f>
         <v>3394</v>
       </c>
       <c r="P8">
-        <f>wzorzec!P8</f>
+        <f>wzorzec!P7</f>
         <v>0.79</v>
       </c>
       <c r="Q8">
-        <f>wzorzec!Q8</f>
+        <f>wzorzec!Q7</f>
         <v>2.31</v>
       </c>
       <c r="R8" s="12">
-        <f>wzorzec!R8</f>
+        <f>wzorzec!R7</f>
         <v>6</v>
       </c>
       <c r="S8" s="12">
-        <f>wzorzec!S8</f>
+        <f>wzorzec!S7</f>
         <v>0.3</v>
       </c>
       <c r="T8" s="11">
-        <f>wzorzec!T8</f>
+        <f>wzorzec!T7</f>
         <v>10.7</v>
       </c>
       <c r="U8" s="11">
-        <f>wzorzec!U8</f>
+        <f>wzorzec!U7</f>
         <v>15.8</v>
       </c>
       <c r="V8" s="13">
-        <f>wzorzec!V8</f>
+        <f>wzorzec!V7</f>
         <v>106.25</v>
       </c>
     </row>
@@ -21824,47 +21671,47 @@
         <v>790</v>
       </c>
       <c r="L9">
-        <f>wzorzec!L9</f>
+        <f>wzorzec!L8</f>
         <v>17.8</v>
       </c>
       <c r="M9">
-        <f>wzorzec!M9</f>
+        <f>wzorzec!M8</f>
         <v>2.5</v>
       </c>
       <c r="N9">
-        <f>wzorzec!N9</f>
+        <f>wzorzec!N8</f>
         <v>5</v>
       </c>
       <c r="O9">
-        <f>wzorzec!O9</f>
+        <f>wzorzec!O8</f>
         <v>4272</v>
       </c>
       <c r="P9">
-        <f>wzorzec!P9</f>
+        <f>wzorzec!P8</f>
         <v>0.42</v>
       </c>
       <c r="Q9">
-        <f>wzorzec!Q9</f>
+        <f>wzorzec!Q8</f>
         <v>4.74</v>
       </c>
       <c r="R9" s="12">
-        <f>wzorzec!R9</f>
+        <f>wzorzec!R8</f>
         <v>4.24</v>
       </c>
       <c r="S9" s="12">
-        <f>wzorzec!S9</f>
+        <f>wzorzec!S8</f>
         <v>0.08</v>
       </c>
       <c r="T9" s="11">
-        <f>wzorzec!T9</f>
+        <f>wzorzec!T8</f>
         <v>7.5</v>
       </c>
       <c r="U9" s="11">
-        <f>wzorzec!U9</f>
+        <f>wzorzec!U8</f>
         <v>16.8</v>
       </c>
       <c r="V9" s="13">
-        <f>wzorzec!V9</f>
+        <f>wzorzec!V8</f>
         <v>68.575000000000003</v>
       </c>
     </row>
@@ -21914,47 +21761,47 @@
         <v>449</v>
       </c>
       <c r="L10">
-        <f>wzorzec!L10</f>
+        <f>wzorzec!L9</f>
         <v>17.100000000000001</v>
       </c>
       <c r="M10">
-        <f>wzorzec!M10</f>
+        <f>wzorzec!M9</f>
         <v>11.8</v>
       </c>
       <c r="N10">
-        <f>wzorzec!N10</f>
+        <f>wzorzec!N9</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="O10">
-        <f>wzorzec!O10</f>
+        <f>wzorzec!O9</f>
         <v>2343</v>
       </c>
       <c r="P10">
-        <f>wzorzec!P10</f>
+        <f>wzorzec!P9</f>
         <v>0.53999999999999992</v>
       </c>
       <c r="Q10">
-        <f>wzorzec!Q10</f>
+        <f>wzorzec!Q9</f>
         <v>2.19</v>
       </c>
       <c r="R10" s="12">
-        <f>wzorzec!R10</f>
+        <f>wzorzec!R9</f>
         <v>0</v>
       </c>
       <c r="S10" s="12">
-        <f>wzorzec!S10</f>
+        <f>wzorzec!S9</f>
         <v>0.09</v>
       </c>
       <c r="T10" s="11">
-        <f>wzorzec!T10</f>
+        <f>wzorzec!T9</f>
         <v>10.1</v>
       </c>
       <c r="U10" s="11">
-        <f>wzorzec!U10</f>
+        <f>wzorzec!U9</f>
         <v>22</v>
       </c>
       <c r="V10" s="13">
-        <f>wzorzec!V10</f>
+        <f>wzorzec!V9</f>
         <v>28.25</v>
       </c>
     </row>
@@ -22004,47 +21851,47 @@
         <v>506</v>
       </c>
       <c r="L11">
-        <f>wzorzec!L11</f>
+        <f>wzorzec!L10</f>
         <v>29.6</v>
       </c>
       <c r="M11">
-        <f>wzorzec!M11</f>
+        <f>wzorzec!M10</f>
         <v>51.4</v>
       </c>
       <c r="N11">
-        <f>wzorzec!N11</f>
+        <f>wzorzec!N10</f>
         <v>6.6</v>
       </c>
       <c r="O11">
-        <f>wzorzec!O11</f>
+        <f>wzorzec!O10</f>
         <v>486</v>
       </c>
       <c r="P11">
-        <f>wzorzec!P11</f>
+        <f>wzorzec!P10</f>
         <v>0.39</v>
       </c>
       <c r="Q11">
-        <f>wzorzec!Q11</f>
+        <f>wzorzec!Q10</f>
         <v>2.66</v>
       </c>
       <c r="R11" s="12">
-        <f>wzorzec!R11</f>
+        <f>wzorzec!R10</f>
         <v>9.6</v>
       </c>
       <c r="S11" s="12">
-        <f>wzorzec!S11</f>
+        <f>wzorzec!S10</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="T11" s="11">
-        <f>wzorzec!T11</f>
+        <f>wzorzec!T10</f>
         <v>16.5</v>
       </c>
       <c r="U11" s="11">
-        <f>wzorzec!U11</f>
+        <f>wzorzec!U10</f>
         <v>17.399999999999999</v>
       </c>
       <c r="V11" s="13">
-        <f>wzorzec!V11</f>
+        <f>wzorzec!V10</f>
         <v>132.69999999999999</v>
       </c>
     </row>
@@ -22094,47 +21941,47 @@
         <v>543</v>
       </c>
       <c r="L12">
-        <f>wzorzec!L12</f>
+        <f>wzorzec!L11</f>
         <v>10.3</v>
       </c>
       <c r="M12">
-        <f>wzorzec!M12</f>
+        <f>wzorzec!M11</f>
         <v>112.8</v>
       </c>
       <c r="N12">
-        <f>wzorzec!N12</f>
+        <f>wzorzec!N11</f>
         <v>1.9</v>
       </c>
       <c r="O12">
-        <f>wzorzec!O12</f>
+        <f>wzorzec!O11</f>
         <v>1587</v>
       </c>
       <c r="P12">
-        <f>wzorzec!P12</f>
+        <f>wzorzec!P11</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="Q12">
-        <f>wzorzec!Q12</f>
+        <f>wzorzec!Q11</f>
         <v>1.87</v>
       </c>
       <c r="R12" s="12">
-        <f>wzorzec!R12</f>
+        <f>wzorzec!R11</f>
         <v>28.66</v>
       </c>
       <c r="S12" s="12">
-        <f>wzorzec!S12</f>
+        <f>wzorzec!S11</f>
         <v>0.33</v>
       </c>
       <c r="T12" s="11">
-        <f>wzorzec!T12</f>
+        <f>wzorzec!T11</f>
         <v>19.5</v>
       </c>
       <c r="U12" s="11">
-        <f>wzorzec!U12</f>
+        <f>wzorzec!U11</f>
         <v>19</v>
       </c>
       <c r="V12" s="13">
-        <f>wzorzec!V12</f>
+        <f>wzorzec!V11</f>
         <v>434.97499999999997</v>
       </c>
     </row>
@@ -22184,47 +22031,47 @@
         <v>453</v>
       </c>
       <c r="L13">
-        <f>wzorzec!L13</f>
+        <f>wzorzec!L12</f>
         <v>8.1999999999999993</v>
       </c>
       <c r="M13">
-        <f>wzorzec!M13</f>
+        <f>wzorzec!M12</f>
         <v>11.2</v>
       </c>
       <c r="N13">
-        <f>wzorzec!N13</f>
+        <f>wzorzec!N12</f>
         <v>7</v>
       </c>
       <c r="O13">
-        <f>wzorzec!O13</f>
+        <f>wzorzec!O12</f>
         <v>3219</v>
       </c>
       <c r="P13">
-        <f>wzorzec!P13</f>
+        <f>wzorzec!P12</f>
         <v>0.42</v>
       </c>
       <c r="Q13">
-        <f>wzorzec!Q13</f>
+        <f>wzorzec!Q12</f>
         <v>2.08</v>
       </c>
       <c r="R13" s="12">
-        <f>wzorzec!R13</f>
+        <f>wzorzec!R12</f>
         <v>0.7</v>
       </c>
       <c r="S13" s="12">
-        <f>wzorzec!S13</f>
+        <f>wzorzec!S12</f>
         <v>0.12</v>
       </c>
       <c r="T13" s="11">
-        <f>wzorzec!T13</f>
+        <f>wzorzec!T12</f>
         <v>22.7</v>
       </c>
       <c r="U13" s="11">
-        <f>wzorzec!U13</f>
+        <f>wzorzec!U12</f>
         <v>28.3</v>
       </c>
       <c r="V13" s="13">
-        <f>wzorzec!V13</f>
+        <f>wzorzec!V12</f>
         <v>145.53229055046864</v>
       </c>
     </row>
@@ -22274,47 +22121,47 @@
         <v>578</v>
       </c>
       <c r="L14">
-        <f>wzorzec!L14</f>
+        <f>wzorzec!L13</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="M14">
-        <f>wzorzec!M14</f>
+        <f>wzorzec!M13</f>
         <v>87.2</v>
       </c>
       <c r="N14">
-        <f>wzorzec!N14</f>
+        <f>wzorzec!N13</f>
         <v>4</v>
       </c>
       <c r="O14">
-        <f>wzorzec!O14</f>
+        <f>wzorzec!O13</f>
         <v>163</v>
       </c>
       <c r="P14">
-        <f>wzorzec!P14</f>
+        <f>wzorzec!P13</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="Q14">
-        <f>wzorzec!Q14</f>
+        <f>wzorzec!Q13</f>
         <v>1.77</v>
       </c>
       <c r="R14" s="12">
-        <f>wzorzec!R14</f>
+        <f>wzorzec!R13</f>
         <v>14.29</v>
       </c>
       <c r="S14" s="12">
-        <f>wzorzec!S14</f>
+        <f>wzorzec!S13</f>
         <v>0.22</v>
       </c>
       <c r="T14" s="11">
-        <f>wzorzec!T14</f>
+        <f>wzorzec!T13</f>
         <v>18.100000000000001</v>
       </c>
       <c r="U14" s="11">
-        <f>wzorzec!U14</f>
+        <f>wzorzec!U13</f>
         <v>23.3</v>
       </c>
       <c r="V14" s="13">
-        <f>wzorzec!V14</f>
+        <f>wzorzec!V13</f>
         <v>259.75</v>
       </c>
     </row>
@@ -22364,47 +22211,47 @@
         <v>606</v>
       </c>
       <c r="L15">
-        <f>wzorzec!L15</f>
+        <f>wzorzec!L14</f>
         <v>3.3</v>
       </c>
       <c r="M15">
-        <f>wzorzec!M15</f>
+        <f>wzorzec!M14</f>
         <v>0.2</v>
       </c>
       <c r="N15">
-        <f>wzorzec!N15</f>
+        <f>wzorzec!N14</f>
         <v>2.5</v>
       </c>
       <c r="O15">
-        <f>wzorzec!O15</f>
+        <f>wzorzec!O14</f>
         <v>1535</v>
       </c>
       <c r="P15">
-        <f>wzorzec!P15</f>
+        <f>wzorzec!P14</f>
         <v>0.33</v>
       </c>
       <c r="Q15">
-        <f>wzorzec!Q15</f>
+        <f>wzorzec!Q14</f>
         <v>3.4</v>
       </c>
       <c r="R15" s="12">
-        <f>wzorzec!R15</f>
+        <f>wzorzec!R14</f>
         <v>12.73</v>
       </c>
       <c r="S15" s="12">
-        <f>wzorzec!S15</f>
+        <f>wzorzec!S14</f>
         <v>0.21</v>
       </c>
       <c r="T15" s="11">
-        <f>wzorzec!T15</f>
+        <f>wzorzec!T14</f>
         <v>9.4</v>
       </c>
       <c r="U15" s="11">
-        <f>wzorzec!U15</f>
+        <f>wzorzec!U14</f>
         <v>15.7</v>
       </c>
       <c r="V15" s="13">
-        <f>wzorzec!V15</f>
+        <f>wzorzec!V14</f>
         <v>130.75</v>
       </c>
     </row>
@@ -22454,47 +22301,47 @@
         <v>772</v>
       </c>
       <c r="L16">
-        <f>wzorzec!L16</f>
+        <f>wzorzec!L15</f>
         <v>3.7</v>
       </c>
       <c r="M16">
-        <f>wzorzec!M16</f>
+        <f>wzorzec!M15</f>
         <v>11.7</v>
       </c>
       <c r="N16">
-        <f>wzorzec!N16</f>
+        <f>wzorzec!N15</f>
         <v>1</v>
       </c>
       <c r="O16">
-        <f>wzorzec!O16</f>
+        <f>wzorzec!O15</f>
         <v>957</v>
       </c>
       <c r="P16">
-        <f>wzorzec!P16</f>
+        <f>wzorzec!P15</f>
         <v>0.42</v>
       </c>
       <c r="Q16">
-        <f>wzorzec!Q16</f>
+        <f>wzorzec!Q15</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="R16" s="12">
-        <f>wzorzec!R16</f>
+        <f>wzorzec!R15</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="S16" s="12">
-        <f>wzorzec!S16</f>
+        <f>wzorzec!S15</f>
         <v>0.09</v>
       </c>
       <c r="T16" s="11">
-        <f>wzorzec!T16</f>
+        <f>wzorzec!T15</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="U16" s="11">
-        <f>wzorzec!U16</f>
+        <f>wzorzec!U15</f>
         <v>23.1</v>
       </c>
       <c r="V16" s="13">
-        <f>wzorzec!V16</f>
+        <f>wzorzec!V15</f>
         <v>21.266666666666666</v>
       </c>
     </row>
@@ -22544,47 +22391,47 @@
         <v>419</v>
       </c>
       <c r="L17">
-        <f>wzorzec!L17</f>
+        <f>wzorzec!L16</f>
         <v>16.5</v>
       </c>
       <c r="M17">
-        <f>wzorzec!M17</f>
+        <f>wzorzec!M16</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="N17">
-        <f>wzorzec!N17</f>
+        <f>wzorzec!N16</f>
         <v>4.5</v>
       </c>
       <c r="O17">
-        <f>wzorzec!O17</f>
+        <f>wzorzec!O16</f>
         <v>305</v>
       </c>
       <c r="P17">
-        <f>wzorzec!P17</f>
+        <f>wzorzec!P16</f>
         <v>0.49</v>
       </c>
       <c r="Q17">
-        <f>wzorzec!Q17</f>
+        <f>wzorzec!Q16</f>
         <v>1.75</v>
       </c>
       <c r="R17" s="12">
-        <f>wzorzec!R17</f>
+        <f>wzorzec!R16</f>
         <v>0</v>
       </c>
       <c r="S17" s="12">
-        <f>wzorzec!S17</f>
+        <f>wzorzec!S16</f>
         <v>0.17</v>
       </c>
       <c r="T17" s="11">
-        <f>wzorzec!T17</f>
+        <f>wzorzec!T16</f>
         <v>8.4</v>
       </c>
       <c r="U17" s="11">
-        <f>wzorzec!U17</f>
+        <f>wzorzec!U16</f>
         <v>28.7</v>
       </c>
       <c r="V17" s="13">
-        <f>wzorzec!V17</f>
+        <f>wzorzec!V16</f>
         <v>36.933333333333337</v>
       </c>
     </row>
@@ -22634,47 +22481,47 @@
         <v>695</v>
       </c>
       <c r="L18">
-        <f>wzorzec!L18</f>
+        <f>wzorzec!L17</f>
         <v>2.7</v>
       </c>
       <c r="M18">
-        <f>wzorzec!M18</f>
+        <f>wzorzec!M17</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="N18">
-        <f>wzorzec!N18</f>
+        <f>wzorzec!N17</f>
         <v>2.6</v>
       </c>
       <c r="O18">
-        <f>wzorzec!O18</f>
+        <f>wzorzec!O17</f>
         <v>487</v>
       </c>
       <c r="P18">
-        <f>wzorzec!P18</f>
+        <f>wzorzec!P17</f>
         <v>0.42</v>
       </c>
       <c r="Q18">
-        <f>wzorzec!Q18</f>
+        <f>wzorzec!Q17</f>
         <v>2.57</v>
       </c>
       <c r="R18" s="12">
-        <f>wzorzec!R18</f>
+        <f>wzorzec!R17</f>
         <v>0.24</v>
       </c>
       <c r="S18" s="12">
-        <f>wzorzec!S18</f>
+        <f>wzorzec!S17</f>
         <v>0.21</v>
       </c>
       <c r="T18" s="11">
-        <f>wzorzec!T18</f>
+        <f>wzorzec!T17</f>
         <v>15.6</v>
       </c>
       <c r="U18" s="11">
-        <f>wzorzec!U18</f>
+        <f>wzorzec!U17</f>
         <v>15.9</v>
       </c>
       <c r="V18" s="13">
-        <f>wzorzec!V18</f>
+        <f>wzorzec!V17</f>
         <v>9.64</v>
       </c>
     </row>
@@ -22724,47 +22571,47 @@
         <v>391</v>
       </c>
       <c r="L19">
-        <f>wzorzec!L19</f>
+        <f>wzorzec!L18</f>
         <v>29.6</v>
       </c>
       <c r="M19">
-        <f>wzorzec!M19</f>
+        <f>wzorzec!M18</f>
         <v>17.7</v>
       </c>
       <c r="N19">
-        <f>wzorzec!N19</f>
+        <f>wzorzec!N18</f>
         <v>8.1</v>
       </c>
       <c r="O19">
-        <f>wzorzec!O19</f>
+        <f>wzorzec!O18</f>
         <v>10947</v>
       </c>
       <c r="P19">
-        <f>wzorzec!P19</f>
+        <f>wzorzec!P18</f>
         <v>0.3</v>
       </c>
       <c r="Q19">
-        <f>wzorzec!Q19</f>
+        <f>wzorzec!Q18</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="R19" s="12">
-        <f>wzorzec!R19</f>
+        <f>wzorzec!R18</f>
         <v>0</v>
       </c>
       <c r="S19" s="12">
-        <f>wzorzec!S19</f>
+        <f>wzorzec!S18</f>
         <v>0.13</v>
       </c>
       <c r="T19" s="11">
-        <f>wzorzec!T19</f>
+        <f>wzorzec!T18</f>
         <v>10.6</v>
       </c>
       <c r="U19" s="11">
-        <f>wzorzec!U19</f>
+        <f>wzorzec!U18</f>
         <v>35.1</v>
       </c>
       <c r="V19" s="13">
-        <f>wzorzec!V19</f>
+        <f>wzorzec!V18</f>
         <v>27.9</v>
       </c>
     </row>
@@ -22814,47 +22661,47 @@
         <v>654</v>
       </c>
       <c r="L20">
-        <f>wzorzec!L20</f>
+        <f>wzorzec!L19</f>
         <v>0.2</v>
       </c>
       <c r="M20">
-        <f>wzorzec!M20</f>
+        <f>wzorzec!M19</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>wzorzec!N20</f>
+        <f>wzorzec!N19</f>
         <v>0.3</v>
       </c>
       <c r="O20">
-        <f>wzorzec!O20</f>
+        <f>wzorzec!O19</f>
         <v>618</v>
       </c>
       <c r="P20">
-        <f>wzorzec!P20</f>
+        <f>wzorzec!P19</f>
         <v>0.42</v>
       </c>
       <c r="Q20">
-        <f>wzorzec!Q20</f>
+        <f>wzorzec!Q19</f>
         <v>3.53</v>
       </c>
       <c r="R20" s="12">
-        <f>wzorzec!R20</f>
+        <f>wzorzec!R19</f>
         <v>0</v>
       </c>
       <c r="S20" s="12">
-        <f>wzorzec!S20</f>
+        <f>wzorzec!S19</f>
         <v>0.01</v>
       </c>
       <c r="T20" s="11">
-        <f>wzorzec!T20</f>
+        <f>wzorzec!T19</f>
         <v>14.2</v>
       </c>
       <c r="U20" s="11">
-        <f>wzorzec!U20</f>
+        <f>wzorzec!U19</f>
         <v>19.7</v>
       </c>
       <c r="V20" s="13">
-        <f>wzorzec!V20</f>
+        <f>wzorzec!V19</f>
         <v>143.91419305977459</v>
       </c>
     </row>
@@ -22904,47 +22751,47 @@
         <v>582</v>
       </c>
       <c r="L21">
-        <f>wzorzec!L21</f>
+        <f>wzorzec!L20</f>
         <v>9.1</v>
       </c>
       <c r="M21">
-        <f>wzorzec!M21</f>
+        <f>wzorzec!M20</f>
         <v>22.6</v>
       </c>
       <c r="N21">
-        <f>wzorzec!N21</f>
+        <f>wzorzec!N20</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="O21">
-        <f>wzorzec!O21</f>
+        <f>wzorzec!O20</f>
         <v>430</v>
       </c>
       <c r="P21">
-        <f>wzorzec!P21</f>
+        <f>wzorzec!P20</f>
         <v>0.47</v>
       </c>
       <c r="Q21">
-        <f>wzorzec!Q21</f>
+        <f>wzorzec!Q20</f>
         <v>2.17</v>
       </c>
       <c r="R21" s="12">
-        <f>wzorzec!R21</f>
+        <f>wzorzec!R20</f>
         <v>78.03</v>
       </c>
       <c r="S21" s="12">
-        <f>wzorzec!S21</f>
+        <f>wzorzec!S20</f>
         <v>0.34</v>
       </c>
       <c r="T21" s="11">
-        <f>wzorzec!T21</f>
+        <f>wzorzec!T20</f>
         <v>11.8</v>
       </c>
       <c r="U21" s="11">
-        <f>wzorzec!U21</f>
+        <f>wzorzec!U20</f>
         <v>20.6</v>
       </c>
       <c r="V21" s="13">
-        <f>wzorzec!V21</f>
+        <f>wzorzec!V20</f>
         <v>101.7</v>
       </c>
     </row>
@@ -22994,47 +22841,47 @@
         <v>322</v>
       </c>
       <c r="L22">
-        <f>wzorzec!L22</f>
+        <f>wzorzec!L21</f>
         <v>6.9</v>
       </c>
       <c r="M22">
-        <f>wzorzec!M22</f>
+        <f>wzorzec!M21</f>
         <v>43.6</v>
       </c>
       <c r="N22">
-        <f>wzorzec!N22</f>
+        <f>wzorzec!N21</f>
         <v>1.8</v>
       </c>
       <c r="O22">
-        <f>wzorzec!O22</f>
+        <f>wzorzec!O21</f>
         <v>4156</v>
       </c>
       <c r="P22">
-        <f>wzorzec!P22</f>
+        <f>wzorzec!P21</f>
         <v>0.78</v>
       </c>
       <c r="Q22">
-        <f>wzorzec!Q22</f>
+        <f>wzorzec!Q21</f>
         <v>2.74</v>
       </c>
       <c r="R22" s="12">
-        <f>wzorzec!R22</f>
+        <f>wzorzec!R21</f>
         <v>10.83</v>
       </c>
       <c r="S22" s="12">
-        <f>wzorzec!S22</f>
+        <f>wzorzec!S21</f>
         <v>0.2</v>
       </c>
       <c r="T22" s="11">
-        <f>wzorzec!T22</f>
+        <f>wzorzec!T21</f>
         <v>21.6</v>
       </c>
       <c r="U22" s="11">
-        <f>wzorzec!U22</f>
+        <f>wzorzec!U21</f>
         <v>34.4</v>
       </c>
       <c r="V22" s="13">
-        <f>wzorzec!V22</f>
+        <f>wzorzec!V21</f>
         <v>329.4</v>
       </c>
     </row>
@@ -23084,47 +22931,47 @@
         <v>471</v>
       </c>
       <c r="L23">
-        <f>wzorzec!L23</f>
+        <f>wzorzec!L22</f>
         <v>21.9</v>
       </c>
       <c r="M23">
-        <f>wzorzec!M23</f>
+        <f>wzorzec!M22</f>
         <v>45.7</v>
       </c>
       <c r="N23">
-        <f>wzorzec!N23</f>
+        <f>wzorzec!N22</f>
         <v>6.3</v>
       </c>
       <c r="O23">
-        <f>wzorzec!O23</f>
+        <f>wzorzec!O22</f>
         <v>4332</v>
       </c>
       <c r="P23">
-        <f>wzorzec!P23</f>
+        <f>wzorzec!P22</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="Q23">
-        <f>wzorzec!Q23</f>
+        <f>wzorzec!Q22</f>
         <v>2.74</v>
       </c>
       <c r="R23" s="12">
-        <f>wzorzec!R23</f>
+        <f>wzorzec!R22</f>
         <v>3.5</v>
       </c>
       <c r="S23" s="12">
-        <f>wzorzec!S23</f>
+        <f>wzorzec!S22</f>
         <v>0.11</v>
       </c>
       <c r="T23" s="11">
-        <f>wzorzec!T23</f>
+        <f>wzorzec!T22</f>
         <v>21.4</v>
       </c>
       <c r="U23" s="11">
-        <f>wzorzec!U23</f>
+        <f>wzorzec!U22</f>
         <v>25</v>
       </c>
       <c r="V23" s="13">
-        <f>wzorzec!V23</f>
+        <f>wzorzec!V22</f>
         <v>95.699999999999989</v>
       </c>
     </row>
@@ -23174,47 +23021,47 @@
         <v>391</v>
       </c>
       <c r="L24">
-        <f>wzorzec!L24</f>
+        <f>wzorzec!L23</f>
         <v>18.3</v>
       </c>
       <c r="M24">
-        <f>wzorzec!M24</f>
+        <f>wzorzec!M23</f>
         <v>30.5</v>
       </c>
       <c r="N24">
-        <f>wzorzec!N24</f>
+        <f>wzorzec!N23</f>
         <v>1</v>
       </c>
       <c r="O24">
-        <f>wzorzec!O24</f>
+        <f>wzorzec!O23</f>
         <v>2869</v>
       </c>
       <c r="P24">
-        <f>wzorzec!P24</f>
+        <f>wzorzec!P23</f>
         <v>0.62</v>
       </c>
       <c r="Q24">
-        <f>wzorzec!Q24</f>
+        <f>wzorzec!Q23</f>
         <v>1.99</v>
       </c>
       <c r="R24" s="12">
-        <f>wzorzec!R24</f>
+        <f>wzorzec!R23</f>
         <v>2</v>
       </c>
       <c r="S24" s="12">
-        <f>wzorzec!S24</f>
+        <f>wzorzec!S23</f>
         <v>0.17</v>
       </c>
       <c r="T24" s="11">
-        <f>wzorzec!T24</f>
+        <f>wzorzec!T23</f>
         <v>19.3</v>
       </c>
       <c r="U24" s="11">
-        <f>wzorzec!U24</f>
+        <f>wzorzec!U23</f>
         <v>47</v>
       </c>
       <c r="V24" s="13">
-        <f>wzorzec!V24</f>
+        <f>wzorzec!V23</f>
         <v>239.1</v>
       </c>
     </row>
@@ -23264,47 +23111,47 @@
         <v>294</v>
       </c>
       <c r="L25">
-        <f>wzorzec!L25</f>
+        <f>wzorzec!L24</f>
         <v>7.8</v>
       </c>
       <c r="M25">
-        <f>wzorzec!M25</f>
+        <f>wzorzec!M24</f>
         <v>33.6</v>
       </c>
       <c r="N25">
-        <f>wzorzec!N25</f>
+        <f>wzorzec!N24</f>
         <v>6.1</v>
       </c>
       <c r="O25">
-        <f>wzorzec!O25</f>
+        <f>wzorzec!O24</f>
         <v>580</v>
       </c>
       <c r="P25">
-        <f>wzorzec!P25</f>
+        <f>wzorzec!P24</f>
         <v>0.82</v>
       </c>
       <c r="Q25">
-        <f>wzorzec!Q25</f>
+        <f>wzorzec!Q24</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="R25" s="12">
-        <f>wzorzec!R25</f>
+        <f>wzorzec!R24</f>
         <v>0</v>
       </c>
       <c r="S25" s="12">
-        <f>wzorzec!S25</f>
+        <f>wzorzec!S24</f>
         <v>0.16</v>
       </c>
       <c r="T25" s="11">
-        <f>wzorzec!T25</f>
+        <f>wzorzec!T24</f>
         <v>20.6</v>
       </c>
       <c r="U25" s="11">
-        <f>wzorzec!U25</f>
+        <f>wzorzec!U24</f>
         <v>21.4</v>
       </c>
       <c r="V25" s="13">
-        <f>wzorzec!V25</f>
+        <f>wzorzec!V24</f>
         <v>144.01113543840199</v>
       </c>
     </row>
@@ -23354,47 +23201,47 @@
         <v>525</v>
       </c>
       <c r="L26">
-        <f>wzorzec!L26</f>
+        <f>wzorzec!L25</f>
         <v>15.6</v>
       </c>
       <c r="M26">
-        <f>wzorzec!M26</f>
+        <f>wzorzec!M25</f>
         <v>4.5</v>
       </c>
       <c r="N26">
-        <f>wzorzec!N26</f>
+        <f>wzorzec!N25</f>
         <v>5.9</v>
       </c>
       <c r="O26">
-        <f>wzorzec!O26</f>
+        <f>wzorzec!O25</f>
         <v>463</v>
       </c>
       <c r="P26">
-        <f>wzorzec!P26</f>
+        <f>wzorzec!P25</f>
         <v>0.68</v>
       </c>
       <c r="Q26">
-        <f>wzorzec!Q26</f>
+        <f>wzorzec!Q25</f>
         <v>2.95</v>
       </c>
       <c r="R26" s="12">
-        <f>wzorzec!R26</f>
+        <f>wzorzec!R25</f>
         <v>0</v>
       </c>
       <c r="S26" s="12">
-        <f>wzorzec!S26</f>
+        <f>wzorzec!S25</f>
         <v>0.35</v>
       </c>
       <c r="T26" s="11">
-        <f>wzorzec!T26</f>
+        <f>wzorzec!T25</f>
         <v>10.1</v>
       </c>
       <c r="U26" s="11">
-        <f>wzorzec!U26</f>
+        <f>wzorzec!U25</f>
         <v>17.100000000000001</v>
       </c>
       <c r="V26" s="13">
-        <f>wzorzec!V26</f>
+        <f>wzorzec!V25</f>
         <v>23.599999999999998</v>
       </c>
     </row>
@@ -23444,47 +23291,47 @@
         <v>486</v>
       </c>
       <c r="L27">
-        <f>wzorzec!L27</f>
+        <f>wzorzec!L26</f>
         <v>44.2</v>
       </c>
       <c r="M27">
-        <f>wzorzec!M27</f>
+        <f>wzorzec!M26</f>
         <v>5.5</v>
       </c>
       <c r="N27">
-        <f>wzorzec!N27</f>
+        <f>wzorzec!N26</f>
         <v>9.9</v>
       </c>
       <c r="O27">
-        <f>wzorzec!O27</f>
+        <f>wzorzec!O26</f>
         <v>1659</v>
       </c>
       <c r="P27">
-        <f>wzorzec!P27</f>
+        <f>wzorzec!P26</f>
         <v>0.34999999999999992</v>
       </c>
       <c r="Q27">
-        <f>wzorzec!Q27</f>
+        <f>wzorzec!Q26</f>
         <v>2.52</v>
       </c>
       <c r="R27" s="12">
-        <f>wzorzec!R27</f>
+        <f>wzorzec!R26</f>
         <v>0.17</v>
       </c>
       <c r="S27" s="12">
-        <f>wzorzec!S27</f>
+        <f>wzorzec!S26</f>
         <v>0.16</v>
       </c>
       <c r="T27" s="11">
-        <f>wzorzec!T27</f>
+        <f>wzorzec!T26</f>
         <v>19.2</v>
       </c>
       <c r="U27" s="11">
-        <f>wzorzec!U27</f>
+        <f>wzorzec!U26</f>
         <v>13.9</v>
       </c>
       <c r="V27" s="13">
-        <f>wzorzec!V27</f>
+        <f>wzorzec!V26</f>
         <v>71.7</v>
       </c>
     </row>
@@ -23534,47 +23381,47 @@
         <v>457</v>
       </c>
       <c r="L28">
-        <f>wzorzec!L28</f>
+        <f>wzorzec!L27</f>
         <v>8.6</v>
       </c>
       <c r="M28">
-        <f>wzorzec!M28</f>
+        <f>wzorzec!M27</f>
         <v>74.2</v>
       </c>
       <c r="N28">
-        <f>wzorzec!N28</f>
+        <f>wzorzec!N27</f>
         <v>1.8</v>
       </c>
       <c r="O28">
-        <f>wzorzec!O28</f>
+        <f>wzorzec!O27</f>
         <v>829</v>
       </c>
       <c r="P28">
-        <f>wzorzec!P28</f>
+        <f>wzorzec!P27</f>
         <v>0.51</v>
       </c>
       <c r="Q28">
-        <f>wzorzec!Q28</f>
+        <f>wzorzec!Q27</f>
         <v>2.76</v>
       </c>
       <c r="R28" s="12">
-        <f>wzorzec!R28</f>
+        <f>wzorzec!R27</f>
         <v>1.3</v>
       </c>
       <c r="S28" s="12">
-        <f>wzorzec!S28</f>
+        <f>wzorzec!S27</f>
         <v>0.23</v>
       </c>
       <c r="T28" s="11">
-        <f>wzorzec!T28</f>
+        <f>wzorzec!T27</f>
         <v>18.100000000000001</v>
       </c>
       <c r="U28" s="11">
-        <f>wzorzec!U28</f>
+        <f>wzorzec!U27</f>
         <v>29.4</v>
       </c>
       <c r="V28" s="13">
-        <f>wzorzec!V28</f>
+        <f>wzorzec!V27</f>
         <v>144.12425003756678</v>
       </c>
     </row>
@@ -23624,47 +23471,47 @@
         <v>567</v>
       </c>
       <c r="L29">
-        <f>wzorzec!L29</f>
+        <f>wzorzec!L28</f>
         <v>1.8</v>
       </c>
       <c r="M29">
-        <f>wzorzec!M29</f>
+        <f>wzorzec!M28</f>
         <v>93.8</v>
       </c>
       <c r="N29">
-        <f>wzorzec!N29</f>
+        <f>wzorzec!N28</f>
         <v>3.7</v>
       </c>
       <c r="O29">
-        <f>wzorzec!O29</f>
+        <f>wzorzec!O28</f>
         <v>6114</v>
       </c>
       <c r="P29">
-        <f>wzorzec!P29</f>
+        <f>wzorzec!P28</f>
         <v>0.31</v>
       </c>
       <c r="Q29">
-        <f>wzorzec!Q29</f>
+        <f>wzorzec!Q28</f>
         <v>2.27</v>
       </c>
       <c r="R29" s="12">
-        <f>wzorzec!R29</f>
+        <f>wzorzec!R28</f>
         <v>11.5</v>
       </c>
       <c r="S29" s="12">
-        <f>wzorzec!S29</f>
+        <f>wzorzec!S28</f>
         <v>0.15</v>
       </c>
       <c r="T29" s="11">
-        <f>wzorzec!T29</f>
+        <f>wzorzec!T28</f>
         <v>14.3</v>
       </c>
       <c r="U29" s="11">
-        <f>wzorzec!U29</f>
+        <f>wzorzec!U28</f>
         <v>22.6</v>
       </c>
       <c r="V29" s="13">
-        <f>wzorzec!V29</f>
+        <f>wzorzec!V28</f>
         <v>325.20000000000005</v>
       </c>
     </row>
@@ -23714,47 +23561,47 @@
         <v>557</v>
       </c>
       <c r="L30">
-        <f>wzorzec!L30</f>
+        <f>wzorzec!L29</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="M30">
-        <f>wzorzec!M30</f>
+        <f>wzorzec!M29</f>
         <v>35.9</v>
       </c>
       <c r="N30">
-        <f>wzorzec!N30</f>
+        <f>wzorzec!N29</f>
         <v>7.9</v>
       </c>
       <c r="O30">
-        <f>wzorzec!O30</f>
+        <f>wzorzec!O29</f>
         <v>1977</v>
       </c>
       <c r="P30">
-        <f>wzorzec!P30</f>
+        <f>wzorzec!P29</f>
         <v>0.82</v>
       </c>
       <c r="Q30">
-        <f>wzorzec!Q30</f>
+        <f>wzorzec!Q29</f>
         <v>2.72</v>
       </c>
       <c r="R30" s="12">
-        <f>wzorzec!R30</f>
+        <f>wzorzec!R29</f>
         <v>13.88</v>
       </c>
       <c r="S30" s="12">
-        <f>wzorzec!S30</f>
+        <f>wzorzec!S29</f>
         <v>0.16</v>
       </c>
       <c r="T30" s="11">
-        <f>wzorzec!T30</f>
+        <f>wzorzec!T29</f>
         <v>20.399999999999999</v>
       </c>
       <c r="U30" s="11">
-        <f>wzorzec!U30</f>
+        <f>wzorzec!U29</f>
         <v>26</v>
       </c>
       <c r="V30" s="13">
-        <f>wzorzec!V30</f>
+        <f>wzorzec!V29</f>
         <v>144.2523062613476</v>
       </c>
     </row>
@@ -34830,14 +34677,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>wzorzec!Y19</f>
+        <f>wzorzec!Y18</f>
         <v>Łotwa</v>
       </c>
       <c r="C2" t="s">
         <v>136</v>
       </c>
       <c r="D2" s="10">
-        <f>wzorzec!Z19</f>
+        <f>wzorzec!Z18</f>
         <v>0.96475715324979971</v>
       </c>
       <c r="E2" t="s">
@@ -34874,14 +34721,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>wzorzec!Y29</f>
+        <f>wzorzec!Y28</f>
         <v>Wielka Brytania</v>
       </c>
       <c r="C3" t="s">
         <v>137</v>
       </c>
       <c r="D3" s="10">
-        <f>wzorzec!Z29</f>
+        <f>wzorzec!Z28</f>
         <v>0.63266062793716982</v>
       </c>
       <c r="E3" t="s">
@@ -34918,14 +34765,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>wzorzec!Y23</f>
+        <f>wzorzec!Y22</f>
         <v>Portugalia</v>
       </c>
       <c r="C4" t="s">
         <v>138</v>
       </c>
       <c r="D4" s="10">
-        <f>wzorzec!Z23</f>
+        <f>wzorzec!Z22</f>
         <v>0.49775368778708684</v>
       </c>
       <c r="E4" t="s">
@@ -34962,14 +34809,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>wzorzec!Y9</f>
+        <f>wzorzec!Y8</f>
         <v>Dania</v>
       </c>
       <c r="C5" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="10">
-        <f>wzorzec!Z9</f>
+        <f>wzorzec!Z8</f>
         <v>0.49166921041553036</v>
       </c>
       <c r="E5" t="s">
@@ -35002,14 +34849,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>wzorzec!Y22</f>
+        <f>wzorzec!Y21</f>
         <v>Polska</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="10">
-        <f>wzorzec!Z22</f>
+        <f>wzorzec!Z21</f>
         <v>0.48503562840969394</v>
       </c>
       <c r="E6" t="s">
@@ -35042,14 +34889,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>wzorzec!Y8</f>
+        <f>wzorzec!Y7</f>
         <v>Czechy</v>
       </c>
       <c r="C7" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="10">
-        <f>wzorzec!Z8</f>
+        <f>wzorzec!Z7</f>
         <v>0.42709624888891151</v>
       </c>
       <c r="E7" t="s">
@@ -35082,14 +34929,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>wzorzec!Y13</f>
+        <f>wzorzec!Y12</f>
         <v>Grecja</v>
       </c>
       <c r="C8" t="s">
         <v>142</v>
       </c>
       <c r="D8" s="10">
-        <f>wzorzec!Z13</f>
+        <f>wzorzec!Z12</f>
         <v>0.41358594203511101</v>
       </c>
       <c r="E8" t="s">
@@ -35122,14 +34969,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>wzorzec!Y24</f>
+        <f>wzorzec!Y23</f>
         <v>Rumunia</v>
       </c>
       <c r="C9" t="s">
         <v>143</v>
       </c>
       <c r="D9" s="10">
-        <f>wzorzec!Z24</f>
+        <f>wzorzec!Z23</f>
         <v>0.38736661464931865</v>
       </c>
       <c r="E9" t="s">
@@ -35162,14 +35009,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>wzorzec!Y7</f>
+        <f>wzorzec!Y6</f>
         <v>Cypr</v>
       </c>
       <c r="C10" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="10">
-        <f>wzorzec!Z7</f>
+        <f>wzorzec!Z6</f>
         <v>0.35669553094932127</v>
       </c>
       <c r="E10" t="s">
@@ -35202,14 +35049,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>wzorzec!Y10</f>
+        <f>wzorzec!Y9</f>
         <v>Estonia</v>
       </c>
       <c r="C11" t="s">
         <v>145</v>
       </c>
       <c r="D11" s="10">
-        <f>wzorzec!Z10</f>
+        <f>wzorzec!Z9</f>
         <v>0.34698489388432219</v>
       </c>
       <c r="E11" t="s">
@@ -35242,14 +35089,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>wzorzec!Y3</f>
+        <f>wzorzec!Y2</f>
         <v>Austria</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
       </c>
       <c r="D12" s="10">
-        <f>wzorzec!Z3</f>
+        <f>wzorzec!Z2</f>
         <v>0.34589823555157595</v>
       </c>
       <c r="E12" t="s">
@@ -35282,14 +35129,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>wzorzec!Y4</f>
+        <f>wzorzec!Y3</f>
         <v>Belgia</v>
       </c>
       <c r="C13" t="s">
         <v>147</v>
       </c>
       <c r="D13" s="10">
-        <f>wzorzec!Z4</f>
+        <f>wzorzec!Z3</f>
         <v>0.32381616015679837</v>
       </c>
       <c r="E13" t="s">
@@ -35322,14 +35169,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>wzorzec!Y30</f>
+        <f>wzorzec!Y29</f>
         <v>Włochy</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
       </c>
       <c r="D14" s="10">
-        <f>wzorzec!Z30</f>
+        <f>wzorzec!Z29</f>
         <v>0.319453104120477</v>
       </c>
       <c r="E14" t="s">
@@ -35362,14 +35209,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>wzorzec!Y27</f>
+        <f>wzorzec!Y26</f>
         <v>Szwecja</v>
       </c>
       <c r="C15" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="10">
-        <f>wzorzec!Z27</f>
+        <f>wzorzec!Z26</f>
         <v>0.29548562805730982</v>
       </c>
       <c r="E15" t="s">
@@ -35402,14 +35249,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>wzorzec!Y12</f>
+        <f>wzorzec!Y11</f>
         <v>Francja</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="10">
-        <f>wzorzec!Z12</f>
+        <f>wzorzec!Z11</f>
         <v>0.28873919147986438</v>
       </c>
       <c r="E16" t="s">
@@ -35442,14 +35289,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>wzorzec!Y15</f>
+        <f>wzorzec!Y14</f>
         <v>Holandia</v>
       </c>
       <c r="C17" t="s">
         <v>151</v>
       </c>
       <c r="D17" s="10">
-        <f>wzorzec!Z15</f>
+        <f>wzorzec!Z14</f>
         <v>0.28607481941479618</v>
       </c>
       <c r="E17" t="s">
@@ -35482,14 +35329,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>wzorzec!Y6</f>
+        <f>wzorzec!Y5</f>
         <v>Chorwacja</v>
       </c>
       <c r="C18" t="s">
         <v>152</v>
       </c>
       <c r="D18" s="10">
-        <f>wzorzec!Z6</f>
+        <f>wzorzec!Z5</f>
         <v>0.27087639455968648</v>
       </c>
       <c r="E18" t="s">
@@ -35522,14 +35369,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>wzorzec!Y16</f>
+        <f>wzorzec!Y15</f>
         <v>Irlandia</v>
       </c>
       <c r="C19" t="s">
         <v>153</v>
       </c>
       <c r="D19" s="10">
-        <f>wzorzec!Z16</f>
+        <f>wzorzec!Z15</f>
         <v>0.24148672094392198</v>
       </c>
       <c r="E19" t="s">
@@ -35562,14 +35409,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>wzorzec!Y28</f>
+        <f>wzorzec!Y27</f>
         <v>Węgry</v>
       </c>
       <c r="C20" t="s">
         <v>154</v>
       </c>
       <c r="D20" s="10">
-        <f>wzorzec!Z28</f>
+        <f>wzorzec!Z27</f>
         <v>0.23163629602570379</v>
       </c>
       <c r="E20" t="s">
@@ -35602,14 +35449,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>wzorzec!Y20</f>
+        <f>wzorzec!Y19</f>
         <v>Malta</v>
       </c>
       <c r="C21" t="s">
         <v>155</v>
       </c>
       <c r="D21" s="10">
-        <f>wzorzec!Z20</f>
+        <f>wzorzec!Z19</f>
         <v>0.21634876274717008</v>
       </c>
       <c r="E21" t="s">
@@ -35642,14 +35489,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>wzorzec!Y25</f>
+        <f>wzorzec!Y24</f>
         <v>Słowacja</v>
       </c>
       <c r="C22" t="s">
         <v>149</v>
       </c>
       <c r="D22" s="10">
-        <f>wzorzec!Z25</f>
+        <f>wzorzec!Z24</f>
         <v>0.21421972969468628</v>
       </c>
       <c r="E22" t="s">
@@ -35682,14 +35529,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>wzorzec!Y11</f>
+        <f>wzorzec!Y10</f>
         <v>Finlandia</v>
       </c>
       <c r="C23" t="s">
         <v>156</v>
       </c>
       <c r="D23" s="10">
-        <f>wzorzec!Z11</f>
+        <f>wzorzec!Z10</f>
         <v>0.20675611691050333</v>
       </c>
       <c r="E23" t="s">
@@ -35722,14 +35569,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>wzorzec!Y18</f>
+        <f>wzorzec!Y17</f>
         <v>Luksemburg</v>
       </c>
       <c r="C24" t="s">
         <v>157</v>
       </c>
       <c r="D24" s="10">
-        <f>wzorzec!Z18</f>
+        <f>wzorzec!Z17</f>
         <v>0.20610783934242827</v>
       </c>
       <c r="E24" t="s">
@@ -35762,14 +35609,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>wzorzec!Y26</f>
+        <f>wzorzec!Y25</f>
         <v>Słowenia</v>
       </c>
       <c r="C25" t="s">
         <v>158</v>
       </c>
       <c r="D25" s="10">
-        <f>wzorzec!Z26</f>
+        <f>wzorzec!Z25</f>
         <v>0.20484087728167311</v>
       </c>
       <c r="E25" t="s">
@@ -35802,14 +35649,14 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f>wzorzec!Y21</f>
+        <f>wzorzec!Y20</f>
         <v>Niemcy</v>
       </c>
       <c r="C26" t="s">
         <v>159</v>
       </c>
       <c r="D26" s="10">
-        <f>wzorzec!Z21</f>
+        <f>wzorzec!Z20</f>
         <v>0.20095893176511426</v>
       </c>
       <c r="E26" t="s">
@@ -35842,14 +35689,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f>wzorzec!Y5</f>
+        <f>wzorzec!Y4</f>
         <v>Bułgaria</v>
       </c>
       <c r="C27" t="s">
         <v>160</v>
       </c>
       <c r="D27" s="10">
-        <f>wzorzec!Z5</f>
+        <f>wzorzec!Z4</f>
         <v>0.19801578380670548</v>
       </c>
       <c r="E27" t="s">
@@ -35882,14 +35729,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>wzorzec!Y17</f>
+        <f>wzorzec!Y16</f>
         <v>Litwa</v>
       </c>
       <c r="C28" t="s">
         <v>161</v>
       </c>
       <c r="D28" s="10">
-        <f>wzorzec!Z17</f>
+        <f>wzorzec!Z16</f>
         <v>0.19297433017897059</v>
       </c>
       <c r="E28" t="s">
@@ -35922,14 +35769,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f>wzorzec!Y14</f>
+        <f>wzorzec!Y13</f>
         <v>Hiszpania</v>
       </c>
       <c r="C29" t="s">
         <v>162</v>
       </c>
       <c r="D29" s="10">
-        <f>wzorzec!Z14</f>
+        <f>wzorzec!Z13</f>
         <v>0.18256569188546912</v>
       </c>
       <c r="E29" t="s">

--- a/Arkusze/Doktorat_obliczenia_EU-28_2007.xlsx
+++ b/Arkusze/Doktorat_obliczenia_EU-28_2007.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{896BCC7E-4B88-4BD6-9EEE-69DADFE452C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{63D9E601-3AD8-4FA0-8CDC-717E10613B5C}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="60" windowWidth="15195" windowHeight="9210" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="60" windowWidth="15195" windowHeight="9210" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane " sheetId="1" r:id="rId1"/>
@@ -17209,7 +17209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -17431,19 +17431,19 @@
         <v>166.80385803767996</v>
       </c>
       <c r="W2" s="9">
-        <f>((B2-$B$30)^2+(C2-$C$30)^2+(D2-$D$30)^2+(E2-$E$30)^2+(F2-$F$30)^2+(G2-$G$30)^2+(H2-$H$30)^2+(I2-$I$30)^2+(J2-$J$30)^2+(K2-$K$30)^2+(L2-$L$30)^2+(M2-$M$30)^2+(N2-$N$30)^2+(O2-$O$30)^2+(P2-$P$30)^2+(Q2-$Q$30)^2+(R2-$R$30)^2+(S2-$S$30)^2+(T2-$T$30)^2+(U2-$U$30)^2+(V2-$V$30)^2)^(0.5)</f>
+        <f t="shared" ref="W2:W29" si="1">((B2-$B$30)^2+(C2-$C$30)^2+(D2-$D$30)^2+(E2-$E$30)^2+(F2-$F$30)^2+(G2-$G$30)^2+(H2-$H$30)^2+(I2-$I$30)^2+(J2-$J$30)^2+(K2-$K$30)^2+(L2-$L$30)^2+(M2-$M$30)^2+(N2-$N$30)^2+(O2-$O$30)^2+(P2-$P$30)^2+(Q2-$Q$30)^2+(R2-$R$30)^2+(S2-$S$30)^2+(T2-$T$30)^2+(U2-$U$30)^2+(V2-$V$30)^2)^(0.5)</f>
         <v>8634.6781258894953</v>
       </c>
       <c r="X2" s="9">
-        <f>1-(W2/$AD$3)</f>
+        <f t="shared" ref="X2:X29" si="2">1-(W2/$AD$3)</f>
         <v>0.34589823555157595</v>
       </c>
       <c r="Y2" t="str">
-        <f t="shared" ref="Y2:Y29" si="1">A2</f>
+        <f t="shared" ref="Y2:Y29" si="3">A2</f>
         <v>Austria</v>
       </c>
       <c r="Z2" s="10">
-        <f t="shared" ref="Z2:Z29" si="2">X2</f>
+        <f t="shared" ref="Z2:Z29" si="4">X2</f>
         <v>0.34589823555157595</v>
       </c>
       <c r="AA2" s="13">
@@ -17552,19 +17552,19 @@
         <v>76.7</v>
       </c>
       <c r="W3" s="9">
-        <f>((B3-$B$30)^2+(C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2+(H3-$H$30)^2+(I3-$I$30)^2+(J3-$J$30)^2+(K3-$K$30)^2+(L3-$L$30)^2+(M3-$M$30)^2+(N3-$N$30)^2+(O3-$O$30)^2+(P3-$P$30)^2+(Q3-$Q$30)^2+(R3-$R$30)^2+(S3-$S$30)^2+(T3-$T$30)^2+(U3-$U$30)^2+(V3-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>8926.1795768087031</v>
       </c>
       <c r="X3" s="9">
-        <f>1-(W3/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.32381616015679837</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Belgia</v>
       </c>
       <c r="Z3" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32381616015679837</v>
       </c>
       <c r="AA3" s="13">
@@ -17674,19 +17674,19 @@
         <v>33.18</v>
       </c>
       <c r="W4" s="9">
-        <f>((B4-$B$30)^2+(C4-$C$30)^2+(D4-$D$30)^2+(E4-$E$30)^2+(F4-$F$30)^2+(G4-$G$30)^2+(H4-$H$30)^2+(I4-$I$30)^2+(J4-$J$30)^2+(K4-$K$30)^2+(L4-$L$30)^2+(M4-$M$30)^2+(N4-$N$30)^2+(O4-$O$30)^2+(P4-$P$30)^2+(Q4-$Q$30)^2+(R4-$R$30)^2+(S4-$S$30)^2+(T4-$T$30)^2+(U4-$U$30)^2+(V4-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10586.847407012154</v>
       </c>
       <c r="X4" s="9">
-        <f>1-(W4/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.19801578380670548</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Bułgaria</v>
       </c>
       <c r="Z4" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19801578380670548</v>
       </c>
       <c r="AA4" s="13">
@@ -17793,19 +17793,19 @@
         <v>48.333333333333336</v>
       </c>
       <c r="W5" s="9">
-        <f>((B5-$B$30)^2+(C5-$C$30)^2+(D5-$D$30)^2+(E5-$E$30)^2+(F5-$F$30)^2+(G5-$G$30)^2+(H5-$H$30)^2+(I5-$I$30)^2+(J5-$J$30)^2+(K5-$K$30)^2+(L5-$L$30)^2+(M5-$M$30)^2+(N5-$N$30)^2+(O5-$O$30)^2+(P5-$P$30)^2+(Q5-$Q$30)^2+(R5-$R$30)^2+(S5-$S$30)^2+(T5-$T$30)^2+(U5-$U$30)^2+(V5-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>9625.0277696072153</v>
       </c>
       <c r="X5" s="9">
-        <f>1-(W5/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.27087639455968648</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Chorwacja</v>
       </c>
       <c r="Z5" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27087639455968648</v>
       </c>
       <c r="AA5" s="13">
@@ -17912,19 +17912,19 @@
         <v>144.90352633826882</v>
       </c>
       <c r="W6" s="9">
-        <f>((B6-$B$30)^2+(C6-$C$30)^2+(D6-$D$30)^2+(E6-$E$30)^2+(F6-$F$30)^2+(G6-$G$30)^2+(H6-$H$30)^2+(I6-$I$30)^2+(J6-$J$30)^2+(K6-$K$30)^2+(L6-$L$30)^2+(M6-$M$30)^2+(N6-$N$30)^2+(O6-$O$30)^2+(P6-$P$30)^2+(Q6-$Q$30)^2+(R6-$R$30)^2+(S6-$S$30)^2+(T6-$T$30)^2+(U6-$U$30)^2+(V6-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>8492.1449980843809</v>
       </c>
       <c r="X6" s="9">
-        <f>1-(W6/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.35669553094932127</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Cypr</v>
       </c>
       <c r="Z6" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35669553094932127</v>
       </c>
       <c r="AA6" s="13">
@@ -18031,19 +18031,19 @@
         <v>106.25</v>
       </c>
       <c r="W7" s="9">
-        <f>((B7-$B$30)^2+(C7-$C$30)^2+(D7-$D$30)^2+(E7-$E$30)^2+(F7-$F$30)^2+(G7-$G$30)^2+(H7-$H$30)^2+(I7-$I$30)^2+(J7-$J$30)^2+(K7-$K$30)^2+(L7-$L$30)^2+(M7-$M$30)^2+(N7-$N$30)^2+(O7-$O$30)^2+(P7-$P$30)^2+(Q7-$Q$30)^2+(R7-$R$30)^2+(S7-$S$30)^2+(T7-$T$30)^2+(U7-$U$30)^2+(V7-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>7562.7979571808883</v>
       </c>
       <c r="X7" s="9">
-        <f>1-(W7/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.42709624888891151</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Czechy</v>
       </c>
       <c r="Z7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42709624888891151</v>
       </c>
       <c r="AA7" s="13">
@@ -18150,19 +18150,19 @@
         <v>68.575000000000003</v>
       </c>
       <c r="W8" s="9">
-        <f>((B8-$B$30)^2+(C8-$C$30)^2+(D8-$D$30)^2+(E8-$E$30)^2+(F8-$F$30)^2+(G8-$G$30)^2+(H8-$H$30)^2+(I8-$I$30)^2+(J8-$J$30)^2+(K8-$K$30)^2+(L8-$L$30)^2+(M8-$M$30)^2+(N8-$N$30)^2+(O8-$O$30)^2+(P8-$P$30)^2+(Q8-$Q$30)^2+(R8-$R$30)^2+(S8-$S$30)^2+(T8-$T$30)^2+(U8-$U$30)^2+(V8-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>6710.3820660726115</v>
       </c>
       <c r="X8" s="9">
-        <f>1-(W8/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.49166921041553036</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Dania</v>
       </c>
       <c r="Z8" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49166921041553036</v>
       </c>
       <c r="AA8" s="13">
@@ -18269,19 +18269,19 @@
         <v>28.25</v>
       </c>
       <c r="W9" s="9">
-        <f>((B9-$B$30)^2+(C9-$C$30)^2+(D9-$D$30)^2+(E9-$E$30)^2+(F9-$F$30)^2+(G9-$G$30)^2+(H9-$H$30)^2+(I9-$I$30)^2+(J9-$J$30)^2+(K9-$K$30)^2+(L9-$L$30)^2+(M9-$M$30)^2+(N9-$N$30)^2+(O9-$O$30)^2+(P9-$P$30)^2+(Q9-$Q$30)^2+(R9-$R$30)^2+(S9-$S$30)^2+(T9-$T$30)^2+(U9-$U$30)^2+(V9-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>8620.333347376336</v>
       </c>
       <c r="X9" s="9">
-        <f>1-(W9/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.34698489388432219</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Estonia</v>
       </c>
       <c r="Z9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34698489388432219</v>
       </c>
       <c r="AA9" s="13">
@@ -18388,19 +18388,19 @@
         <v>132.69999999999999</v>
       </c>
       <c r="W10" s="9">
-        <f>((B10-$B$30)^2+(C10-$C$30)^2+(D10-$D$30)^2+(E10-$E$30)^2+(F10-$F$30)^2+(G10-$G$30)^2+(H10-$H$30)^2+(I10-$I$30)^2+(J10-$J$30)^2+(K10-$K$30)^2+(L10-$L$30)^2+(M10-$M$30)^2+(N10-$N$30)^2+(O10-$O$30)^2+(P10-$P$30)^2+(Q10-$Q$30)^2+(R10-$R$30)^2+(S10-$S$30)^2+(T10-$T$30)^2+(U10-$U$30)^2+(V10-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10471.467863390235</v>
       </c>
       <c r="X10" s="9">
-        <f>1-(W10/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.20675611691050333</v>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Finlandia</v>
       </c>
       <c r="Z10" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20675611691050333</v>
       </c>
       <c r="AA10" s="13">
@@ -18507,19 +18507,19 @@
         <v>434.97499999999997</v>
       </c>
       <c r="W11" s="9">
-        <f>((B11-$B$30)^2+(C11-$C$30)^2+(D11-$D$30)^2+(E11-$E$30)^2+(F11-$F$30)^2+(G11-$G$30)^2+(H11-$H$30)^2+(I11-$I$30)^2+(J11-$J$30)^2+(K11-$K$30)^2+(L11-$L$30)^2+(M11-$M$30)^2+(N11-$N$30)^2+(O11-$O$30)^2+(P11-$P$30)^2+(Q11-$Q$30)^2+(R11-$R$30)^2+(S11-$S$30)^2+(T11-$T$30)^2+(U11-$U$30)^2+(V11-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>9389.2242445029369</v>
       </c>
       <c r="X11" s="9">
-        <f>1-(W11/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.28873919147986438</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Francja</v>
       </c>
       <c r="Z11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28873919147986438</v>
       </c>
       <c r="AA11" s="13">
@@ -18626,19 +18626,19 @@
         <v>145.53229055046864</v>
       </c>
       <c r="W12" s="9">
-        <f>((B12-$B$30)^2+(C12-$C$30)^2+(D12-$D$30)^2+(E12-$E$30)^2+(F12-$F$30)^2+(G12-$G$30)^2+(H12-$H$30)^2+(I12-$I$30)^2+(J12-$J$30)^2+(K12-$K$30)^2+(L12-$L$30)^2+(M12-$M$30)^2+(N12-$N$30)^2+(O12-$O$30)^2+(P12-$P$30)^2+(Q12-$Q$30)^2+(R12-$R$30)^2+(S12-$S$30)^2+(T12-$T$30)^2+(U12-$U$30)^2+(V12-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>7741.1450545365087</v>
       </c>
       <c r="X12" s="9">
-        <f>1-(W12/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.41358594203511101</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Grecja</v>
       </c>
       <c r="Z12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41358594203511101</v>
       </c>
       <c r="AA12" s="13">
@@ -18745,19 +18745,19 @@
         <v>259.75</v>
       </c>
       <c r="W13" s="9">
-        <f>((B13-$B$30)^2+(C13-$C$30)^2+(D13-$D$30)^2+(E13-$E$30)^2+(F13-$F$30)^2+(G13-$G$30)^2+(H13-$H$30)^2+(I13-$I$30)^2+(J13-$J$30)^2+(K13-$K$30)^2+(L13-$L$30)^2+(M13-$M$30)^2+(N13-$N$30)^2+(O13-$O$30)^2+(P13-$P$30)^2+(Q13-$Q$30)^2+(R13-$R$30)^2+(S13-$S$30)^2+(T13-$T$30)^2+(U13-$U$30)^2+(V13-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10790.801253349471</v>
       </c>
       <c r="X13" s="9">
-        <f>1-(W13/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.18256569188546912</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Hiszpania</v>
       </c>
       <c r="Z13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18256569188546912</v>
       </c>
       <c r="AA13" s="13">
@@ -18864,19 +18864,19 @@
         <v>130.75</v>
       </c>
       <c r="W14" s="9">
-        <f>((B14-$B$30)^2+(C14-$C$30)^2+(D14-$D$30)^2+(E14-$E$30)^2+(F14-$F$30)^2+(G14-$G$30)^2+(H14-$H$30)^2+(I14-$I$30)^2+(J14-$J$30)^2+(K14-$K$30)^2+(L14-$L$30)^2+(M14-$M$30)^2+(N14-$N$30)^2+(O14-$O$30)^2+(P14-$P$30)^2+(Q14-$Q$30)^2+(R14-$R$30)^2+(S14-$S$30)^2+(T14-$T$30)^2+(U14-$U$30)^2+(V14-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>9424.3961343217561</v>
       </c>
       <c r="X14" s="9">
-        <f>1-(W14/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.28607481941479618</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Holandia</v>
       </c>
       <c r="Z14" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28607481941479618</v>
       </c>
       <c r="AA14" s="13">
@@ -18983,19 +18983,19 @@
         <v>21.266666666666666</v>
       </c>
       <c r="W15" s="9">
-        <f>((B15-$B$30)^2+(C15-$C$30)^2+(D15-$D$30)^2+(E15-$E$30)^2+(F15-$F$30)^2+(G15-$G$30)^2+(H15-$H$30)^2+(I15-$I$30)^2+(J15-$J$30)^2+(K15-$K$30)^2+(L15-$L$30)^2+(M15-$M$30)^2+(N15-$N$30)^2+(O15-$O$30)^2+(P15-$P$30)^2+(Q15-$Q$30)^2+(R15-$R$30)^2+(S15-$S$30)^2+(T15-$T$30)^2+(U15-$U$30)^2+(V15-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10012.995492200147</v>
       </c>
       <c r="X15" s="9">
-        <f>1-(W15/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.24148672094392198</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Irlandia</v>
       </c>
       <c r="Z15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24148672094392198</v>
       </c>
       <c r="AA15" s="13">
@@ -19102,19 +19102,19 @@
         <v>36.933333333333337</v>
       </c>
       <c r="W16" s="9">
-        <f>((B16-$B$30)^2+(C16-$C$30)^2+(D16-$D$30)^2+(E16-$E$30)^2+(F16-$F$30)^2+(G16-$G$30)^2+(H16-$H$30)^2+(I16-$I$30)^2+(J16-$J$30)^2+(K16-$K$30)^2+(L16-$L$30)^2+(M16-$M$30)^2+(N16-$N$30)^2+(O16-$O$30)^2+(P16-$P$30)^2+(Q16-$Q$30)^2+(R16-$R$30)^2+(S16-$S$30)^2+(T16-$T$30)^2+(U16-$U$30)^2+(V16-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10653.39871711112</v>
       </c>
       <c r="X16" s="9">
-        <f>1-(W16/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.19297433017897059</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Litwa</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.19297433017897059</v>
       </c>
       <c r="AA16" s="13">
@@ -19221,19 +19221,19 @@
         <v>9.64</v>
       </c>
       <c r="W17" s="9">
-        <f>((B17-$B$30)^2+(C17-$C$30)^2+(D17-$D$30)^2+(E17-$E$30)^2+(F17-$F$30)^2+(G17-$G$30)^2+(H17-$H$30)^2+(I17-$I$30)^2+(J17-$J$30)^2+(K17-$K$30)^2+(L17-$L$30)^2+(M17-$M$30)^2+(N17-$N$30)^2+(O17-$O$30)^2+(P17-$P$30)^2+(Q17-$Q$30)^2+(R17-$R$30)^2+(S17-$S$30)^2+(T17-$T$30)^2+(U17-$U$30)^2+(V17-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10480.025657361763</v>
       </c>
       <c r="X17" s="9">
-        <f>1-(W17/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.20610783934242827</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Luksemburg</v>
       </c>
       <c r="Z17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20610783934242827</v>
       </c>
       <c r="AA17" s="13">
@@ -19340,19 +19340,19 @@
         <v>27.9</v>
       </c>
       <c r="W18" s="9">
-        <f>((B18-$B$30)^2+(C18-$C$30)^2+(D18-$D$30)^2+(E18-$E$30)^2+(F18-$F$30)^2+(G18-$G$30)^2+(H18-$H$30)^2+(I18-$I$30)^2+(J18-$J$30)^2+(K18-$K$30)^2+(L18-$L$30)^2+(M18-$M$30)^2+(N18-$N$30)^2+(O18-$O$30)^2+(P18-$P$30)^2+(Q18-$Q$30)^2+(R18-$R$30)^2+(S18-$S$30)^2+(T18-$T$30)^2+(U18-$U$30)^2+(V18-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>465.23439389380349</v>
       </c>
       <c r="X18" s="9">
-        <f>1-(W18/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.96475715324979971</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Łotwa</v>
       </c>
       <c r="Z18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.96475715324979971</v>
       </c>
       <c r="AA18" s="13">
@@ -19459,19 +19459,19 @@
         <v>143.91419305977459</v>
       </c>
       <c r="W19" s="9">
-        <f>((B19-$B$30)^2+(C19-$C$30)^2+(D19-$D$30)^2+(E19-$E$30)^2+(F19-$F$30)^2+(G19-$G$30)^2+(H19-$H$30)^2+(I19-$I$30)^2+(J19-$J$30)^2+(K19-$K$30)^2+(L19-$L$30)^2+(M19-$M$30)^2+(N19-$N$30)^2+(O19-$O$30)^2+(P19-$P$30)^2+(Q19-$Q$30)^2+(R19-$R$30)^2+(S19-$S$30)^2+(T19-$T$30)^2+(U19-$U$30)^2+(V19-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10344.837094789393</v>
       </c>
       <c r="X19" s="9">
-        <f>1-(W19/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.21634876274717008</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Malta</v>
       </c>
       <c r="Z19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21634876274717008</v>
       </c>
       <c r="AA19" s="13">
@@ -19578,19 +19578,19 @@
         <v>101.7</v>
       </c>
       <c r="W20" s="9">
-        <f>((B20-$B$30)^2+(C20-$C$30)^2+(D20-$D$30)^2+(E20-$E$30)^2+(F20-$F$30)^2+(G20-$G$30)^2+(H20-$H$30)^2+(I20-$I$30)^2+(J20-$J$30)^2+(K20-$K$30)^2+(L20-$L$30)^2+(M20-$M$30)^2+(N20-$N$30)^2+(O20-$O$30)^2+(P20-$P$30)^2+(Q20-$Q$30)^2+(R20-$R$30)^2+(S20-$S$30)^2+(T20-$T$30)^2+(U20-$U$30)^2+(V20-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10547.995447456353</v>
       </c>
       <c r="X20" s="9">
-        <f>1-(W20/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.20095893176511426</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Niemcy</v>
       </c>
       <c r="Z20" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20095893176511426</v>
       </c>
       <c r="AA20" s="13">
@@ -19697,19 +19697,19 @@
         <v>329.4</v>
       </c>
       <c r="W21" s="9">
-        <f>((B21-$B$30)^2+(C21-$C$30)^2+(D21-$D$30)^2+(E21-$E$30)^2+(F21-$F$30)^2+(G21-$G$30)^2+(H21-$H$30)^2+(I21-$I$30)^2+(J21-$J$30)^2+(K21-$K$30)^2+(L21-$L$30)^2+(M21-$M$30)^2+(N21-$N$30)^2+(O21-$O$30)^2+(P21-$P$30)^2+(Q21-$Q$30)^2+(R21-$R$30)^2+(S21-$S$30)^2+(T21-$T$30)^2+(U21-$U$30)^2+(V21-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>6797.9507725878584</v>
       </c>
       <c r="X21" s="9">
-        <f>1-(W21/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.48503562840969394</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Polska</v>
       </c>
       <c r="Z21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48503562840969394</v>
       </c>
       <c r="AA21" s="13">
@@ -19816,19 +19816,19 @@
         <v>95.699999999999989</v>
       </c>
       <c r="W22" s="9">
-        <f>((B22-$B$30)^2+(C22-$C$30)^2+(D22-$D$30)^2+(E22-$E$30)^2+(F22-$F$30)^2+(G22-$G$30)^2+(H22-$H$30)^2+(I22-$I$30)^2+(J22-$J$30)^2+(K22-$K$30)^2+(L22-$L$30)^2+(M22-$M$30)^2+(N22-$N$30)^2+(O22-$O$30)^2+(P22-$P$30)^2+(Q22-$Q$30)^2+(R22-$R$30)^2+(S22-$S$30)^2+(T22-$T$30)^2+(U22-$U$30)^2+(V22-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>6630.0619897127026</v>
       </c>
       <c r="X22" s="9">
-        <f>1-(W22/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.49775368778708684</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Portugalia</v>
       </c>
       <c r="Z22" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49775368778708684</v>
       </c>
       <c r="AA22" s="13">
@@ -19935,19 +19935,19 @@
         <v>239.1</v>
       </c>
       <c r="W23" s="9">
-        <f>((B23-$B$30)^2+(C23-$C$30)^2+(D23-$D$30)^2+(E23-$E$30)^2+(F23-$F$30)^2+(G23-$G$30)^2+(H23-$H$30)^2+(I23-$I$30)^2+(J23-$J$30)^2+(K23-$K$30)^2+(L23-$L$30)^2+(M23-$M$30)^2+(N23-$N$30)^2+(O23-$O$30)^2+(P23-$P$30)^2+(Q23-$Q$30)^2+(R23-$R$30)^2+(S23-$S$30)^2+(T23-$T$30)^2+(U23-$U$30)^2+(V23-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>8087.2616146172577</v>
       </c>
       <c r="X23" s="9">
-        <f>1-(W23/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.38736661464931865</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Rumunia</v>
       </c>
       <c r="Z23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38736661464931865</v>
       </c>
       <c r="AA23" s="13">
@@ -20054,19 +20054,19 @@
         <v>144.01113543840199</v>
       </c>
       <c r="W24" s="9">
-        <f>((B24-$B$30)^2+(C24-$C$30)^2+(D24-$D$30)^2+(E24-$E$30)^2+(F24-$F$30)^2+(G24-$G$30)^2+(H24-$H$30)^2+(I24-$I$30)^2+(J24-$J$30)^2+(K24-$K$30)^2+(L24-$L$30)^2+(M24-$M$30)^2+(N24-$N$30)^2+(O24-$O$30)^2+(P24-$P$30)^2+(Q24-$Q$30)^2+(R24-$R$30)^2+(S24-$S$30)^2+(T24-$T$30)^2+(U24-$U$30)^2+(V24-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10372.9420719149</v>
       </c>
       <c r="X24" s="9">
-        <f>1-(W24/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.21421972969468628</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Słowacja</v>
       </c>
       <c r="Z24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21421972969468628</v>
       </c>
       <c r="AA24" s="13">
@@ -20173,19 +20173,19 @@
         <v>23.599999999999998</v>
       </c>
       <c r="W25" s="9">
-        <f>((B25-$B$30)^2+(C25-$C$30)^2+(D25-$D$30)^2+(E25-$E$30)^2+(F25-$F$30)^2+(G25-$G$30)^2+(H25-$H$30)^2+(I25-$I$30)^2+(J25-$J$30)^2+(K25-$K$30)^2+(L25-$L$30)^2+(M25-$M$30)^2+(N25-$N$30)^2+(O25-$O$30)^2+(P25-$P$30)^2+(Q25-$Q$30)^2+(R25-$R$30)^2+(S25-$S$30)^2+(T25-$T$30)^2+(U25-$U$30)^2+(V25-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10496.750592512426</v>
       </c>
       <c r="X25" s="9">
-        <f>1-(W25/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.20484087728167311</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Słowenia</v>
       </c>
       <c r="Z25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20484087728167311</v>
       </c>
       <c r="AA25" s="13">
@@ -20292,19 +20292,19 @@
         <v>71.7</v>
       </c>
       <c r="W26" s="9">
-        <f>((B26-$B$30)^2+(C26-$C$30)^2+(D26-$D$30)^2+(E26-$E$30)^2+(F26-$F$30)^2+(G26-$G$30)^2+(H26-$H$30)^2+(I26-$I$30)^2+(J26-$J$30)^2+(K26-$K$30)^2+(L26-$L$30)^2+(M26-$M$30)^2+(N26-$N$30)^2+(O26-$O$30)^2+(P26-$P$30)^2+(Q26-$Q$30)^2+(R26-$R$30)^2+(S26-$S$30)^2+(T26-$T$30)^2+(U26-$U$30)^2+(V26-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>9300.1657653653801</v>
       </c>
       <c r="X26" s="9">
-        <f>1-(W26/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.29548562805730982</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Szwecja</v>
       </c>
       <c r="Z26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.29548562805730982</v>
       </c>
       <c r="AA26" s="13">
@@ -20411,19 +20411,19 @@
         <v>144.12425003756678</v>
       </c>
       <c r="W27" s="9">
-        <f>((B27-$B$30)^2+(C27-$C$30)^2+(D27-$D$30)^2+(E27-$E$30)^2+(F27-$F$30)^2+(G27-$G$30)^2+(H27-$H$30)^2+(I27-$I$30)^2+(J27-$J$30)^2+(K27-$K$30)^2+(L27-$L$30)^2+(M27-$M$30)^2+(N27-$N$30)^2+(O27-$O$30)^2+(P27-$P$30)^2+(Q27-$Q$30)^2+(R27-$R$30)^2+(S27-$S$30)^2+(T27-$T$30)^2+(U27-$U$30)^2+(V27-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>10143.029155454027</v>
       </c>
       <c r="X27" s="9">
-        <f>1-(W27/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.23163629602570379</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Węgry</v>
       </c>
       <c r="Z27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23163629602570379</v>
       </c>
       <c r="AA27" s="13">
@@ -20530,19 +20530,19 @@
         <v>325.20000000000005</v>
       </c>
       <c r="W28" s="9">
-        <f>((B28-$B$30)^2+(C28-$C$30)^2+(D28-$D$30)^2+(E28-$E$30)^2+(F28-$F$30)^2+(G28-$G$30)^2+(H28-$H$30)^2+(I28-$I$30)^2+(J28-$J$30)^2+(K28-$K$30)^2+(L28-$L$30)^2+(M28-$M$30)^2+(N28-$N$30)^2+(O28-$O$30)^2+(P28-$P$30)^2+(Q28-$Q$30)^2+(R28-$R$30)^2+(S28-$S$30)^2+(T28-$T$30)^2+(U28-$U$30)^2+(V28-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>4849.1800712441027</v>
       </c>
       <c r="X28" s="9">
-        <f>1-(W28/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.63266062793716982</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Wielka Brytania</v>
       </c>
       <c r="Z28" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.63266062793716982</v>
       </c>
       <c r="AA28" s="13">
@@ -20649,19 +20649,19 @@
         <v>144.2523062613476</v>
       </c>
       <c r="W29" s="9">
-        <f>((B29-$B$30)^2+(C29-$C$30)^2+(D29-$D$30)^2+(E29-$E$30)^2+(F29-$F$30)^2+(G29-$G$30)^2+(H29-$H$30)^2+(I29-$I$30)^2+(J29-$J$30)^2+(K29-$K$30)^2+(L29-$L$30)^2+(M29-$M$30)^2+(N29-$N$30)^2+(O29-$O$30)^2+(P29-$P$30)^2+(Q29-$Q$30)^2+(R29-$R$30)^2+(S29-$S$30)^2+(T29-$T$30)^2+(U29-$U$30)^2+(V29-$V$30)^2)^(0.5)</f>
+        <f t="shared" si="1"/>
         <v>8983.7754840000289</v>
       </c>
       <c r="X29" s="9">
-        <f>1-(W29/$AD$3)</f>
+        <f t="shared" si="2"/>
         <v>0.319453104120477</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Włochy</v>
       </c>
       <c r="Z29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.319453104120477</v>
       </c>
       <c r="AA29" s="13">
@@ -20695,63 +20695,63 @@
         <v>1</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" ref="E30:K30" si="3">MIN(E2:E29)</f>
+        <f t="shared" ref="E30:K30" si="5">MIN(E2:E29)</f>
         <v>-24</v>
       </c>
       <c r="F30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.8571428571428577</v>
       </c>
       <c r="I30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
       <c r="K30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>294</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" ref="L30:S30" si="4">MAX(L2:L29)</f>
+        <f t="shared" ref="L30:S30" si="6">MAX(L2:L29)</f>
         <v>44.2</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>178.4</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10947</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.02</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.74</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>78.03</v>
       </c>
       <c r="S30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35</v>
       </c>
       <c r="T30" s="17">
@@ -34626,7 +34626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74E5D8A-E04B-4C6F-99EE-C1B478FE0620}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
